--- a/SIRS MODELS/galicia/summary.xlsx
+++ b/SIRS MODELS/galicia/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF476E4-9DE7-46F7-AF76-219650623B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901D9BC2-2CB9-4ACC-8F0A-7C1CA20DFB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,12 +133,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">

--- a/SIRS MODELS/galicia/summary.xlsx
+++ b/SIRS MODELS/galicia/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901D9BC2-2CB9-4ACC-8F0A-7C1CA20DFB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B5451D-A5F7-41B2-AC70-82FC865865B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,6 +502,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,27 +610,14 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1238,13 +1237,19 @@
                 <c:pt idx="12">
                   <c:v>1832</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>2211</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2627</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6990-4565-839E-3E2E74AF83D1}"/>
+              <c16:uniqueId val="{00000000-F6EE-4671-BC9E-87871FEAB848}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1259,25 +1264,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1859,568 +1852,568 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>138</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>232</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>294</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>353</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>412</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>551</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>703</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>887</c:v>
+                  <c:v>898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1077</c:v>
+                  <c:v>1092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1420</c:v>
+                  <c:v>1421</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1774</c:v>
+                  <c:v>1703</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2205</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2724</c:v>
+                  <c:v>2341</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3341</c:v>
+                  <c:v>2682</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4064</c:v>
+                  <c:v>3025</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4897</c:v>
+                  <c:v>3361</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5838</c:v>
+                  <c:v>3682</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6879</c:v>
+                  <c:v>3980</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8005</c:v>
+                  <c:v>4251</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9194</c:v>
+                  <c:v>4492</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10419</c:v>
+                  <c:v>4702</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11651</c:v>
+                  <c:v>4882</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12861</c:v>
+                  <c:v>5034</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14022</c:v>
+                  <c:v>5160</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15112</c:v>
+                  <c:v>5263</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16114</c:v>
+                  <c:v>5345</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17018</c:v>
+                  <c:v>5409</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17819</c:v>
+                  <c:v>5458</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>18518</c:v>
+                  <c:v>5494</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19118</c:v>
+                  <c:v>5519</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19625</c:v>
+                  <c:v>5535</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20048</c:v>
+                  <c:v>5544</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20395</c:v>
+                  <c:v>5546</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20675</c:v>
+                  <c:v>5543</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20896</c:v>
+                  <c:v>5536</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21067</c:v>
+                  <c:v>5525</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21194</c:v>
+                  <c:v>5511</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21284</c:v>
+                  <c:v>5495</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21343</c:v>
+                  <c:v>5477</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21376</c:v>
+                  <c:v>5458</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>21387</c:v>
+                  <c:v>5438</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21380</c:v>
+                  <c:v>5417</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21358</c:v>
+                  <c:v>5395</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>21323</c:v>
+                  <c:v>5372</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>21277</c:v>
+                  <c:v>5349</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21223</c:v>
+                  <c:v>5325</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21162</c:v>
+                  <c:v>5301</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21095</c:v>
+                  <c:v>5277</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21023</c:v>
+                  <c:v>5253</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20947</c:v>
+                  <c:v>5229</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20868</c:v>
+                  <c:v>5205</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>20786</c:v>
+                  <c:v>5180</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>20702</c:v>
+                  <c:v>5155</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20616</c:v>
+                  <c:v>5131</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>20529</c:v>
+                  <c:v>5107</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20441</c:v>
+                  <c:v>5083</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>20352</c:v>
+                  <c:v>5059</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>20262</c:v>
+                  <c:v>5035</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>20172</c:v>
+                  <c:v>5011</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>20082</c:v>
+                  <c:v>4987</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>19991</c:v>
+                  <c:v>4963</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>19900</c:v>
+                  <c:v>4939</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>19809</c:v>
+                  <c:v>4915</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>19718</c:v>
+                  <c:v>4891</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>19628</c:v>
+                  <c:v>4867</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>19538</c:v>
+                  <c:v>4843</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>19448</c:v>
+                  <c:v>4820</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>19358</c:v>
+                  <c:v>4797</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19268</c:v>
+                  <c:v>4774</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19179</c:v>
+                  <c:v>4751</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>19090</c:v>
+                  <c:v>4728</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>19001</c:v>
+                  <c:v>4705</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>18913</c:v>
+                  <c:v>4682</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>18825</c:v>
+                  <c:v>4659</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>18737</c:v>
+                  <c:v>4636</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>18650</c:v>
+                  <c:v>4613</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>18563</c:v>
+                  <c:v>4590</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>18476</c:v>
+                  <c:v>4568</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>18390</c:v>
+                  <c:v>4546</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>18304</c:v>
+                  <c:v>4524</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>18219</c:v>
+                  <c:v>4502</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>18134</c:v>
+                  <c:v>4480</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>18049</c:v>
+                  <c:v>4458</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>17965</c:v>
+                  <c:v>4436</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>17881</c:v>
+                  <c:v>4414</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>17797</c:v>
+                  <c:v>4392</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>17714</c:v>
+                  <c:v>4371</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>17631</c:v>
+                  <c:v>4350</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>17549</c:v>
+                  <c:v>4329</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>17467</c:v>
+                  <c:v>4308</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>17385</c:v>
+                  <c:v>4287</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17304</c:v>
+                  <c:v>4266</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>17223</c:v>
+                  <c:v>4245</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>17142</c:v>
+                  <c:v>4224</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>17062</c:v>
+                  <c:v>4203</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>16982</c:v>
+                  <c:v>4183</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>16903</c:v>
+                  <c:v>4163</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>16824</c:v>
+                  <c:v>4143</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>16745</c:v>
+                  <c:v>4123</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>16667</c:v>
+                  <c:v>4103</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>16589</c:v>
+                  <c:v>4083</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16511</c:v>
+                  <c:v>4063</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16434</c:v>
+                  <c:v>4043</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>16357</c:v>
+                  <c:v>4023</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>16280</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>16204</c:v>
+                  <c:v>3983</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>16128</c:v>
+                  <c:v>3963</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>16053</c:v>
+                  <c:v>3943</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>15978</c:v>
+                  <c:v>3924</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>15903</c:v>
+                  <c:v>3905</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>15829</c:v>
+                  <c:v>3886</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>15755</c:v>
+                  <c:v>3867</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>15681</c:v>
+                  <c:v>3848</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>15608</c:v>
+                  <c:v>3829</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>15535</c:v>
+                  <c:v>3810</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>15462</c:v>
+                  <c:v>3791</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>15390</c:v>
+                  <c:v>3772</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>15318</c:v>
+                  <c:v>3753</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>15246</c:v>
+                  <c:v>3735</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>15175</c:v>
+                  <c:v>3717</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>15104</c:v>
+                  <c:v>3699</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>15033</c:v>
+                  <c:v>3681</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>14963</c:v>
+                  <c:v>3663</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>14893</c:v>
+                  <c:v>3645</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>14823</c:v>
+                  <c:v>3627</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>14754</c:v>
+                  <c:v>3609</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>14685</c:v>
+                  <c:v>3591</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>14616</c:v>
+                  <c:v>3573</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>14548</c:v>
+                  <c:v>3555</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>14480</c:v>
+                  <c:v>3537</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>14412</c:v>
+                  <c:v>3520</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>14344</c:v>
+                  <c:v>3503</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>14277</c:v>
+                  <c:v>3486</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>14210</c:v>
+                  <c:v>3469</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>14143</c:v>
+                  <c:v>3452</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>14077</c:v>
+                  <c:v>3435</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>14011</c:v>
+                  <c:v>3418</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>13945</c:v>
+                  <c:v>3401</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>13880</c:v>
+                  <c:v>3384</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>13815</c:v>
+                  <c:v>3367</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>13750</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>13686</c:v>
+                  <c:v>3333</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>13622</c:v>
+                  <c:v>3316</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>13558</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>13494</c:v>
+                  <c:v>3284</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>13431</c:v>
+                  <c:v>3268</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>13368</c:v>
+                  <c:v>3252</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>13305</c:v>
+                  <c:v>3236</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>13243</c:v>
+                  <c:v>3220</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>13181</c:v>
+                  <c:v>3204</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>13119</c:v>
+                  <c:v>3188</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>13057</c:v>
+                  <c:v>3172</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>12996</c:v>
+                  <c:v>3156</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>12935</c:v>
+                  <c:v>3140</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>12874</c:v>
+                  <c:v>3124</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>12814</c:v>
+                  <c:v>3108</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>12754</c:v>
+                  <c:v>3092</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>12694</c:v>
+                  <c:v>3077</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>12634</c:v>
+                  <c:v>3062</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>12575</c:v>
+                  <c:v>3047</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>12516</c:v>
+                  <c:v>3032</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>12457</c:v>
+                  <c:v>3017</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>12399</c:v>
+                  <c:v>3002</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>12341</c:v>
+                  <c:v>2987</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>12283</c:v>
+                  <c:v>2972</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>12225</c:v>
+                  <c:v>2957</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>12168</c:v>
+                  <c:v>2942</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>12111</c:v>
+                  <c:v>2927</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>12054</c:v>
+                  <c:v>2912</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>11997</c:v>
+                  <c:v>2897</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>11941</c:v>
+                  <c:v>2882</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>11885</c:v>
+                  <c:v>2867</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>11829</c:v>
+                  <c:v>2853</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>11773</c:v>
+                  <c:v>2839</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>11718</c:v>
+                  <c:v>2825</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>11663</c:v>
+                  <c:v>2811</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>11608</c:v>
+                  <c:v>2797</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>11553</c:v>
+                  <c:v>2783</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>11499</c:v>
+                  <c:v>2769</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>11445</c:v>
+                  <c:v>2755</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>11391</c:v>
+                  <c:v>2741</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>11337</c:v>
+                  <c:v>2727</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>11283</c:v>
+                  <c:v>2713</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>11229</c:v>
+                  <c:v>2699</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>11176</c:v>
+                  <c:v>2685</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>11123</c:v>
+                  <c:v>2671</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>11070</c:v>
+                  <c:v>2657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2436,32 +2429,20 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>26/3/2020</c:v>
+            <c:v>28/3/2020</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3043,568 +3024,568 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>132</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>281</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>337</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>394</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>527</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>673</c:v>
+                  <c:v>693</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>849</c:v>
+                  <c:v>874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1031</c:v>
+                  <c:v>1065</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1361</c:v>
+                  <c:v>1389</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1599</c:v>
+                  <c:v>1616</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1847</c:v>
+                  <c:v>1861</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2088</c:v>
+                  <c:v>2112</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2484</c:v>
+                  <c:v>2510</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2943</c:v>
+                  <c:v>2935</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3469</c:v>
+                  <c:v>3241</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4067</c:v>
+                  <c:v>3539</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4738</c:v>
+                  <c:v>3824</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5483</c:v>
+                  <c:v>4091</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6298</c:v>
+                  <c:v>4337</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7176</c:v>
+                  <c:v>4561</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8108</c:v>
+                  <c:v>4761</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9082</c:v>
+                  <c:v>4938</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10082</c:v>
+                  <c:v>5093</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11093</c:v>
+                  <c:v>5228</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12098</c:v>
+                  <c:v>5344</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13081</c:v>
+                  <c:v>5443</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14027</c:v>
+                  <c:v>5527</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14924</c:v>
+                  <c:v>5598</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15763</c:v>
+                  <c:v>5658</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16538</c:v>
+                  <c:v>5708</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17244</c:v>
+                  <c:v>5750</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17880</c:v>
+                  <c:v>5784</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18447</c:v>
+                  <c:v>5812</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18948</c:v>
+                  <c:v>5835</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>19386</c:v>
+                  <c:v>5854</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>19765</c:v>
+                  <c:v>5870</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20090</c:v>
+                  <c:v>5883</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20366</c:v>
+                  <c:v>5893</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20598</c:v>
+                  <c:v>5901</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20791</c:v>
+                  <c:v>5907</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20950</c:v>
+                  <c:v>5912</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21079</c:v>
+                  <c:v>5915</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>21181</c:v>
+                  <c:v>5917</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>21260</c:v>
+                  <c:v>5919</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21319</c:v>
+                  <c:v>5920</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21361</c:v>
+                  <c:v>5920</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21388</c:v>
+                  <c:v>5920</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21402</c:v>
+                  <c:v>5919</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>21405</c:v>
+                  <c:v>5918</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>21399</c:v>
+                  <c:v>5917</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>21385</c:v>
+                  <c:v>5916</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>21364</c:v>
+                  <c:v>5914</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>21337</c:v>
+                  <c:v>5912</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>21305</c:v>
+                  <c:v>5910</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>21269</c:v>
+                  <c:v>5908</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>21229</c:v>
+                  <c:v>5906</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>21186</c:v>
+                  <c:v>5904</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21140</c:v>
+                  <c:v>5902</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21092</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>21042</c:v>
+                  <c:v>5898</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>20990</c:v>
+                  <c:v>5896</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20937</c:v>
+                  <c:v>5894</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>20883</c:v>
+                  <c:v>5892</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>20828</c:v>
+                  <c:v>5890</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>20772</c:v>
+                  <c:v>5888</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>20716</c:v>
+                  <c:v>5886</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>20659</c:v>
+                  <c:v>5884</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>20602</c:v>
+                  <c:v>5882</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>20545</c:v>
+                  <c:v>5880</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>20487</c:v>
+                  <c:v>5878</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>20429</c:v>
+                  <c:v>5876</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>20371</c:v>
+                  <c:v>5874</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>20313</c:v>
+                  <c:v>5872</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>20255</c:v>
+                  <c:v>5870</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>20197</c:v>
+                  <c:v>5868</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>20139</c:v>
+                  <c:v>5866</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>20081</c:v>
+                  <c:v>5864</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>20023</c:v>
+                  <c:v>5862</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>19965</c:v>
+                  <c:v>5860</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>19907</c:v>
+                  <c:v>5858</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>19849</c:v>
+                  <c:v>5856</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>19791</c:v>
+                  <c:v>5854</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>19733</c:v>
+                  <c:v>5852</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19676</c:v>
+                  <c:v>5850</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>19619</c:v>
+                  <c:v>5848</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>19562</c:v>
+                  <c:v>5846</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>19505</c:v>
+                  <c:v>5844</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>19448</c:v>
+                  <c:v>5842</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>19391</c:v>
+                  <c:v>5840</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>19334</c:v>
+                  <c:v>5838</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>19278</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>19222</c:v>
+                  <c:v>5834</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>19166</c:v>
+                  <c:v>5832</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>19110</c:v>
+                  <c:v>5830</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>19054</c:v>
+                  <c:v>5828</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>18998</c:v>
+                  <c:v>5826</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>18942</c:v>
+                  <c:v>5824</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>18887</c:v>
+                  <c:v>5822</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>18832</c:v>
+                  <c:v>5820</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>18777</c:v>
+                  <c:v>5818</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>18722</c:v>
+                  <c:v>5816</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>18667</c:v>
+                  <c:v>5814</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>18612</c:v>
+                  <c:v>5812</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>18557</c:v>
+                  <c:v>5810</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>18503</c:v>
+                  <c:v>5808</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>18449</c:v>
+                  <c:v>5806</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>18395</c:v>
+                  <c:v>5804</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>18341</c:v>
+                  <c:v>5802</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>18287</c:v>
+                  <c:v>5800</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>18233</c:v>
+                  <c:v>5798</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>18179</c:v>
+                  <c:v>5796</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>18126</c:v>
+                  <c:v>5794</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>18073</c:v>
+                  <c:v>5792</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>18020</c:v>
+                  <c:v>5790</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>17967</c:v>
+                  <c:v>5788</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>17914</c:v>
+                  <c:v>5786</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>17861</c:v>
+                  <c:v>5784</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>17808</c:v>
+                  <c:v>5782</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>17756</c:v>
+                  <c:v>5780</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>17704</c:v>
+                  <c:v>5778</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>17652</c:v>
+                  <c:v>5776</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>17600</c:v>
+                  <c:v>5774</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>17548</c:v>
+                  <c:v>5772</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>17496</c:v>
+                  <c:v>5770</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>17444</c:v>
+                  <c:v>5768</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>17393</c:v>
+                  <c:v>5766</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>17342</c:v>
+                  <c:v>5764</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>17291</c:v>
+                  <c:v>5762</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>17240</c:v>
+                  <c:v>5760</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>17189</c:v>
+                  <c:v>5758</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>17138</c:v>
+                  <c:v>5756</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>17087</c:v>
+                  <c:v>5754</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>17036</c:v>
+                  <c:v>5752</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>16986</c:v>
+                  <c:v>5750</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>16936</c:v>
+                  <c:v>5748</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>16886</c:v>
+                  <c:v>5746</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>16836</c:v>
+                  <c:v>5744</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>16786</c:v>
+                  <c:v>5742</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>16736</c:v>
+                  <c:v>5740</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>16686</c:v>
+                  <c:v>5738</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>16637</c:v>
+                  <c:v>5736</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>16588</c:v>
+                  <c:v>5734</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>16539</c:v>
+                  <c:v>5732</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>16490</c:v>
+                  <c:v>5730</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>16441</c:v>
+                  <c:v>5728</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>16392</c:v>
+                  <c:v>5726</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>16343</c:v>
+                  <c:v>5724</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>16295</c:v>
+                  <c:v>5722</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>16247</c:v>
+                  <c:v>5720</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>16199</c:v>
+                  <c:v>5718</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>16151</c:v>
+                  <c:v>5716</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>16103</c:v>
+                  <c:v>5714</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>16055</c:v>
+                  <c:v>5712</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>16007</c:v>
+                  <c:v>5710</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>15959</c:v>
+                  <c:v>5708</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>15912</c:v>
+                  <c:v>5706</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>15865</c:v>
+                  <c:v>5704</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>15818</c:v>
+                  <c:v>5702</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>15771</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>15724</c:v>
+                  <c:v>5698</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>15677</c:v>
+                  <c:v>5696</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>15630</c:v>
+                  <c:v>5694</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>15583</c:v>
+                  <c:v>5692</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>15537</c:v>
+                  <c:v>5690</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>15491</c:v>
+                  <c:v>5688</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>15445</c:v>
+                  <c:v>5686</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>15399</c:v>
+                  <c:v>5684</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>15353</c:v>
+                  <c:v>5682</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>15307</c:v>
+                  <c:v>5680</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>15261</c:v>
+                  <c:v>5678</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>15215</c:v>
+                  <c:v>5676</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>15170</c:v>
+                  <c:v>5674</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>15125</c:v>
+                  <c:v>5672</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>15080</c:v>
+                  <c:v>5670</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>15035</c:v>
+                  <c:v>5668</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>14990</c:v>
+                  <c:v>5666</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>14945</c:v>
+                  <c:v>5664</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>14900</c:v>
+                  <c:v>5662</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>14855</c:v>
+                  <c:v>5660</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>14811</c:v>
+                  <c:v>5658</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>14767</c:v>
+                  <c:v>5656</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>14723</c:v>
+                  <c:v>5654</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>14679</c:v>
+                  <c:v>5652</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>14635</c:v>
+                  <c:v>5650</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>14591</c:v>
+                  <c:v>5648</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>14547</c:v>
+                  <c:v>5646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3631,7 +3612,7 @@
         <c:axId val="1356387871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120"/>
+          <c:max val="60"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3763,6 +3744,7 @@
         <c:axId val="1353300159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4864,8 +4846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,7 +4911,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="17">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
@@ -4945,10 +4927,10 @@
         <v>131</v>
       </c>
       <c r="E3" s="28">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F3" s="24">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4963,10 +4945,10 @@
         <v>183</v>
       </c>
       <c r="E4" s="30">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F4" s="25">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -4984,10 +4966,10 @@
         <v>232</v>
       </c>
       <c r="E5" s="31">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F5" s="26">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -5006,10 +4988,10 @@
         <v>278</v>
       </c>
       <c r="E6" s="30">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F6" s="25">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
@@ -5028,10 +5010,10 @@
         <v>325</v>
       </c>
       <c r="E7" s="31">
+        <v>364</v>
+      </c>
+      <c r="F7" s="26">
         <v>353</v>
-      </c>
-      <c r="F7" s="26">
-        <v>337</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -5050,10 +5032,10 @@
         <v>435</v>
       </c>
       <c r="E8" s="30">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="F8" s="25">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -5072,10 +5054,10 @@
         <v>556</v>
       </c>
       <c r="E9" s="31">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="F9" s="26">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
@@ -5094,10 +5076,10 @@
         <v>703</v>
       </c>
       <c r="E10" s="30">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="F10" s="25">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -5115,10 +5097,10 @@
         <v>855</v>
       </c>
       <c r="E11" s="31">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="F11" s="26">
-        <v>849</v>
+        <v>874</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
@@ -5136,10 +5118,10 @@
         <v>1132</v>
       </c>
       <c r="E12" s="30">
-        <v>1077</v>
+        <v>1092</v>
       </c>
       <c r="F12" s="25">
-        <v>1031</v>
+        <v>1065</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -5157,10 +5139,10 @@
         <v>1374</v>
       </c>
       <c r="E13" s="31">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="F13" s="26">
-        <v>1361</v>
+        <v>1389</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -5184,10 +5166,10 @@
         <v>1598</v>
       </c>
       <c r="E14" s="30">
-        <v>1774</v>
+        <v>1703</v>
       </c>
       <c r="F14" s="25">
-        <v>1599</v>
+        <v>1616</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -5205,10 +5187,10 @@
         <v>1832</v>
       </c>
       <c r="E15" s="31">
-        <v>2205</v>
+        <v>2012</v>
       </c>
       <c r="F15" s="26">
-        <v>1847</v>
+        <v>1861</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -5222,12 +5204,14 @@
       <c r="C16" s="21">
         <v>43917</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="29">
+        <v>2211</v>
+      </c>
       <c r="E16" s="30">
-        <v>2724</v>
+        <v>2341</v>
       </c>
       <c r="F16" s="25">
-        <v>2088</v>
+        <v>2112</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -5241,12 +5225,14 @@
       <c r="C17" s="20">
         <v>43918</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="27">
+        <v>2627</v>
+      </c>
       <c r="E17" s="31">
-        <v>3341</v>
+        <v>2682</v>
       </c>
       <c r="F17" s="26">
-        <v>2484</v>
+        <v>2510</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
@@ -5266,10 +5252,10 @@
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30">
-        <v>4064</v>
+        <v>3025</v>
       </c>
       <c r="F18" s="25">
-        <v>2943</v>
+        <v>2935</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
@@ -5285,10 +5271,10 @@
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="31">
-        <v>4897</v>
+        <v>3361</v>
       </c>
       <c r="F19" s="26">
-        <v>3469</v>
+        <v>3241</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -5304,10 +5290,10 @@
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30">
-        <v>5838</v>
+        <v>3682</v>
       </c>
       <c r="F20" s="25">
-        <v>4067</v>
+        <v>3539</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -5323,10 +5309,10 @@
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="31">
-        <v>6879</v>
+        <v>3980</v>
       </c>
       <c r="F21" s="26">
-        <v>4738</v>
+        <v>3824</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -5342,10 +5328,10 @@
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="30">
-        <v>8005</v>
+        <v>4251</v>
       </c>
       <c r="F22" s="25">
-        <v>5483</v>
+        <v>4091</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -5361,10 +5347,10 @@
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="31">
-        <v>9194</v>
+        <v>4492</v>
       </c>
       <c r="F23" s="26">
-        <v>6298</v>
+        <v>4337</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -5387,10 +5373,10 @@
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="30">
-        <v>10419</v>
+        <v>4702</v>
       </c>
       <c r="F24" s="25">
-        <v>7176</v>
+        <v>4561</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -5413,10 +5399,10 @@
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="31">
-        <v>11651</v>
+        <v>4882</v>
       </c>
       <c r="F25" s="26">
-        <v>8108</v>
+        <v>4761</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -5439,10 +5425,10 @@
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="30">
-        <v>12861</v>
+        <v>5034</v>
       </c>
       <c r="F26" s="25">
-        <v>9082</v>
+        <v>4938</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -5465,10 +5451,10 @@
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="31">
-        <v>14022</v>
+        <v>5160</v>
       </c>
       <c r="F27" s="26">
-        <v>10082</v>
+        <v>5093</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
@@ -5491,10 +5477,10 @@
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="30">
-        <v>15112</v>
+        <v>5263</v>
       </c>
       <c r="F28" s="25">
-        <v>11093</v>
+        <v>5228</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
@@ -5517,10 +5503,10 @@
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="31">
-        <v>16114</v>
+        <v>5345</v>
       </c>
       <c r="F29" s="26">
-        <v>12098</v>
+        <v>5344</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
@@ -5543,10 +5529,10 @@
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="30">
-        <v>17018</v>
+        <v>5409</v>
       </c>
       <c r="F30" s="25">
-        <v>13081</v>
+        <v>5443</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
@@ -5569,10 +5555,10 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="31">
-        <v>17819</v>
+        <v>5458</v>
       </c>
       <c r="F31" s="26">
-        <v>14027</v>
+        <v>5527</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="13"/>
@@ -5597,10 +5583,10 @@
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="30">
-        <v>18518</v>
+        <v>5494</v>
       </c>
       <c r="F32" s="25">
-        <v>14924</v>
+        <v>5598</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -5627,10 +5613,10 @@
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="31">
-        <v>19118</v>
+        <v>5519</v>
       </c>
       <c r="F33" s="26">
-        <v>15763</v>
+        <v>5658</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
@@ -5656,10 +5642,10 @@
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="30">
-        <v>19625</v>
+        <v>5535</v>
       </c>
       <c r="F34" s="25">
-        <v>16538</v>
+        <v>5708</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
@@ -5685,10 +5671,10 @@
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="31">
-        <v>20048</v>
+        <v>5544</v>
       </c>
       <c r="F35" s="26">
-        <v>17244</v>
+        <v>5750</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5"/>
@@ -5711,11 +5697,11 @@
         <v>43937</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="E36" s="30">
-        <v>20395</v>
+      <c r="E36" s="38">
+        <v>5546</v>
       </c>
       <c r="F36" s="25">
-        <v>17880</v>
+        <v>5784</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5"/>
@@ -5739,10 +5725,10 @@
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="31">
-        <v>20675</v>
+        <v>5543</v>
       </c>
       <c r="F37" s="26">
-        <v>18447</v>
+        <v>5812</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="13"/>
@@ -5766,10 +5752,10 @@
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="30">
-        <v>20896</v>
+        <v>5536</v>
       </c>
       <c r="F38" s="25">
-        <v>18948</v>
+        <v>5835</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
@@ -5794,10 +5780,10 @@
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="31">
-        <v>21067</v>
+        <v>5525</v>
       </c>
       <c r="F39" s="26">
-        <v>19386</v>
+        <v>5854</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="13"/>
@@ -5821,10 +5807,10 @@
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="30">
-        <v>21194</v>
+        <v>5511</v>
       </c>
       <c r="F40" s="25">
-        <v>19765</v>
+        <v>5870</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5"/>
@@ -5848,10 +5834,10 @@
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="31">
-        <v>21284</v>
+        <v>5495</v>
       </c>
       <c r="F41" s="26">
-        <v>20090</v>
+        <v>5883</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="13"/>
@@ -5875,10 +5861,10 @@
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="30">
-        <v>21343</v>
-      </c>
-      <c r="F42" s="25">
-        <v>20366</v>
+        <v>5477</v>
+      </c>
+      <c r="F42" s="37">
+        <v>5893</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5"/>
@@ -5906,10 +5892,10 @@
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="31">
-        <v>21376</v>
+        <v>5458</v>
       </c>
       <c r="F43" s="26">
-        <v>20598</v>
+        <v>5901</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="13"/>
@@ -5933,10 +5919,10 @@
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="30">
-        <v>21387</v>
+        <v>5438</v>
       </c>
       <c r="F44" s="25">
-        <v>20791</v>
+        <v>5907</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
@@ -5960,10 +5946,10 @@
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="31">
-        <v>21380</v>
+        <v>5417</v>
       </c>
       <c r="F45" s="26">
-        <v>20950</v>
+        <v>5912</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="13"/>
@@ -5987,10 +5973,10 @@
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="30">
-        <v>21358</v>
+        <v>5395</v>
       </c>
       <c r="F46" s="25">
-        <v>21079</v>
+        <v>5915</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5"/>
@@ -6014,10 +6000,10 @@
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="31">
-        <v>21323</v>
+        <v>5372</v>
       </c>
       <c r="F47" s="26">
-        <v>21181</v>
+        <v>5917</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="13"/>
@@ -6041,10 +6027,10 @@
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="30">
-        <v>21277</v>
+        <v>5349</v>
       </c>
       <c r="F48" s="25">
-        <v>21260</v>
+        <v>5919</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5"/>
@@ -6068,10 +6054,10 @@
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="31">
-        <v>21223</v>
+        <v>5325</v>
       </c>
       <c r="F49" s="26">
-        <v>21319</v>
+        <v>5920</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="13"/>
@@ -6095,10 +6081,10 @@
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="30">
-        <v>21162</v>
+        <v>5301</v>
       </c>
       <c r="F50" s="25">
-        <v>21361</v>
+        <v>5920</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5"/>
@@ -6122,10 +6108,10 @@
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="31">
-        <v>21095</v>
+        <v>5277</v>
       </c>
       <c r="F51" s="26">
-        <v>21388</v>
+        <v>5920</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="13"/>
@@ -6149,10 +6135,10 @@
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="30">
-        <v>21023</v>
+        <v>5253</v>
       </c>
       <c r="F52" s="25">
-        <v>21402</v>
+        <v>5919</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5"/>
@@ -6176,10 +6162,10 @@
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="31">
-        <v>20947</v>
+        <v>5229</v>
       </c>
       <c r="F53" s="26">
-        <v>21405</v>
+        <v>5918</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="13"/>
@@ -6203,10 +6189,10 @@
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="30">
-        <v>20868</v>
+        <v>5205</v>
       </c>
       <c r="F54" s="25">
-        <v>21399</v>
+        <v>5917</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5"/>
@@ -6230,10 +6216,10 @@
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="31">
-        <v>20786</v>
+        <v>5180</v>
       </c>
       <c r="F55" s="26">
-        <v>21385</v>
+        <v>5916</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="13"/>
@@ -6257,10 +6243,10 @@
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="30">
-        <v>20702</v>
+        <v>5155</v>
       </c>
       <c r="F56" s="25">
-        <v>21364</v>
+        <v>5914</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="5"/>
@@ -6284,10 +6270,10 @@
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="31">
-        <v>20616</v>
+        <v>5131</v>
       </c>
       <c r="F57" s="26">
-        <v>21337</v>
+        <v>5912</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="13"/>
@@ -6311,10 +6297,10 @@
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="30">
-        <v>20529</v>
+        <v>5107</v>
       </c>
       <c r="F58" s="25">
-        <v>21305</v>
+        <v>5910</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5"/>
@@ -6338,10 +6324,10 @@
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="31">
-        <v>20441</v>
+        <v>5083</v>
       </c>
       <c r="F59" s="26">
-        <v>21269</v>
+        <v>5908</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="5"/>
@@ -6359,10 +6345,10 @@
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="30">
-        <v>20352</v>
+        <v>5059</v>
       </c>
       <c r="F60" s="25">
-        <v>21229</v>
+        <v>5906</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5"/>
@@ -6380,10 +6366,10 @@
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="31">
-        <v>20262</v>
+        <v>5035</v>
       </c>
       <c r="F61" s="26">
-        <v>21186</v>
+        <v>5904</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="5"/>
@@ -6401,10 +6387,10 @@
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="30">
-        <v>20172</v>
+        <v>5011</v>
       </c>
       <c r="F62" s="25">
-        <v>21140</v>
+        <v>5902</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5"/>
@@ -6422,10 +6408,10 @@
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="31">
-        <v>20082</v>
+        <v>4987</v>
       </c>
       <c r="F63" s="26">
-        <v>21092</v>
+        <v>5900</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5"/>
@@ -6443,10 +6429,10 @@
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30">
-        <v>19991</v>
+        <v>4963</v>
       </c>
       <c r="F64" s="25">
-        <v>21042</v>
+        <v>5898</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5"/>
@@ -6464,10 +6450,10 @@
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="31">
-        <v>19900</v>
+        <v>4939</v>
       </c>
       <c r="F65" s="26">
-        <v>20990</v>
+        <v>5896</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5"/>
@@ -6485,10 +6471,10 @@
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="30">
-        <v>19809</v>
+        <v>4915</v>
       </c>
       <c r="F66" s="25">
-        <v>20937</v>
+        <v>5894</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="5"/>
@@ -6506,10 +6492,10 @@
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="31">
-        <v>19718</v>
+        <v>4891</v>
       </c>
       <c r="F67" s="26">
-        <v>20883</v>
+        <v>5892</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5"/>
@@ -6527,10 +6513,10 @@
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="30">
-        <v>19628</v>
+        <v>4867</v>
       </c>
       <c r="F68" s="25">
-        <v>20828</v>
+        <v>5890</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="5"/>
@@ -6548,10 +6534,10 @@
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="31">
-        <v>19538</v>
+        <v>4843</v>
       </c>
       <c r="F69" s="26">
-        <v>20772</v>
+        <v>5888</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5"/>
@@ -6569,10 +6555,10 @@
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="30">
-        <v>19448</v>
+        <v>4820</v>
       </c>
       <c r="F70" s="25">
-        <v>20716</v>
+        <v>5886</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5"/>
@@ -6590,10 +6576,10 @@
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="31">
-        <v>19358</v>
+        <v>4797</v>
       </c>
       <c r="F71" s="26">
-        <v>20659</v>
+        <v>5884</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5"/>
@@ -6611,10 +6597,10 @@
       </c>
       <c r="D72" s="29"/>
       <c r="E72" s="30">
-        <v>19268</v>
+        <v>4774</v>
       </c>
       <c r="F72" s="25">
-        <v>20602</v>
+        <v>5882</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5"/>
@@ -6632,10 +6618,10 @@
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="31">
-        <v>19179</v>
+        <v>4751</v>
       </c>
       <c r="F73" s="26">
-        <v>20545</v>
+        <v>5880</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="5"/>
@@ -6653,10 +6639,10 @@
       </c>
       <c r="D74" s="29"/>
       <c r="E74" s="30">
-        <v>19090</v>
+        <v>4728</v>
       </c>
       <c r="F74" s="25">
-        <v>20487</v>
+        <v>5878</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5"/>
@@ -6674,10 +6660,10 @@
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="31">
-        <v>19001</v>
+        <v>4705</v>
       </c>
       <c r="F75" s="26">
-        <v>20429</v>
+        <v>5876</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5"/>
@@ -6695,10 +6681,10 @@
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="30">
-        <v>18913</v>
+        <v>4682</v>
       </c>
       <c r="F76" s="25">
-        <v>20371</v>
+        <v>5874</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5"/>
@@ -6716,10 +6702,10 @@
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="31">
-        <v>18825</v>
+        <v>4659</v>
       </c>
       <c r="F77" s="26">
-        <v>20313</v>
+        <v>5872</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5"/>
@@ -6737,10 +6723,10 @@
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="30">
-        <v>18737</v>
+        <v>4636</v>
       </c>
       <c r="F78" s="25">
-        <v>20255</v>
+        <v>5870</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5"/>
@@ -6758,10 +6744,10 @@
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="31">
-        <v>18650</v>
+        <v>4613</v>
       </c>
       <c r="F79" s="26">
-        <v>20197</v>
+        <v>5868</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5"/>
@@ -6779,10 +6765,10 @@
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="30">
-        <v>18563</v>
+        <v>4590</v>
       </c>
       <c r="F80" s="25">
-        <v>20139</v>
+        <v>5866</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5"/>
@@ -6800,10 +6786,10 @@
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="31">
-        <v>18476</v>
+        <v>4568</v>
       </c>
       <c r="F81" s="26">
-        <v>20081</v>
+        <v>5864</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5"/>
@@ -6821,10 +6807,10 @@
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="30">
-        <v>18390</v>
+        <v>4546</v>
       </c>
       <c r="F82" s="25">
-        <v>20023</v>
+        <v>5862</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5"/>
@@ -6842,10 +6828,10 @@
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="31">
-        <v>18304</v>
+        <v>4524</v>
       </c>
       <c r="F83" s="26">
-        <v>19965</v>
+        <v>5860</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="5"/>
@@ -6863,10 +6849,10 @@
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="30">
-        <v>18219</v>
+        <v>4502</v>
       </c>
       <c r="F84" s="25">
-        <v>19907</v>
+        <v>5858</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5"/>
@@ -6884,10 +6870,10 @@
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="31">
-        <v>18134</v>
+        <v>4480</v>
       </c>
       <c r="F85" s="26">
-        <v>19849</v>
+        <v>5856</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5"/>
@@ -6905,10 +6891,10 @@
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="30">
-        <v>18049</v>
+        <v>4458</v>
       </c>
       <c r="F86" s="25">
-        <v>19791</v>
+        <v>5854</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="5"/>
@@ -6926,10 +6912,10 @@
       </c>
       <c r="D87" s="27"/>
       <c r="E87" s="31">
-        <v>17965</v>
+        <v>4436</v>
       </c>
       <c r="F87" s="26">
-        <v>19733</v>
+        <v>5852</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5"/>
@@ -6947,10 +6933,10 @@
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="30">
-        <v>17881</v>
+        <v>4414</v>
       </c>
       <c r="F88" s="25">
-        <v>19676</v>
+        <v>5850</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5"/>
@@ -6968,10 +6954,10 @@
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="31">
-        <v>17797</v>
+        <v>4392</v>
       </c>
       <c r="F89" s="26">
-        <v>19619</v>
+        <v>5848</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5"/>
@@ -6989,10 +6975,10 @@
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="30">
-        <v>17714</v>
+        <v>4371</v>
       </c>
       <c r="F90" s="25">
-        <v>19562</v>
+        <v>5846</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5"/>
@@ -7010,10 +6996,10 @@
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="31">
-        <v>17631</v>
+        <v>4350</v>
       </c>
       <c r="F91" s="26">
-        <v>19505</v>
+        <v>5844</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5"/>
@@ -7031,10 +7017,10 @@
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="30">
-        <v>17549</v>
+        <v>4329</v>
       </c>
       <c r="F92" s="25">
-        <v>19448</v>
+        <v>5842</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="5"/>
@@ -7052,10 +7038,10 @@
       </c>
       <c r="D93" s="27"/>
       <c r="E93" s="31">
-        <v>17467</v>
+        <v>4308</v>
       </c>
       <c r="F93" s="26">
-        <v>19391</v>
+        <v>5840</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5"/>
@@ -7073,10 +7059,10 @@
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="30">
-        <v>17385</v>
+        <v>4287</v>
       </c>
       <c r="F94" s="25">
-        <v>19334</v>
+        <v>5838</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5"/>
@@ -7094,10 +7080,10 @@
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="31">
-        <v>17304</v>
+        <v>4266</v>
       </c>
       <c r="F95" s="26">
-        <v>19278</v>
+        <v>5836</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="5"/>
@@ -7115,10 +7101,10 @@
       </c>
       <c r="D96" s="29"/>
       <c r="E96" s="30">
-        <v>17223</v>
+        <v>4245</v>
       </c>
       <c r="F96" s="25">
-        <v>19222</v>
+        <v>5834</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="5"/>
@@ -7136,10 +7122,10 @@
       </c>
       <c r="D97" s="27"/>
       <c r="E97" s="31">
-        <v>17142</v>
+        <v>4224</v>
       </c>
       <c r="F97" s="26">
-        <v>19166</v>
+        <v>5832</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5"/>
@@ -7157,10 +7143,10 @@
       </c>
       <c r="D98" s="29"/>
       <c r="E98" s="30">
-        <v>17062</v>
+        <v>4203</v>
       </c>
       <c r="F98" s="25">
-        <v>19110</v>
+        <v>5830</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5"/>
@@ -7178,10 +7164,10 @@
       </c>
       <c r="D99" s="27"/>
       <c r="E99" s="31">
-        <v>16982</v>
+        <v>4183</v>
       </c>
       <c r="F99" s="26">
-        <v>19054</v>
+        <v>5828</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="5"/>
@@ -7199,10 +7185,10 @@
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="30">
-        <v>16903</v>
+        <v>4163</v>
       </c>
       <c r="F100" s="25">
-        <v>18998</v>
+        <v>5826</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="5"/>
@@ -7220,10 +7206,10 @@
       </c>
       <c r="D101" s="27"/>
       <c r="E101" s="31">
-        <v>16824</v>
+        <v>4143</v>
       </c>
       <c r="F101" s="26">
-        <v>18942</v>
+        <v>5824</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="5"/>
@@ -7241,10 +7227,10 @@
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="30">
-        <v>16745</v>
+        <v>4123</v>
       </c>
       <c r="F102" s="25">
-        <v>18887</v>
+        <v>5822</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="5"/>
@@ -7262,10 +7248,10 @@
       </c>
       <c r="D103" s="27"/>
       <c r="E103" s="31">
-        <v>16667</v>
+        <v>4103</v>
       </c>
       <c r="F103" s="26">
-        <v>18832</v>
+        <v>5820</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5"/>
@@ -7283,10 +7269,10 @@
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="30">
-        <v>16589</v>
+        <v>4083</v>
       </c>
       <c r="F104" s="25">
-        <v>18777</v>
+        <v>5818</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5"/>
@@ -7304,10 +7290,10 @@
       </c>
       <c r="D105" s="27"/>
       <c r="E105" s="31">
-        <v>16511</v>
+        <v>4063</v>
       </c>
       <c r="F105" s="26">
-        <v>18722</v>
+        <v>5816</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="5"/>
@@ -7325,10 +7311,10 @@
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="30">
-        <v>16434</v>
+        <v>4043</v>
       </c>
       <c r="F106" s="25">
-        <v>18667</v>
+        <v>5814</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="5"/>
@@ -7346,10 +7332,10 @@
       </c>
       <c r="D107" s="27"/>
       <c r="E107" s="31">
-        <v>16357</v>
+        <v>4023</v>
       </c>
       <c r="F107" s="26">
-        <v>18612</v>
+        <v>5812</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="5"/>
@@ -7367,10 +7353,10 @@
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="30">
-        <v>16280</v>
+        <v>4003</v>
       </c>
       <c r="F108" s="25">
-        <v>18557</v>
+        <v>5810</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="5"/>
@@ -7388,10 +7374,10 @@
       </c>
       <c r="D109" s="27"/>
       <c r="E109" s="31">
-        <v>16204</v>
+        <v>3983</v>
       </c>
       <c r="F109" s="26">
-        <v>18503</v>
+        <v>5808</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="5"/>
@@ -7409,10 +7395,10 @@
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="30">
-        <v>16128</v>
+        <v>3963</v>
       </c>
       <c r="F110" s="25">
-        <v>18449</v>
+        <v>5806</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="5"/>
@@ -7430,10 +7416,10 @@
       </c>
       <c r="D111" s="27"/>
       <c r="E111" s="31">
-        <v>16053</v>
+        <v>3943</v>
       </c>
       <c r="F111" s="26">
-        <v>18395</v>
+        <v>5804</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="5"/>
@@ -7451,10 +7437,10 @@
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="30">
-        <v>15978</v>
+        <v>3924</v>
       </c>
       <c r="F112" s="25">
-        <v>18341</v>
+        <v>5802</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="5"/>
@@ -7472,10 +7458,10 @@
       </c>
       <c r="D113" s="27"/>
       <c r="E113" s="31">
-        <v>15903</v>
+        <v>3905</v>
       </c>
       <c r="F113" s="26">
-        <v>18287</v>
+        <v>5800</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5"/>
@@ -7493,10 +7479,10 @@
       </c>
       <c r="D114" s="29"/>
       <c r="E114" s="30">
-        <v>15829</v>
+        <v>3886</v>
       </c>
       <c r="F114" s="25">
-        <v>18233</v>
+        <v>5798</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="5"/>
@@ -7514,10 +7500,10 @@
       </c>
       <c r="D115" s="27"/>
       <c r="E115" s="31">
-        <v>15755</v>
+        <v>3867</v>
       </c>
       <c r="F115" s="26">
-        <v>18179</v>
+        <v>5796</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="5"/>
@@ -7535,10 +7521,10 @@
       </c>
       <c r="D116" s="29"/>
       <c r="E116" s="30">
-        <v>15681</v>
+        <v>3848</v>
       </c>
       <c r="F116" s="25">
-        <v>18126</v>
+        <v>5794</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="5"/>
@@ -7556,10 +7542,10 @@
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="31">
-        <v>15608</v>
+        <v>3829</v>
       </c>
       <c r="F117" s="26">
-        <v>18073</v>
+        <v>5792</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="5"/>
@@ -7577,10 +7563,10 @@
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="30">
-        <v>15535</v>
+        <v>3810</v>
       </c>
       <c r="F118" s="25">
-        <v>18020</v>
+        <v>5790</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="5"/>
@@ -7598,10 +7584,10 @@
       </c>
       <c r="D119" s="27"/>
       <c r="E119" s="31">
-        <v>15462</v>
+        <v>3791</v>
       </c>
       <c r="F119" s="26">
-        <v>17967</v>
+        <v>5788</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="5"/>
@@ -7619,10 +7605,10 @@
       </c>
       <c r="D120" s="29"/>
       <c r="E120" s="30">
-        <v>15390</v>
+        <v>3772</v>
       </c>
       <c r="F120" s="25">
-        <v>17914</v>
+        <v>5786</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="5"/>
@@ -7640,10 +7626,10 @@
       </c>
       <c r="D121" s="27"/>
       <c r="E121" s="31">
-        <v>15318</v>
+        <v>3753</v>
       </c>
       <c r="F121" s="26">
-        <v>17861</v>
+        <v>5784</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="5"/>
@@ -7661,10 +7647,10 @@
       </c>
       <c r="D122" s="29"/>
       <c r="E122" s="30">
-        <v>15246</v>
+        <v>3735</v>
       </c>
       <c r="F122" s="25">
-        <v>17808</v>
+        <v>5782</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="5"/>
@@ -7682,10 +7668,10 @@
       </c>
       <c r="D123" s="27"/>
       <c r="E123" s="31">
-        <v>15175</v>
+        <v>3717</v>
       </c>
       <c r="F123" s="26">
-        <v>17756</v>
+        <v>5780</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="5"/>
@@ -7703,10 +7689,10 @@
       </c>
       <c r="D124" s="29"/>
       <c r="E124" s="30">
-        <v>15104</v>
+        <v>3699</v>
       </c>
       <c r="F124" s="25">
-        <v>17704</v>
+        <v>5778</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="5"/>
@@ -7724,10 +7710,10 @@
       </c>
       <c r="D125" s="27"/>
       <c r="E125" s="31">
-        <v>15033</v>
+        <v>3681</v>
       </c>
       <c r="F125" s="26">
-        <v>17652</v>
+        <v>5776</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="5"/>
@@ -7745,10 +7731,10 @@
       </c>
       <c r="D126" s="29"/>
       <c r="E126" s="30">
-        <v>14963</v>
+        <v>3663</v>
       </c>
       <c r="F126" s="25">
-        <v>17600</v>
+        <v>5774</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="5"/>
@@ -7766,10 +7752,10 @@
       </c>
       <c r="D127" s="27"/>
       <c r="E127" s="31">
-        <v>14893</v>
+        <v>3645</v>
       </c>
       <c r="F127" s="26">
-        <v>17548</v>
+        <v>5772</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="5"/>
@@ -7787,10 +7773,10 @@
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="30">
-        <v>14823</v>
+        <v>3627</v>
       </c>
       <c r="F128" s="25">
-        <v>17496</v>
+        <v>5770</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="5"/>
@@ -7808,10 +7794,10 @@
       </c>
       <c r="D129" s="27"/>
       <c r="E129" s="31">
-        <v>14754</v>
+        <v>3609</v>
       </c>
       <c r="F129" s="26">
-        <v>17444</v>
+        <v>5768</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="5"/>
@@ -7829,10 +7815,10 @@
       </c>
       <c r="D130" s="29"/>
       <c r="E130" s="30">
-        <v>14685</v>
+        <v>3591</v>
       </c>
       <c r="F130" s="25">
-        <v>17393</v>
+        <v>5766</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="5"/>
@@ -7850,10 +7836,10 @@
       </c>
       <c r="D131" s="27"/>
       <c r="E131" s="31">
-        <v>14616</v>
+        <v>3573</v>
       </c>
       <c r="F131" s="26">
-        <v>17342</v>
+        <v>5764</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="5"/>
@@ -7871,10 +7857,10 @@
       </c>
       <c r="D132" s="29"/>
       <c r="E132" s="30">
-        <v>14548</v>
+        <v>3555</v>
       </c>
       <c r="F132" s="25">
-        <v>17291</v>
+        <v>5762</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="5"/>
@@ -7892,10 +7878,10 @@
       </c>
       <c r="D133" s="27"/>
       <c r="E133" s="31">
-        <v>14480</v>
+        <v>3537</v>
       </c>
       <c r="F133" s="26">
-        <v>17240</v>
+        <v>5760</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="5"/>
@@ -7913,10 +7899,10 @@
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="30">
-        <v>14412</v>
+        <v>3520</v>
       </c>
       <c r="F134" s="25">
-        <v>17189</v>
+        <v>5758</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="5"/>
@@ -7934,10 +7920,10 @@
       </c>
       <c r="D135" s="27"/>
       <c r="E135" s="31">
-        <v>14344</v>
+        <v>3503</v>
       </c>
       <c r="F135" s="26">
-        <v>17138</v>
+        <v>5756</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="5"/>
@@ -7955,10 +7941,10 @@
       </c>
       <c r="D136" s="29"/>
       <c r="E136" s="30">
-        <v>14277</v>
+        <v>3486</v>
       </c>
       <c r="F136" s="25">
-        <v>17087</v>
+        <v>5754</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="5"/>
@@ -7976,10 +7962,10 @@
       </c>
       <c r="D137" s="27"/>
       <c r="E137" s="31">
-        <v>14210</v>
+        <v>3469</v>
       </c>
       <c r="F137" s="26">
-        <v>17036</v>
+        <v>5752</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="5"/>
@@ -7997,10 +7983,10 @@
       </c>
       <c r="D138" s="29"/>
       <c r="E138" s="30">
-        <v>14143</v>
+        <v>3452</v>
       </c>
       <c r="F138" s="25">
-        <v>16986</v>
+        <v>5750</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="5"/>
@@ -8018,10 +8004,10 @@
       </c>
       <c r="D139" s="27"/>
       <c r="E139" s="31">
-        <v>14077</v>
+        <v>3435</v>
       </c>
       <c r="F139" s="26">
-        <v>16936</v>
+        <v>5748</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="5"/>
@@ -8039,10 +8025,10 @@
       </c>
       <c r="D140" s="29"/>
       <c r="E140" s="30">
-        <v>14011</v>
+        <v>3418</v>
       </c>
       <c r="F140" s="25">
-        <v>16886</v>
+        <v>5746</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="5"/>
@@ -8060,10 +8046,10 @@
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="31">
-        <v>13945</v>
+        <v>3401</v>
       </c>
       <c r="F141" s="26">
-        <v>16836</v>
+        <v>5744</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="5"/>
@@ -8081,10 +8067,10 @@
       </c>
       <c r="D142" s="29"/>
       <c r="E142" s="30">
-        <v>13880</v>
+        <v>3384</v>
       </c>
       <c r="F142" s="25">
-        <v>16786</v>
+        <v>5742</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="5"/>
@@ -8102,10 +8088,10 @@
       </c>
       <c r="D143" s="27"/>
       <c r="E143" s="31">
-        <v>13815</v>
+        <v>3367</v>
       </c>
       <c r="F143" s="26">
-        <v>16736</v>
+        <v>5740</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="5"/>
@@ -8123,10 +8109,10 @@
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="30">
-        <v>13750</v>
+        <v>3350</v>
       </c>
       <c r="F144" s="25">
-        <v>16686</v>
+        <v>5738</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="5"/>
@@ -8144,10 +8130,10 @@
       </c>
       <c r="D145" s="27"/>
       <c r="E145" s="31">
-        <v>13686</v>
+        <v>3333</v>
       </c>
       <c r="F145" s="26">
-        <v>16637</v>
+        <v>5736</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="5"/>
@@ -8165,10 +8151,10 @@
       </c>
       <c r="D146" s="29"/>
       <c r="E146" s="30">
-        <v>13622</v>
+        <v>3316</v>
       </c>
       <c r="F146" s="25">
-        <v>16588</v>
+        <v>5734</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="5"/>
@@ -8186,10 +8172,10 @@
       </c>
       <c r="D147" s="27"/>
       <c r="E147" s="31">
-        <v>13558</v>
+        <v>3300</v>
       </c>
       <c r="F147" s="26">
-        <v>16539</v>
+        <v>5732</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="5"/>
@@ -8207,10 +8193,10 @@
       </c>
       <c r="D148" s="29"/>
       <c r="E148" s="30">
-        <v>13494</v>
+        <v>3284</v>
       </c>
       <c r="F148" s="25">
-        <v>16490</v>
+        <v>5730</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="5"/>
@@ -8228,10 +8214,10 @@
       </c>
       <c r="D149" s="27"/>
       <c r="E149" s="31">
-        <v>13431</v>
+        <v>3268</v>
       </c>
       <c r="F149" s="26">
-        <v>16441</v>
+        <v>5728</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="5"/>
@@ -8249,10 +8235,10 @@
       </c>
       <c r="D150" s="29"/>
       <c r="E150" s="30">
-        <v>13368</v>
+        <v>3252</v>
       </c>
       <c r="F150" s="25">
-        <v>16392</v>
+        <v>5726</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="5"/>
@@ -8270,10 +8256,10 @@
       </c>
       <c r="D151" s="27"/>
       <c r="E151" s="31">
-        <v>13305</v>
+        <v>3236</v>
       </c>
       <c r="F151" s="26">
-        <v>16343</v>
+        <v>5724</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="5"/>
@@ -8291,10 +8277,10 @@
       </c>
       <c r="D152" s="29"/>
       <c r="E152" s="30">
-        <v>13243</v>
+        <v>3220</v>
       </c>
       <c r="F152" s="25">
-        <v>16295</v>
+        <v>5722</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="5"/>
@@ -8312,10 +8298,10 @@
       </c>
       <c r="D153" s="27"/>
       <c r="E153" s="31">
-        <v>13181</v>
+        <v>3204</v>
       </c>
       <c r="F153" s="26">
-        <v>16247</v>
+        <v>5720</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="5"/>
@@ -8333,10 +8319,10 @@
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="30">
-        <v>13119</v>
+        <v>3188</v>
       </c>
       <c r="F154" s="25">
-        <v>16199</v>
+        <v>5718</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="5"/>
@@ -8354,10 +8340,10 @@
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="31">
-        <v>13057</v>
+        <v>3172</v>
       </c>
       <c r="F155" s="26">
-        <v>16151</v>
+        <v>5716</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="5"/>
@@ -8375,10 +8361,10 @@
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="30">
-        <v>12996</v>
+        <v>3156</v>
       </c>
       <c r="F156" s="25">
-        <v>16103</v>
+        <v>5714</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="5"/>
@@ -8396,10 +8382,10 @@
       </c>
       <c r="D157" s="27"/>
       <c r="E157" s="31">
-        <v>12935</v>
+        <v>3140</v>
       </c>
       <c r="F157" s="26">
-        <v>16055</v>
+        <v>5712</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="5"/>
@@ -8417,10 +8403,10 @@
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="30">
-        <v>12874</v>
+        <v>3124</v>
       </c>
       <c r="F158" s="25">
-        <v>16007</v>
+        <v>5710</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="5"/>
@@ -8438,10 +8424,10 @@
       </c>
       <c r="D159" s="27"/>
       <c r="E159" s="31">
-        <v>12814</v>
+        <v>3108</v>
       </c>
       <c r="F159" s="26">
-        <v>15959</v>
+        <v>5708</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="5"/>
@@ -8459,10 +8445,10 @@
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="30">
-        <v>12754</v>
+        <v>3092</v>
       </c>
       <c r="F160" s="25">
-        <v>15912</v>
+        <v>5706</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="5"/>
@@ -8480,10 +8466,10 @@
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="31">
-        <v>12694</v>
+        <v>3077</v>
       </c>
       <c r="F161" s="26">
-        <v>15865</v>
+        <v>5704</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="5"/>
@@ -8501,10 +8487,10 @@
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="30">
-        <v>12634</v>
+        <v>3062</v>
       </c>
       <c r="F162" s="25">
-        <v>15818</v>
+        <v>5702</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="5"/>
@@ -8522,10 +8508,10 @@
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="31">
-        <v>12575</v>
+        <v>3047</v>
       </c>
       <c r="F163" s="26">
-        <v>15771</v>
+        <v>5700</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="5"/>
@@ -8543,10 +8529,10 @@
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="30">
-        <v>12516</v>
+        <v>3032</v>
       </c>
       <c r="F164" s="25">
-        <v>15724</v>
+        <v>5698</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="5"/>
@@ -8564,10 +8550,10 @@
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="31">
-        <v>12457</v>
+        <v>3017</v>
       </c>
       <c r="F165" s="26">
-        <v>15677</v>
+        <v>5696</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="5"/>
@@ -8585,10 +8571,10 @@
       </c>
       <c r="D166" s="29"/>
       <c r="E166" s="30">
-        <v>12399</v>
+        <v>3002</v>
       </c>
       <c r="F166" s="25">
-        <v>15630</v>
+        <v>5694</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="5"/>
@@ -8606,10 +8592,10 @@
       </c>
       <c r="D167" s="27"/>
       <c r="E167" s="31">
-        <v>12341</v>
+        <v>2987</v>
       </c>
       <c r="F167" s="26">
-        <v>15583</v>
+        <v>5692</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="5"/>
@@ -8627,10 +8613,10 @@
       </c>
       <c r="D168" s="29"/>
       <c r="E168" s="30">
-        <v>12283</v>
+        <v>2972</v>
       </c>
       <c r="F168" s="25">
-        <v>15537</v>
+        <v>5690</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="5"/>
@@ -8648,10 +8634,10 @@
       </c>
       <c r="D169" s="27"/>
       <c r="E169" s="31">
-        <v>12225</v>
+        <v>2957</v>
       </c>
       <c r="F169" s="26">
-        <v>15491</v>
+        <v>5688</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="5"/>
@@ -8669,10 +8655,10 @@
       </c>
       <c r="D170" s="29"/>
       <c r="E170" s="30">
-        <v>12168</v>
+        <v>2942</v>
       </c>
       <c r="F170" s="25">
-        <v>15445</v>
+        <v>5686</v>
       </c>
       <c r="G170" s="4"/>
       <c r="H170" s="5"/>
@@ -8690,10 +8676,10 @@
       </c>
       <c r="D171" s="27"/>
       <c r="E171" s="31">
-        <v>12111</v>
+        <v>2927</v>
       </c>
       <c r="F171" s="26">
-        <v>15399</v>
+        <v>5684</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="5"/>
@@ -8711,10 +8697,10 @@
       </c>
       <c r="D172" s="29"/>
       <c r="E172" s="30">
-        <v>12054</v>
+        <v>2912</v>
       </c>
       <c r="F172" s="25">
-        <v>15353</v>
+        <v>5682</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="5"/>
@@ -8732,10 +8718,10 @@
       </c>
       <c r="D173" s="27"/>
       <c r="E173" s="31">
-        <v>11997</v>
+        <v>2897</v>
       </c>
       <c r="F173" s="26">
-        <v>15307</v>
+        <v>5680</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="5"/>
@@ -8753,10 +8739,10 @@
       </c>
       <c r="D174" s="29"/>
       <c r="E174" s="30">
-        <v>11941</v>
+        <v>2882</v>
       </c>
       <c r="F174" s="25">
-        <v>15261</v>
+        <v>5678</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="5"/>
@@ -8774,10 +8760,10 @@
       </c>
       <c r="D175" s="27"/>
       <c r="E175" s="31">
-        <v>11885</v>
+        <v>2867</v>
       </c>
       <c r="F175" s="26">
-        <v>15215</v>
+        <v>5676</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="5"/>
@@ -8795,10 +8781,10 @@
       </c>
       <c r="D176" s="29"/>
       <c r="E176" s="30">
-        <v>11829</v>
+        <v>2853</v>
       </c>
       <c r="F176" s="25">
-        <v>15170</v>
+        <v>5674</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="5"/>
@@ -8816,10 +8802,10 @@
       </c>
       <c r="D177" s="27"/>
       <c r="E177" s="31">
-        <v>11773</v>
+        <v>2839</v>
       </c>
       <c r="F177" s="26">
-        <v>15125</v>
+        <v>5672</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="5"/>
@@ -8837,10 +8823,10 @@
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="30">
-        <v>11718</v>
+        <v>2825</v>
       </c>
       <c r="F178" s="25">
-        <v>15080</v>
+        <v>5670</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="5"/>
@@ -8858,10 +8844,10 @@
       </c>
       <c r="D179" s="27"/>
       <c r="E179" s="31">
-        <v>11663</v>
+        <v>2811</v>
       </c>
       <c r="F179" s="26">
-        <v>15035</v>
+        <v>5668</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="5"/>
@@ -8879,10 +8865,10 @@
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="30">
-        <v>11608</v>
+        <v>2797</v>
       </c>
       <c r="F180" s="25">
-        <v>14990</v>
+        <v>5666</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="5"/>
@@ -8900,10 +8886,10 @@
       </c>
       <c r="D181" s="27"/>
       <c r="E181" s="31">
-        <v>11553</v>
+        <v>2783</v>
       </c>
       <c r="F181" s="26">
-        <v>14945</v>
+        <v>5664</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="5"/>
@@ -8921,10 +8907,10 @@
       </c>
       <c r="D182" s="29"/>
       <c r="E182" s="30">
-        <v>11499</v>
+        <v>2769</v>
       </c>
       <c r="F182" s="25">
-        <v>14900</v>
+        <v>5662</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="5"/>
@@ -8942,10 +8928,10 @@
       </c>
       <c r="D183" s="27"/>
       <c r="E183" s="31">
-        <v>11445</v>
+        <v>2755</v>
       </c>
       <c r="F183" s="26">
-        <v>14855</v>
+        <v>5660</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="5"/>
@@ -8963,10 +8949,10 @@
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="30">
-        <v>11391</v>
+        <v>2741</v>
       </c>
       <c r="F184" s="25">
-        <v>14811</v>
+        <v>5658</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="5"/>
@@ -8984,10 +8970,10 @@
       </c>
       <c r="D185" s="27"/>
       <c r="E185" s="31">
-        <v>11337</v>
+        <v>2727</v>
       </c>
       <c r="F185" s="26">
-        <v>14767</v>
+        <v>5656</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="5"/>
@@ -9005,10 +8991,10 @@
       </c>
       <c r="D186" s="29"/>
       <c r="E186" s="30">
-        <v>11283</v>
+        <v>2713</v>
       </c>
       <c r="F186" s="25">
-        <v>14723</v>
+        <v>5654</v>
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="5"/>
@@ -9026,10 +9012,10 @@
       </c>
       <c r="D187" s="27"/>
       <c r="E187" s="31">
-        <v>11229</v>
+        <v>2699</v>
       </c>
       <c r="F187" s="26">
-        <v>14679</v>
+        <v>5652</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="5"/>
@@ -9047,10 +9033,10 @@
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="30">
-        <v>11176</v>
+        <v>2685</v>
       </c>
       <c r="F188" s="25">
-        <v>14635</v>
+        <v>5650</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="5"/>
@@ -9068,10 +9054,10 @@
       </c>
       <c r="D189" s="27"/>
       <c r="E189" s="31">
-        <v>11123</v>
+        <v>2671</v>
       </c>
       <c r="F189" s="26">
-        <v>14591</v>
+        <v>5648</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="5"/>
@@ -9089,10 +9075,10 @@
       </c>
       <c r="D190" s="34"/>
       <c r="E190" s="35">
-        <v>11070</v>
+        <v>2657</v>
       </c>
       <c r="F190" s="36">
-        <v>14547</v>
+        <v>5646</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="5"/>

--- a/SIRS MODELS/galicia/summary.xlsx
+++ b/SIRS MODELS/galicia/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B5451D-A5F7-41B2-AC70-82FC865865B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B306CECB-33BD-43BB-8AD4-A0EAD176D267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1243,6 +1243,9 @@
                 <c:pt idx="14">
                   <c:v>2627</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1852,568 +1855,568 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>144</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>306</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>364</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>424</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>562</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>712</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>898</c:v>
+                  <c:v>885</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1092</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1421</c:v>
+                  <c:v>1425</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1703</c:v>
+                  <c:v>1714</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2012</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2341</c:v>
+                  <c:v>2375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2682</c:v>
+                  <c:v>2732</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3025</c:v>
+                  <c:v>3092</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3361</c:v>
+                  <c:v>3444</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3682</c:v>
+                  <c:v>3776</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3980</c:v>
+                  <c:v>4076</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4251</c:v>
+                  <c:v>4333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4492</c:v>
+                  <c:v>4537</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4702</c:v>
+                  <c:v>4677</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4882</c:v>
+                  <c:v>4739</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5034</c:v>
+                  <c:v>4709</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5160</c:v>
+                  <c:v>4568</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5263</c:v>
+                  <c:v>4295</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5345</c:v>
+                  <c:v>3872</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5409</c:v>
+                  <c:v>3293</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5458</c:v>
+                  <c:v>2580</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5494</c:v>
+                  <c:v>1805</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5519</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5535</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5544</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5546</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5543</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5536</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5525</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5495</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5477</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5458</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5438</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5417</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5395</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5372</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5349</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5325</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5277</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5253</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5229</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5205</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5180</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5155</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5131</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5107</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5083</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5059</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5035</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4987</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4963</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4939</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4915</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4891</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4867</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4843</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4820</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4797</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4774</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4751</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4728</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4705</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4682</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4659</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4636</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4613</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4590</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4568</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4546</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4524</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4502</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4480</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4458</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4436</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4414</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4392</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4371</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4350</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4329</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4308</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4287</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4266</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4245</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4224</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4203</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4183</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4163</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4143</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4123</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4103</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4083</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4063</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4043</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4023</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3983</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3963</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3943</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3924</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3905</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3886</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3867</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3848</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3829</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3810</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3791</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3772</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3753</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3735</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3717</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3699</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3681</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3645</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3627</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3609</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3591</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3573</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3555</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3537</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3503</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3486</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3469</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3452</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3435</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3418</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3384</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3367</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3350</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3316</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3284</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3268</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3252</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3236</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3220</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3204</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3188</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3172</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3156</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3140</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3124</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3108</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3092</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3077</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3062</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3047</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3032</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3017</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2987</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2972</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2942</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2927</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2912</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2882</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2867</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2853</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2839</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2825</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2811</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2797</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2783</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2769</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2755</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2741</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2727</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2713</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2699</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2685</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2657</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2429,7 +2432,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>28/3/2020</c:v>
+            <c:v>29/3/2020</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -3024,568 +3027,568 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>168</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>235</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>297</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>353</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>411</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>546</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>693</c:v>
+                  <c:v>685</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>874</c:v>
+                  <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1065</c:v>
+                  <c:v>1055</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1389</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1616</c:v>
+                  <c:v>1608</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1861</c:v>
+                  <c:v>1854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2112</c:v>
+                  <c:v>2106</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2510</c:v>
+                  <c:v>2507</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2935</c:v>
+                  <c:v>2936</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3241</c:v>
+                  <c:v>3234</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3539</c:v>
+                  <c:v>3535</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3824</c:v>
+                  <c:v>3819</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4091</c:v>
+                  <c:v>4077</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4337</c:v>
+                  <c:v>4301</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4561</c:v>
+                  <c:v>4482</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4761</c:v>
+                  <c:v>4611</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4938</c:v>
+                  <c:v>4678</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5093</c:v>
+                  <c:v>4674</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5228</c:v>
+                  <c:v>4587</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5344</c:v>
+                  <c:v>4407</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5443</c:v>
+                  <c:v>4124</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5527</c:v>
+                  <c:v>3733</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5598</c:v>
+                  <c:v>3237</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5658</c:v>
+                  <c:v>2655</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5708</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5750</c:v>
+                  <c:v>1409</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5784</c:v>
+                  <c:v>873</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5812</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5835</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5854</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5870</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5883</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5893</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5907</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5912</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5915</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5917</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5919</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5920</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5920</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5920</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5919</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5918</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5917</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5916</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5914</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5912</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5910</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5908</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5906</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5904</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5902</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5900</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5898</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5896</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5894</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5892</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5890</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5888</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5886</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5884</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5882</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5880</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5878</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5876</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5874</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5872</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5870</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5868</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5866</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5864</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5862</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5860</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5858</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5856</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5854</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5852</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5850</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5848</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5846</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5844</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5842</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5840</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5838</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5834</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5832</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5830</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5828</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5826</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5824</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5822</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5820</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5818</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5816</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5814</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5812</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5810</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5808</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5806</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5804</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5802</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5800</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5798</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5796</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5794</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5792</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5790</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5788</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5786</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5784</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5782</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5780</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5778</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>5776</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5774</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5772</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5770</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5768</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5766</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5764</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>5762</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>5760</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>5758</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5756</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>5754</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>5752</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>5750</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>5748</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5746</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>5744</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>5742</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5740</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>5738</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>5736</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>5734</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>5732</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>5730</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>5728</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>5726</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>5724</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>5722</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>5720</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>5718</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>5716</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>5714</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>5712</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>5710</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>5708</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>5706</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>5704</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>5700</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>5698</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>5696</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>5694</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>5692</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>5690</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>5688</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>5686</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>5684</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>5682</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>5680</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>5678</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>5676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>5674</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>5672</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>5670</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>5668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>5666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>5664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>5662</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>5660</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>5658</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>5656</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>5654</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>5652</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>5650</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>5648</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5646</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3612,7 +3615,7 @@
         <c:axId val="1356387871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
+          <c:max val="40"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3744,7 +3747,7 @@
         <c:axId val="1353300159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6000"/>
+          <c:max val="5000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4526,7 +4529,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>843922</xdr:colOff>
+      <xdr:colOff>847724</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>184547</xdr:rowOff>
     </xdr:to>
@@ -4846,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4911,7 +4914,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="17">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
@@ -4927,10 +4930,10 @@
         <v>131</v>
       </c>
       <c r="E3" s="28">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F3" s="24">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4945,10 +4948,10 @@
         <v>183</v>
       </c>
       <c r="E4" s="30">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F4" s="25">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -4966,10 +4969,10 @@
         <v>232</v>
       </c>
       <c r="E5" s="31">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F5" s="26">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -4988,10 +4991,10 @@
         <v>278</v>
       </c>
       <c r="E6" s="30">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="F6" s="25">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
@@ -5010,10 +5013,10 @@
         <v>325</v>
       </c>
       <c r="E7" s="31">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="F7" s="26">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -5032,10 +5035,10 @@
         <v>435</v>
       </c>
       <c r="E8" s="30">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="F8" s="25">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -5054,10 +5057,10 @@
         <v>556</v>
       </c>
       <c r="E9" s="31">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="F9" s="26">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
@@ -5076,10 +5079,10 @@
         <v>703</v>
       </c>
       <c r="E10" s="30">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="F10" s="25">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -5097,10 +5100,10 @@
         <v>855</v>
       </c>
       <c r="E11" s="31">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="F11" s="26">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
@@ -5118,10 +5121,10 @@
         <v>1132</v>
       </c>
       <c r="E12" s="30">
-        <v>1092</v>
+        <v>1170</v>
       </c>
       <c r="F12" s="25">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -5139,10 +5142,10 @@
         <v>1374</v>
       </c>
       <c r="E13" s="31">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="F13" s="26">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -5166,10 +5169,10 @@
         <v>1598</v>
       </c>
       <c r="E14" s="30">
-        <v>1703</v>
+        <v>1714</v>
       </c>
       <c r="F14" s="25">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -5187,10 +5190,10 @@
         <v>1832</v>
       </c>
       <c r="E15" s="31">
-        <v>2012</v>
+        <v>2033</v>
       </c>
       <c r="F15" s="26">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -5208,10 +5211,10 @@
         <v>2211</v>
       </c>
       <c r="E16" s="30">
-        <v>2341</v>
+        <v>2375</v>
       </c>
       <c r="F16" s="25">
-        <v>2112</v>
+        <v>2106</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -5229,10 +5232,10 @@
         <v>2627</v>
       </c>
       <c r="E17" s="31">
-        <v>2682</v>
+        <v>2732</v>
       </c>
       <c r="F17" s="26">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
@@ -5250,12 +5253,14 @@
       <c r="C18" s="21">
         <v>43919</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="29">
+        <v>2925</v>
+      </c>
       <c r="E18" s="30">
-        <v>3025</v>
+        <v>3092</v>
       </c>
       <c r="F18" s="25">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
@@ -5271,10 +5276,10 @@
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="31">
-        <v>3361</v>
+        <v>3444</v>
       </c>
       <c r="F19" s="26">
-        <v>3241</v>
+        <v>3234</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -5290,10 +5295,10 @@
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30">
-        <v>3682</v>
+        <v>3776</v>
       </c>
       <c r="F20" s="25">
-        <v>3539</v>
+        <v>3535</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -5309,10 +5314,10 @@
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="31">
-        <v>3980</v>
+        <v>4076</v>
       </c>
       <c r="F21" s="26">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -5328,10 +5333,10 @@
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="30">
-        <v>4251</v>
+        <v>4333</v>
       </c>
       <c r="F22" s="25">
-        <v>4091</v>
+        <v>4077</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -5347,10 +5352,10 @@
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="31">
-        <v>4492</v>
+        <v>4537</v>
       </c>
       <c r="F23" s="26">
-        <v>4337</v>
+        <v>4301</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -5373,10 +5378,10 @@
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="30">
-        <v>4702</v>
+        <v>4677</v>
       </c>
       <c r="F24" s="25">
-        <v>4561</v>
+        <v>4482</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -5398,11 +5403,11 @@
         <v>43926</v>
       </c>
       <c r="D25" s="27"/>
-      <c r="E25" s="31">
-        <v>4882</v>
+      <c r="E25" s="38">
+        <v>4739</v>
       </c>
       <c r="F25" s="26">
-        <v>4761</v>
+        <v>4611</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -5425,10 +5430,10 @@
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="30">
-        <v>5034</v>
-      </c>
-      <c r="F26" s="25">
-        <v>4938</v>
+        <v>4709</v>
+      </c>
+      <c r="F26" s="37">
+        <v>4678</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -5451,10 +5456,10 @@
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="31">
-        <v>5160</v>
+        <v>4568</v>
       </c>
       <c r="F27" s="26">
-        <v>5093</v>
+        <v>4674</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
@@ -5477,10 +5482,10 @@
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="30">
-        <v>5263</v>
+        <v>4295</v>
       </c>
       <c r="F28" s="25">
-        <v>5228</v>
+        <v>4587</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
@@ -5503,10 +5508,10 @@
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="31">
-        <v>5345</v>
+        <v>3872</v>
       </c>
       <c r="F29" s="26">
-        <v>5344</v>
+        <v>4407</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
@@ -5529,10 +5534,10 @@
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="30">
-        <v>5409</v>
+        <v>3293</v>
       </c>
       <c r="F30" s="25">
-        <v>5443</v>
+        <v>4124</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
@@ -5555,10 +5560,10 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="31">
-        <v>5458</v>
+        <v>2580</v>
       </c>
       <c r="F31" s="26">
-        <v>5527</v>
+        <v>3733</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="13"/>
@@ -5583,10 +5588,10 @@
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="30">
-        <v>5494</v>
+        <v>1805</v>
       </c>
       <c r="F32" s="25">
-        <v>5598</v>
+        <v>3237</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -5613,10 +5618,10 @@
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="31">
-        <v>5519</v>
+        <v>1084</v>
       </c>
       <c r="F33" s="26">
-        <v>5658</v>
+        <v>2655</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
@@ -5642,10 +5647,10 @@
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="30">
-        <v>5535</v>
+        <v>536</v>
       </c>
       <c r="F34" s="25">
-        <v>5708</v>
+        <v>2026</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
@@ -5671,10 +5676,10 @@
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="31">
-        <v>5544</v>
+        <v>210</v>
       </c>
       <c r="F35" s="26">
-        <v>5750</v>
+        <v>1409</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5"/>
@@ -5697,11 +5702,11 @@
         <v>43937</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="E36" s="38">
-        <v>5546</v>
+      <c r="E36" s="30">
+        <v>63</v>
       </c>
       <c r="F36" s="25">
-        <v>5784</v>
+        <v>873</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5"/>
@@ -5725,10 +5730,10 @@
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="31">
-        <v>5543</v>
+        <v>14</v>
       </c>
       <c r="F37" s="26">
-        <v>5812</v>
+        <v>471</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="13"/>
@@ -5752,10 +5757,10 @@
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="30">
-        <v>5536</v>
+        <v>2</v>
       </c>
       <c r="F38" s="25">
-        <v>5835</v>
+        <v>216</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
@@ -5779,11 +5784,11 @@
         <v>43940</v>
       </c>
       <c r="D39" s="27"/>
-      <c r="E39" s="31">
-        <v>5525</v>
+      <c r="E39" s="38">
+        <v>0</v>
       </c>
       <c r="F39" s="26">
-        <v>5854</v>
+        <v>82</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="13"/>
@@ -5807,10 +5812,10 @@
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="30">
-        <v>5511</v>
+        <v>0</v>
       </c>
       <c r="F40" s="25">
-        <v>5870</v>
+        <v>25</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5"/>
@@ -5834,10 +5839,10 @@
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="31">
-        <v>5495</v>
+        <v>0</v>
       </c>
       <c r="F41" s="26">
-        <v>5883</v>
+        <v>6</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="13"/>
@@ -5861,10 +5866,10 @@
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="30">
-        <v>5477</v>
-      </c>
-      <c r="F42" s="37">
-        <v>5893</v>
+        <v>0</v>
+      </c>
+      <c r="F42" s="25">
+        <v>1</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5"/>
@@ -5892,10 +5897,10 @@
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="31">
-        <v>5458</v>
-      </c>
-      <c r="F43" s="26">
-        <v>5901</v>
+        <v>0</v>
+      </c>
+      <c r="F43" s="37">
+        <v>0</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="13"/>
@@ -5919,10 +5924,10 @@
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="30">
-        <v>5438</v>
+        <v>0</v>
       </c>
       <c r="F44" s="25">
-        <v>5907</v>
+        <v>0</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
@@ -5946,10 +5951,10 @@
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="31">
-        <v>5417</v>
+        <v>0</v>
       </c>
       <c r="F45" s="26">
-        <v>5912</v>
+        <v>0</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="13"/>
@@ -5973,10 +5978,10 @@
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="30">
-        <v>5395</v>
+        <v>0</v>
       </c>
       <c r="F46" s="25">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5"/>
@@ -6000,10 +6005,10 @@
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="31">
-        <v>5372</v>
+        <v>0</v>
       </c>
       <c r="F47" s="26">
-        <v>5917</v>
+        <v>0</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="13"/>
@@ -6027,10 +6032,10 @@
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="30">
-        <v>5349</v>
+        <v>0</v>
       </c>
       <c r="F48" s="25">
-        <v>5919</v>
+        <v>0</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5"/>
@@ -6054,10 +6059,10 @@
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="31">
-        <v>5325</v>
+        <v>0</v>
       </c>
       <c r="F49" s="26">
-        <v>5920</v>
+        <v>0</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="13"/>
@@ -6081,10 +6086,10 @@
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="30">
-        <v>5301</v>
+        <v>0</v>
       </c>
       <c r="F50" s="25">
-        <v>5920</v>
+        <v>0</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5"/>
@@ -6108,10 +6113,10 @@
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="31">
-        <v>5277</v>
+        <v>0</v>
       </c>
       <c r="F51" s="26">
-        <v>5920</v>
+        <v>0</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="13"/>
@@ -6135,10 +6140,10 @@
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="30">
-        <v>5253</v>
+        <v>0</v>
       </c>
       <c r="F52" s="25">
-        <v>5919</v>
+        <v>0</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5"/>
@@ -6162,10 +6167,10 @@
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="31">
-        <v>5229</v>
+        <v>0</v>
       </c>
       <c r="F53" s="26">
-        <v>5918</v>
+        <v>0</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="13"/>
@@ -6189,10 +6194,10 @@
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="30">
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="F54" s="25">
-        <v>5917</v>
+        <v>0</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5"/>
@@ -6216,10 +6221,10 @@
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="31">
-        <v>5180</v>
+        <v>0</v>
       </c>
       <c r="F55" s="26">
-        <v>5916</v>
+        <v>0</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="13"/>
@@ -6243,10 +6248,10 @@
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="30">
-        <v>5155</v>
+        <v>0</v>
       </c>
       <c r="F56" s="25">
-        <v>5914</v>
+        <v>0</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="5"/>
@@ -6270,10 +6275,10 @@
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="31">
-        <v>5131</v>
+        <v>0</v>
       </c>
       <c r="F57" s="26">
-        <v>5912</v>
+        <v>0</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="13"/>
@@ -6297,10 +6302,10 @@
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="30">
-        <v>5107</v>
+        <v>0</v>
       </c>
       <c r="F58" s="25">
-        <v>5910</v>
+        <v>0</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5"/>
@@ -6324,10 +6329,10 @@
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="31">
-        <v>5083</v>
+        <v>0</v>
       </c>
       <c r="F59" s="26">
-        <v>5908</v>
+        <v>0</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="5"/>
@@ -6345,10 +6350,10 @@
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="30">
-        <v>5059</v>
+        <v>0</v>
       </c>
       <c r="F60" s="25">
-        <v>5906</v>
+        <v>0</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5"/>
@@ -6366,10 +6371,10 @@
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="31">
-        <v>5035</v>
+        <v>0</v>
       </c>
       <c r="F61" s="26">
-        <v>5904</v>
+        <v>0</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="5"/>
@@ -6387,10 +6392,10 @@
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="30">
-        <v>5011</v>
+        <v>0</v>
       </c>
       <c r="F62" s="25">
-        <v>5902</v>
+        <v>0</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5"/>
@@ -6408,10 +6413,10 @@
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="31">
-        <v>4987</v>
+        <v>0</v>
       </c>
       <c r="F63" s="26">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5"/>
@@ -6429,10 +6434,10 @@
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30">
-        <v>4963</v>
+        <v>0</v>
       </c>
       <c r="F64" s="25">
-        <v>5898</v>
+        <v>0</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5"/>
@@ -6450,10 +6455,10 @@
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="31">
-        <v>4939</v>
+        <v>0</v>
       </c>
       <c r="F65" s="26">
-        <v>5896</v>
+        <v>0</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5"/>
@@ -6471,10 +6476,10 @@
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="30">
-        <v>4915</v>
+        <v>0</v>
       </c>
       <c r="F66" s="25">
-        <v>5894</v>
+        <v>0</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="5"/>
@@ -6492,10 +6497,10 @@
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="31">
-        <v>4891</v>
+        <v>0</v>
       </c>
       <c r="F67" s="26">
-        <v>5892</v>
+        <v>0</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5"/>
@@ -6513,10 +6518,10 @@
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="30">
-        <v>4867</v>
+        <v>0</v>
       </c>
       <c r="F68" s="25">
-        <v>5890</v>
+        <v>0</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="5"/>
@@ -6534,10 +6539,10 @@
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="31">
-        <v>4843</v>
+        <v>0</v>
       </c>
       <c r="F69" s="26">
-        <v>5888</v>
+        <v>0</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5"/>
@@ -6555,10 +6560,10 @@
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="30">
-        <v>4820</v>
+        <v>0</v>
       </c>
       <c r="F70" s="25">
-        <v>5886</v>
+        <v>0</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5"/>
@@ -6576,10 +6581,10 @@
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="31">
-        <v>4797</v>
+        <v>0</v>
       </c>
       <c r="F71" s="26">
-        <v>5884</v>
+        <v>0</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5"/>
@@ -6597,10 +6602,10 @@
       </c>
       <c r="D72" s="29"/>
       <c r="E72" s="30">
-        <v>4774</v>
+        <v>0</v>
       </c>
       <c r="F72" s="25">
-        <v>5882</v>
+        <v>0</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5"/>
@@ -6618,10 +6623,10 @@
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="31">
-        <v>4751</v>
+        <v>0</v>
       </c>
       <c r="F73" s="26">
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="5"/>
@@ -6639,10 +6644,10 @@
       </c>
       <c r="D74" s="29"/>
       <c r="E74" s="30">
-        <v>4728</v>
+        <v>0</v>
       </c>
       <c r="F74" s="25">
-        <v>5878</v>
+        <v>0</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5"/>
@@ -6660,10 +6665,10 @@
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="31">
-        <v>4705</v>
+        <v>0</v>
       </c>
       <c r="F75" s="26">
-        <v>5876</v>
+        <v>0</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5"/>
@@ -6681,10 +6686,10 @@
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="30">
-        <v>4682</v>
+        <v>0</v>
       </c>
       <c r="F76" s="25">
-        <v>5874</v>
+        <v>0</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5"/>
@@ -6702,10 +6707,10 @@
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="31">
-        <v>4659</v>
+        <v>0</v>
       </c>
       <c r="F77" s="26">
-        <v>5872</v>
+        <v>0</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5"/>
@@ -6723,10 +6728,10 @@
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="30">
-        <v>4636</v>
+        <v>0</v>
       </c>
       <c r="F78" s="25">
-        <v>5870</v>
+        <v>0</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5"/>
@@ -6744,10 +6749,10 @@
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="31">
-        <v>4613</v>
+        <v>0</v>
       </c>
       <c r="F79" s="26">
-        <v>5868</v>
+        <v>0</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5"/>
@@ -6765,10 +6770,10 @@
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="30">
-        <v>4590</v>
+        <v>0</v>
       </c>
       <c r="F80" s="25">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5"/>
@@ -6786,10 +6791,10 @@
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="31">
-        <v>4568</v>
+        <v>0</v>
       </c>
       <c r="F81" s="26">
-        <v>5864</v>
+        <v>0</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5"/>
@@ -6807,10 +6812,10 @@
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="30">
-        <v>4546</v>
+        <v>0</v>
       </c>
       <c r="F82" s="25">
-        <v>5862</v>
+        <v>0</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5"/>
@@ -6828,10 +6833,10 @@
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="31">
-        <v>4524</v>
+        <v>0</v>
       </c>
       <c r="F83" s="26">
-        <v>5860</v>
+        <v>0</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="5"/>
@@ -6849,10 +6854,10 @@
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="30">
-        <v>4502</v>
+        <v>0</v>
       </c>
       <c r="F84" s="25">
-        <v>5858</v>
+        <v>0</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5"/>
@@ -6870,10 +6875,10 @@
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="31">
-        <v>4480</v>
+        <v>0</v>
       </c>
       <c r="F85" s="26">
-        <v>5856</v>
+        <v>0</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5"/>
@@ -6891,10 +6896,10 @@
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="30">
-        <v>4458</v>
+        <v>0</v>
       </c>
       <c r="F86" s="25">
-        <v>5854</v>
+        <v>0</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="5"/>
@@ -6912,10 +6917,10 @@
       </c>
       <c r="D87" s="27"/>
       <c r="E87" s="31">
-        <v>4436</v>
+        <v>0</v>
       </c>
       <c r="F87" s="26">
-        <v>5852</v>
+        <v>0</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5"/>
@@ -6933,10 +6938,10 @@
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="30">
-        <v>4414</v>
+        <v>0</v>
       </c>
       <c r="F88" s="25">
-        <v>5850</v>
+        <v>0</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5"/>
@@ -6954,10 +6959,10 @@
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="31">
-        <v>4392</v>
+        <v>0</v>
       </c>
       <c r="F89" s="26">
-        <v>5848</v>
+        <v>0</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5"/>
@@ -6975,10 +6980,10 @@
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="30">
-        <v>4371</v>
+        <v>0</v>
       </c>
       <c r="F90" s="25">
-        <v>5846</v>
+        <v>0</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5"/>
@@ -6996,10 +7001,10 @@
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="31">
-        <v>4350</v>
+        <v>0</v>
       </c>
       <c r="F91" s="26">
-        <v>5844</v>
+        <v>0</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5"/>
@@ -7017,10 +7022,10 @@
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="30">
-        <v>4329</v>
+        <v>0</v>
       </c>
       <c r="F92" s="25">
-        <v>5842</v>
+        <v>0</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="5"/>
@@ -7038,10 +7043,10 @@
       </c>
       <c r="D93" s="27"/>
       <c r="E93" s="31">
-        <v>4308</v>
+        <v>0</v>
       </c>
       <c r="F93" s="26">
-        <v>5840</v>
+        <v>0</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5"/>
@@ -7059,10 +7064,10 @@
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="30">
-        <v>4287</v>
+        <v>0</v>
       </c>
       <c r="F94" s="25">
-        <v>5838</v>
+        <v>0</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5"/>
@@ -7080,10 +7085,10 @@
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="31">
-        <v>4266</v>
+        <v>0</v>
       </c>
       <c r="F95" s="26">
-        <v>5836</v>
+        <v>0</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="5"/>
@@ -7101,10 +7106,10 @@
       </c>
       <c r="D96" s="29"/>
       <c r="E96" s="30">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="F96" s="25">
-        <v>5834</v>
+        <v>0</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="5"/>
@@ -7122,10 +7127,10 @@
       </c>
       <c r="D97" s="27"/>
       <c r="E97" s="31">
-        <v>4224</v>
+        <v>0</v>
       </c>
       <c r="F97" s="26">
-        <v>5832</v>
+        <v>0</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5"/>
@@ -7143,10 +7148,10 @@
       </c>
       <c r="D98" s="29"/>
       <c r="E98" s="30">
-        <v>4203</v>
+        <v>0</v>
       </c>
       <c r="F98" s="25">
-        <v>5830</v>
+        <v>0</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5"/>
@@ -7164,10 +7169,10 @@
       </c>
       <c r="D99" s="27"/>
       <c r="E99" s="31">
-        <v>4183</v>
+        <v>0</v>
       </c>
       <c r="F99" s="26">
-        <v>5828</v>
+        <v>0</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="5"/>
@@ -7185,10 +7190,10 @@
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="30">
-        <v>4163</v>
+        <v>0</v>
       </c>
       <c r="F100" s="25">
-        <v>5826</v>
+        <v>0</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="5"/>
@@ -7206,10 +7211,10 @@
       </c>
       <c r="D101" s="27"/>
       <c r="E101" s="31">
-        <v>4143</v>
+        <v>0</v>
       </c>
       <c r="F101" s="26">
-        <v>5824</v>
+        <v>0</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="5"/>
@@ -7227,10 +7232,10 @@
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="30">
-        <v>4123</v>
+        <v>0</v>
       </c>
       <c r="F102" s="25">
-        <v>5822</v>
+        <v>0</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="5"/>
@@ -7248,10 +7253,10 @@
       </c>
       <c r="D103" s="27"/>
       <c r="E103" s="31">
-        <v>4103</v>
+        <v>0</v>
       </c>
       <c r="F103" s="26">
-        <v>5820</v>
+        <v>0</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5"/>
@@ -7269,10 +7274,10 @@
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="30">
-        <v>4083</v>
+        <v>0</v>
       </c>
       <c r="F104" s="25">
-        <v>5818</v>
+        <v>0</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5"/>
@@ -7290,10 +7295,10 @@
       </c>
       <c r="D105" s="27"/>
       <c r="E105" s="31">
-        <v>4063</v>
+        <v>0</v>
       </c>
       <c r="F105" s="26">
-        <v>5816</v>
+        <v>0</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="5"/>
@@ -7311,10 +7316,10 @@
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="30">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="F106" s="25">
-        <v>5814</v>
+        <v>0</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="5"/>
@@ -7332,10 +7337,10 @@
       </c>
       <c r="D107" s="27"/>
       <c r="E107" s="31">
-        <v>4023</v>
+        <v>0</v>
       </c>
       <c r="F107" s="26">
-        <v>5812</v>
+        <v>0</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="5"/>
@@ -7353,10 +7358,10 @@
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="30">
-        <v>4003</v>
+        <v>0</v>
       </c>
       <c r="F108" s="25">
-        <v>5810</v>
+        <v>0</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="5"/>
@@ -7374,10 +7379,10 @@
       </c>
       <c r="D109" s="27"/>
       <c r="E109" s="31">
-        <v>3983</v>
+        <v>0</v>
       </c>
       <c r="F109" s="26">
-        <v>5808</v>
+        <v>0</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="5"/>
@@ -7395,10 +7400,10 @@
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="30">
-        <v>3963</v>
+        <v>0</v>
       </c>
       <c r="F110" s="25">
-        <v>5806</v>
+        <v>0</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="5"/>
@@ -7416,10 +7421,10 @@
       </c>
       <c r="D111" s="27"/>
       <c r="E111" s="31">
-        <v>3943</v>
+        <v>0</v>
       </c>
       <c r="F111" s="26">
-        <v>5804</v>
+        <v>0</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="5"/>
@@ -7437,10 +7442,10 @@
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="30">
-        <v>3924</v>
+        <v>0</v>
       </c>
       <c r="F112" s="25">
-        <v>5802</v>
+        <v>0</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="5"/>
@@ -7458,10 +7463,10 @@
       </c>
       <c r="D113" s="27"/>
       <c r="E113" s="31">
-        <v>3905</v>
+        <v>0</v>
       </c>
       <c r="F113" s="26">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5"/>
@@ -7479,10 +7484,10 @@
       </c>
       <c r="D114" s="29"/>
       <c r="E114" s="30">
-        <v>3886</v>
+        <v>0</v>
       </c>
       <c r="F114" s="25">
-        <v>5798</v>
+        <v>0</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="5"/>
@@ -7500,10 +7505,10 @@
       </c>
       <c r="D115" s="27"/>
       <c r="E115" s="31">
-        <v>3867</v>
+        <v>0</v>
       </c>
       <c r="F115" s="26">
-        <v>5796</v>
+        <v>0</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="5"/>
@@ -7521,10 +7526,10 @@
       </c>
       <c r="D116" s="29"/>
       <c r="E116" s="30">
-        <v>3848</v>
+        <v>0</v>
       </c>
       <c r="F116" s="25">
-        <v>5794</v>
+        <v>0</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="5"/>
@@ -7542,10 +7547,10 @@
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="31">
-        <v>3829</v>
+        <v>0</v>
       </c>
       <c r="F117" s="26">
-        <v>5792</v>
+        <v>0</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="5"/>
@@ -7563,10 +7568,10 @@
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="30">
-        <v>3810</v>
+        <v>0</v>
       </c>
       <c r="F118" s="25">
-        <v>5790</v>
+        <v>0</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="5"/>
@@ -7584,10 +7589,10 @@
       </c>
       <c r="D119" s="27"/>
       <c r="E119" s="31">
-        <v>3791</v>
+        <v>0</v>
       </c>
       <c r="F119" s="26">
-        <v>5788</v>
+        <v>0</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="5"/>
@@ -7605,10 +7610,10 @@
       </c>
       <c r="D120" s="29"/>
       <c r="E120" s="30">
-        <v>3772</v>
+        <v>0</v>
       </c>
       <c r="F120" s="25">
-        <v>5786</v>
+        <v>0</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="5"/>
@@ -7626,10 +7631,10 @@
       </c>
       <c r="D121" s="27"/>
       <c r="E121" s="31">
-        <v>3753</v>
+        <v>0</v>
       </c>
       <c r="F121" s="26">
-        <v>5784</v>
+        <v>0</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="5"/>
@@ -7647,10 +7652,10 @@
       </c>
       <c r="D122" s="29"/>
       <c r="E122" s="30">
-        <v>3735</v>
+        <v>0</v>
       </c>
       <c r="F122" s="25">
-        <v>5782</v>
+        <v>0</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="5"/>
@@ -7668,10 +7673,10 @@
       </c>
       <c r="D123" s="27"/>
       <c r="E123" s="31">
-        <v>3717</v>
+        <v>0</v>
       </c>
       <c r="F123" s="26">
-        <v>5780</v>
+        <v>0</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="5"/>
@@ -7689,10 +7694,10 @@
       </c>
       <c r="D124" s="29"/>
       <c r="E124" s="30">
-        <v>3699</v>
+        <v>0</v>
       </c>
       <c r="F124" s="25">
-        <v>5778</v>
+        <v>0</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="5"/>
@@ -7710,10 +7715,10 @@
       </c>
       <c r="D125" s="27"/>
       <c r="E125" s="31">
-        <v>3681</v>
+        <v>0</v>
       </c>
       <c r="F125" s="26">
-        <v>5776</v>
+        <v>0</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="5"/>
@@ -7731,10 +7736,10 @@
       </c>
       <c r="D126" s="29"/>
       <c r="E126" s="30">
-        <v>3663</v>
+        <v>0</v>
       </c>
       <c r="F126" s="25">
-        <v>5774</v>
+        <v>0</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="5"/>
@@ -7752,10 +7757,10 @@
       </c>
       <c r="D127" s="27"/>
       <c r="E127" s="31">
-        <v>3645</v>
+        <v>0</v>
       </c>
       <c r="F127" s="26">
-        <v>5772</v>
+        <v>0</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="5"/>
@@ -7773,10 +7778,10 @@
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="30">
-        <v>3627</v>
+        <v>0</v>
       </c>
       <c r="F128" s="25">
-        <v>5770</v>
+        <v>0</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="5"/>
@@ -7794,10 +7799,10 @@
       </c>
       <c r="D129" s="27"/>
       <c r="E129" s="31">
-        <v>3609</v>
+        <v>0</v>
       </c>
       <c r="F129" s="26">
-        <v>5768</v>
+        <v>0</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="5"/>
@@ -7815,10 +7820,10 @@
       </c>
       <c r="D130" s="29"/>
       <c r="E130" s="30">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="F130" s="25">
-        <v>5766</v>
+        <v>0</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="5"/>
@@ -7836,10 +7841,10 @@
       </c>
       <c r="D131" s="27"/>
       <c r="E131" s="31">
-        <v>3573</v>
+        <v>0</v>
       </c>
       <c r="F131" s="26">
-        <v>5764</v>
+        <v>0</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="5"/>
@@ -7857,10 +7862,10 @@
       </c>
       <c r="D132" s="29"/>
       <c r="E132" s="30">
-        <v>3555</v>
+        <v>0</v>
       </c>
       <c r="F132" s="25">
-        <v>5762</v>
+        <v>0</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="5"/>
@@ -7878,10 +7883,10 @@
       </c>
       <c r="D133" s="27"/>
       <c r="E133" s="31">
-        <v>3537</v>
+        <v>0</v>
       </c>
       <c r="F133" s="26">
-        <v>5760</v>
+        <v>0</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="5"/>
@@ -7899,10 +7904,10 @@
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="30">
-        <v>3520</v>
+        <v>0</v>
       </c>
       <c r="F134" s="25">
-        <v>5758</v>
+        <v>0</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="5"/>
@@ -7920,10 +7925,10 @@
       </c>
       <c r="D135" s="27"/>
       <c r="E135" s="31">
-        <v>3503</v>
+        <v>0</v>
       </c>
       <c r="F135" s="26">
-        <v>5756</v>
+        <v>0</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="5"/>
@@ -7941,10 +7946,10 @@
       </c>
       <c r="D136" s="29"/>
       <c r="E136" s="30">
-        <v>3486</v>
+        <v>0</v>
       </c>
       <c r="F136" s="25">
-        <v>5754</v>
+        <v>0</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="5"/>
@@ -7962,10 +7967,10 @@
       </c>
       <c r="D137" s="27"/>
       <c r="E137" s="31">
-        <v>3469</v>
+        <v>0</v>
       </c>
       <c r="F137" s="26">
-        <v>5752</v>
+        <v>0</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="5"/>
@@ -7983,10 +7988,10 @@
       </c>
       <c r="D138" s="29"/>
       <c r="E138" s="30">
-        <v>3452</v>
+        <v>0</v>
       </c>
       <c r="F138" s="25">
-        <v>5750</v>
+        <v>0</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="5"/>
@@ -8004,10 +8009,10 @@
       </c>
       <c r="D139" s="27"/>
       <c r="E139" s="31">
-        <v>3435</v>
+        <v>0</v>
       </c>
       <c r="F139" s="26">
-        <v>5748</v>
+        <v>0</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="5"/>
@@ -8025,10 +8030,10 @@
       </c>
       <c r="D140" s="29"/>
       <c r="E140" s="30">
-        <v>3418</v>
+        <v>0</v>
       </c>
       <c r="F140" s="25">
-        <v>5746</v>
+        <v>0</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="5"/>
@@ -8046,10 +8051,10 @@
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="31">
-        <v>3401</v>
+        <v>0</v>
       </c>
       <c r="F141" s="26">
-        <v>5744</v>
+        <v>0</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="5"/>
@@ -8067,10 +8072,10 @@
       </c>
       <c r="D142" s="29"/>
       <c r="E142" s="30">
-        <v>3384</v>
+        <v>0</v>
       </c>
       <c r="F142" s="25">
-        <v>5742</v>
+        <v>0</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="5"/>
@@ -8088,10 +8093,10 @@
       </c>
       <c r="D143" s="27"/>
       <c r="E143" s="31">
-        <v>3367</v>
+        <v>0</v>
       </c>
       <c r="F143" s="26">
-        <v>5740</v>
+        <v>0</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="5"/>
@@ -8109,10 +8114,10 @@
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="30">
-        <v>3350</v>
+        <v>0</v>
       </c>
       <c r="F144" s="25">
-        <v>5738</v>
+        <v>0</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="5"/>
@@ -8130,10 +8135,10 @@
       </c>
       <c r="D145" s="27"/>
       <c r="E145" s="31">
-        <v>3333</v>
+        <v>0</v>
       </c>
       <c r="F145" s="26">
-        <v>5736</v>
+        <v>0</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="5"/>
@@ -8151,10 +8156,10 @@
       </c>
       <c r="D146" s="29"/>
       <c r="E146" s="30">
-        <v>3316</v>
+        <v>0</v>
       </c>
       <c r="F146" s="25">
-        <v>5734</v>
+        <v>0</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="5"/>
@@ -8172,10 +8177,10 @@
       </c>
       <c r="D147" s="27"/>
       <c r="E147" s="31">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="F147" s="26">
-        <v>5732</v>
+        <v>0</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="5"/>
@@ -8193,10 +8198,10 @@
       </c>
       <c r="D148" s="29"/>
       <c r="E148" s="30">
-        <v>3284</v>
+        <v>0</v>
       </c>
       <c r="F148" s="25">
-        <v>5730</v>
+        <v>0</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="5"/>
@@ -8214,10 +8219,10 @@
       </c>
       <c r="D149" s="27"/>
       <c r="E149" s="31">
-        <v>3268</v>
+        <v>0</v>
       </c>
       <c r="F149" s="26">
-        <v>5728</v>
+        <v>0</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="5"/>
@@ -8235,10 +8240,10 @@
       </c>
       <c r="D150" s="29"/>
       <c r="E150" s="30">
-        <v>3252</v>
+        <v>0</v>
       </c>
       <c r="F150" s="25">
-        <v>5726</v>
+        <v>0</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="5"/>
@@ -8256,10 +8261,10 @@
       </c>
       <c r="D151" s="27"/>
       <c r="E151" s="31">
-        <v>3236</v>
+        <v>0</v>
       </c>
       <c r="F151" s="26">
-        <v>5724</v>
+        <v>0</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="5"/>
@@ -8277,10 +8282,10 @@
       </c>
       <c r="D152" s="29"/>
       <c r="E152" s="30">
-        <v>3220</v>
+        <v>0</v>
       </c>
       <c r="F152" s="25">
-        <v>5722</v>
+        <v>0</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="5"/>
@@ -8298,10 +8303,10 @@
       </c>
       <c r="D153" s="27"/>
       <c r="E153" s="31">
-        <v>3204</v>
+        <v>0</v>
       </c>
       <c r="F153" s="26">
-        <v>5720</v>
+        <v>0</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="5"/>
@@ -8319,10 +8324,10 @@
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="30">
-        <v>3188</v>
+        <v>0</v>
       </c>
       <c r="F154" s="25">
-        <v>5718</v>
+        <v>0</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="5"/>
@@ -8340,10 +8345,10 @@
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="31">
-        <v>3172</v>
+        <v>0</v>
       </c>
       <c r="F155" s="26">
-        <v>5716</v>
+        <v>0</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="5"/>
@@ -8361,10 +8366,10 @@
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="30">
-        <v>3156</v>
+        <v>0</v>
       </c>
       <c r="F156" s="25">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="5"/>
@@ -8382,10 +8387,10 @@
       </c>
       <c r="D157" s="27"/>
       <c r="E157" s="31">
-        <v>3140</v>
+        <v>0</v>
       </c>
       <c r="F157" s="26">
-        <v>5712</v>
+        <v>0</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="5"/>
@@ -8403,10 +8408,10 @@
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="30">
-        <v>3124</v>
+        <v>0</v>
       </c>
       <c r="F158" s="25">
-        <v>5710</v>
+        <v>0</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="5"/>
@@ -8424,10 +8429,10 @@
       </c>
       <c r="D159" s="27"/>
       <c r="E159" s="31">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="F159" s="26">
-        <v>5708</v>
+        <v>0</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="5"/>
@@ -8445,10 +8450,10 @@
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="30">
-        <v>3092</v>
+        <v>0</v>
       </c>
       <c r="F160" s="25">
-        <v>5706</v>
+        <v>0</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="5"/>
@@ -8466,10 +8471,10 @@
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="31">
-        <v>3077</v>
+        <v>0</v>
       </c>
       <c r="F161" s="26">
-        <v>5704</v>
+        <v>0</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="5"/>
@@ -8487,10 +8492,10 @@
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="30">
-        <v>3062</v>
+        <v>0</v>
       </c>
       <c r="F162" s="25">
-        <v>5702</v>
+        <v>0</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="5"/>
@@ -8508,10 +8513,10 @@
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="31">
-        <v>3047</v>
+        <v>0</v>
       </c>
       <c r="F163" s="26">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="5"/>
@@ -8529,10 +8534,10 @@
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="30">
-        <v>3032</v>
+        <v>0</v>
       </c>
       <c r="F164" s="25">
-        <v>5698</v>
+        <v>0</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="5"/>
@@ -8550,10 +8555,10 @@
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="31">
-        <v>3017</v>
+        <v>0</v>
       </c>
       <c r="F165" s="26">
-        <v>5696</v>
+        <v>0</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="5"/>
@@ -8571,10 +8576,10 @@
       </c>
       <c r="D166" s="29"/>
       <c r="E166" s="30">
-        <v>3002</v>
+        <v>0</v>
       </c>
       <c r="F166" s="25">
-        <v>5694</v>
+        <v>0</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="5"/>
@@ -8592,10 +8597,10 @@
       </c>
       <c r="D167" s="27"/>
       <c r="E167" s="31">
-        <v>2987</v>
+        <v>0</v>
       </c>
       <c r="F167" s="26">
-        <v>5692</v>
+        <v>0</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="5"/>
@@ -8613,10 +8618,10 @@
       </c>
       <c r="D168" s="29"/>
       <c r="E168" s="30">
-        <v>2972</v>
+        <v>0</v>
       </c>
       <c r="F168" s="25">
-        <v>5690</v>
+        <v>0</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="5"/>
@@ -8634,10 +8639,10 @@
       </c>
       <c r="D169" s="27"/>
       <c r="E169" s="31">
-        <v>2957</v>
+        <v>0</v>
       </c>
       <c r="F169" s="26">
-        <v>5688</v>
+        <v>0</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="5"/>
@@ -8655,10 +8660,10 @@
       </c>
       <c r="D170" s="29"/>
       <c r="E170" s="30">
-        <v>2942</v>
+        <v>0</v>
       </c>
       <c r="F170" s="25">
-        <v>5686</v>
+        <v>0</v>
       </c>
       <c r="G170" s="4"/>
       <c r="H170" s="5"/>
@@ -8676,10 +8681,10 @@
       </c>
       <c r="D171" s="27"/>
       <c r="E171" s="31">
-        <v>2927</v>
+        <v>0</v>
       </c>
       <c r="F171" s="26">
-        <v>5684</v>
+        <v>0</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="5"/>
@@ -8697,10 +8702,10 @@
       </c>
       <c r="D172" s="29"/>
       <c r="E172" s="30">
-        <v>2912</v>
+        <v>0</v>
       </c>
       <c r="F172" s="25">
-        <v>5682</v>
+        <v>0</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="5"/>
@@ -8718,10 +8723,10 @@
       </c>
       <c r="D173" s="27"/>
       <c r="E173" s="31">
-        <v>2897</v>
+        <v>0</v>
       </c>
       <c r="F173" s="26">
-        <v>5680</v>
+        <v>0</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="5"/>
@@ -8739,10 +8744,10 @@
       </c>
       <c r="D174" s="29"/>
       <c r="E174" s="30">
-        <v>2882</v>
+        <v>0</v>
       </c>
       <c r="F174" s="25">
-        <v>5678</v>
+        <v>0</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="5"/>
@@ -8760,10 +8765,10 @@
       </c>
       <c r="D175" s="27"/>
       <c r="E175" s="31">
-        <v>2867</v>
+        <v>0</v>
       </c>
       <c r="F175" s="26">
-        <v>5676</v>
+        <v>0</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="5"/>
@@ -8781,10 +8786,10 @@
       </c>
       <c r="D176" s="29"/>
       <c r="E176" s="30">
-        <v>2853</v>
+        <v>0</v>
       </c>
       <c r="F176" s="25">
-        <v>5674</v>
+        <v>0</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="5"/>
@@ -8802,10 +8807,10 @@
       </c>
       <c r="D177" s="27"/>
       <c r="E177" s="31">
-        <v>2839</v>
+        <v>0</v>
       </c>
       <c r="F177" s="26">
-        <v>5672</v>
+        <v>0</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="5"/>
@@ -8823,10 +8828,10 @@
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="30">
-        <v>2825</v>
+        <v>0</v>
       </c>
       <c r="F178" s="25">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="5"/>
@@ -8844,10 +8849,10 @@
       </c>
       <c r="D179" s="27"/>
       <c r="E179" s="31">
-        <v>2811</v>
+        <v>0</v>
       </c>
       <c r="F179" s="26">
-        <v>5668</v>
+        <v>0</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="5"/>
@@ -8865,10 +8870,10 @@
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="30">
-        <v>2797</v>
+        <v>0</v>
       </c>
       <c r="F180" s="25">
-        <v>5666</v>
+        <v>0</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="5"/>
@@ -8886,10 +8891,10 @@
       </c>
       <c r="D181" s="27"/>
       <c r="E181" s="31">
-        <v>2783</v>
+        <v>0</v>
       </c>
       <c r="F181" s="26">
-        <v>5664</v>
+        <v>0</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="5"/>
@@ -8907,10 +8912,10 @@
       </c>
       <c r="D182" s="29"/>
       <c r="E182" s="30">
-        <v>2769</v>
+        <v>0</v>
       </c>
       <c r="F182" s="25">
-        <v>5662</v>
+        <v>0</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="5"/>
@@ -8928,10 +8933,10 @@
       </c>
       <c r="D183" s="27"/>
       <c r="E183" s="31">
-        <v>2755</v>
+        <v>0</v>
       </c>
       <c r="F183" s="26">
-        <v>5660</v>
+        <v>0</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="5"/>
@@ -8949,10 +8954,10 @@
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="30">
-        <v>2741</v>
+        <v>0</v>
       </c>
       <c r="F184" s="25">
-        <v>5658</v>
+        <v>0</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="5"/>
@@ -8970,10 +8975,10 @@
       </c>
       <c r="D185" s="27"/>
       <c r="E185" s="31">
-        <v>2727</v>
+        <v>0</v>
       </c>
       <c r="F185" s="26">
-        <v>5656</v>
+        <v>0</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="5"/>
@@ -8991,10 +8996,10 @@
       </c>
       <c r="D186" s="29"/>
       <c r="E186" s="30">
-        <v>2713</v>
+        <v>0</v>
       </c>
       <c r="F186" s="25">
-        <v>5654</v>
+        <v>0</v>
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="5"/>
@@ -9012,10 +9017,10 @@
       </c>
       <c r="D187" s="27"/>
       <c r="E187" s="31">
-        <v>2699</v>
+        <v>0</v>
       </c>
       <c r="F187" s="26">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="5"/>
@@ -9033,10 +9038,10 @@
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="30">
-        <v>2685</v>
+        <v>0</v>
       </c>
       <c r="F188" s="25">
-        <v>5650</v>
+        <v>0</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="5"/>
@@ -9054,10 +9059,10 @@
       </c>
       <c r="D189" s="27"/>
       <c r="E189" s="31">
-        <v>2671</v>
+        <v>0</v>
       </c>
       <c r="F189" s="26">
-        <v>5648</v>
+        <v>0</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="5"/>
@@ -9075,10 +9080,10 @@
       </c>
       <c r="D190" s="34"/>
       <c r="E190" s="35">
-        <v>2657</v>
+        <v>0</v>
       </c>
       <c r="F190" s="36">
-        <v>5646</v>
+        <v>0</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="5"/>

--- a/SIRS MODELS/galicia/summary.xlsx
+++ b/SIRS MODELS/galicia/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B306CECB-33BD-43BB-8AD4-A0EAD176D267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78D2E11-77F6-4BC8-A69C-A484E7809BFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,9 +442,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,9 +455,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -506,6 +500,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1246,6 +1246,12 @@
                 <c:pt idx="15">
                   <c:v>2925</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>3476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3758</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1260,7 +1266,15 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>23/3/2020</c:v>
+            <c:strRef>
+              <c:f>'SPANISH SIRS MODEL'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3/23/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -2432,7 +2446,15 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>29/3/2020</c:v>
+            <c:strRef>
+              <c:f>'SPANISH SIRS MODEL'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31/03/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -3027,145 +3049,145 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>138</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>232</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>292</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>348</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>406</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>539</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>685</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>865</c:v>
+                  <c:v>885</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1055</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1380</c:v>
+                  <c:v>1374</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1608</c:v>
+                  <c:v>1598</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1854</c:v>
+                  <c:v>1832</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2106</c:v>
+                  <c:v>2211</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2507</c:v>
+                  <c:v>2627</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2936</c:v>
+                  <c:v>2925</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3234</c:v>
+                  <c:v>3476</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3535</c:v>
+                  <c:v>3758</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3819</c:v>
+                  <c:v>4033</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4077</c:v>
+                  <c:v>4288</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4301</c:v>
+                  <c:v>4518</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4482</c:v>
+                  <c:v>4720</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4611</c:v>
+                  <c:v>4890</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4678</c:v>
+                  <c:v>5026</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4674</c:v>
+                  <c:v>5126</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4587</c:v>
+                  <c:v>5187</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4407</c:v>
+                  <c:v>5207</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4124</c:v>
+                  <c:v>5183</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3733</c:v>
+                  <c:v>5112</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3237</c:v>
+                  <c:v>4990</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2655</c:v>
+                  <c:v>4814</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2026</c:v>
+                  <c:v>4580</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1409</c:v>
+                  <c:v>4285</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>873</c:v>
+                  <c:v>3928</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>471</c:v>
+                  <c:v>3511</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>216</c:v>
+                  <c:v>3042</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>82</c:v>
+                  <c:v>2535</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6</c:v>
+                  <c:v>1508</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>1051</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
@@ -3615,7 +3637,7 @@
         <c:axId val="1356387871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="50"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3747,7 +3769,7 @@
         <c:axId val="1353300159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
+          <c:max val="6000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4849,15 +4871,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
-    <col min="3" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" style="2" customWidth="1"/>
     <col min="8" max="14" width="10.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="5.7109375" style="2" customWidth="1"/>
@@ -4907,51 +4930,51 @@
       <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="38">
         <v>43913</v>
       </c>
-      <c r="F2" s="17">
-        <v>43919</v>
+      <c r="F2" s="37">
+        <v>43921</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="18">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
         <v>43904</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="25">
         <v>131</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="26">
         <v>135</v>
       </c>
-      <c r="F3" s="24">
-        <v>138</v>
+      <c r="F3" s="22">
+        <v>135</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>43905</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>183</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="28">
         <v>189</v>
       </c>
-      <c r="F4" s="25">
-        <v>166</v>
+      <c r="F4" s="23">
+        <v>189</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -4959,20 +4982,20 @@
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>43906</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>232</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="29">
         <v>239</v>
       </c>
-      <c r="F5" s="26">
-        <v>232</v>
+      <c r="F5" s="24">
+        <v>239</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -4981,20 +5004,20 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>43907</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="27">
         <v>278</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="28">
         <v>285</v>
       </c>
-      <c r="F6" s="25">
-        <v>292</v>
+      <c r="F6" s="23">
+        <v>285</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
@@ -5003,20 +5026,20 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>43908</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <v>325</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="29">
         <v>333</v>
       </c>
-      <c r="F7" s="26">
-        <v>348</v>
+      <c r="F7" s="24">
+        <v>333</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -5025,20 +5048,20 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>5</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>43909</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="27">
         <v>435</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="28">
         <v>444</v>
       </c>
-      <c r="F8" s="25">
-        <v>406</v>
+      <c r="F8" s="23">
+        <v>444</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -5047,20 +5070,20 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>6</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>43910</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <v>556</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="29">
         <v>567</v>
       </c>
-      <c r="F9" s="26">
-        <v>539</v>
+      <c r="F9" s="24">
+        <v>567</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
@@ -5069,20 +5092,20 @@
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>7</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>43911</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="27">
         <v>703</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <v>721</v>
       </c>
-      <c r="F10" s="25">
-        <v>685</v>
+      <c r="F10" s="23">
+        <v>721</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -5090,20 +5113,20 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>8</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>43912</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <v>855</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="29">
         <v>885</v>
       </c>
-      <c r="F11" s="26">
-        <v>865</v>
+      <c r="F11" s="24">
+        <v>885</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
@@ -5111,20 +5134,20 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>9</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>43913</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <v>1132</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="28">
         <v>1170</v>
       </c>
-      <c r="F12" s="25">
-        <v>1055</v>
+      <c r="F12" s="23">
+        <v>1170</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -5132,20 +5155,20 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>10</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>43914</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>1374</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="29">
         <v>1425</v>
       </c>
-      <c r="F13" s="26">
-        <v>1380</v>
+      <c r="F13" s="24">
+        <v>1374</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -5159,20 +5182,20 @@
       <c r="U13" s="8"/>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>11</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>43915</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="27">
         <v>1598</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>1714</v>
       </c>
-      <c r="F14" s="25">
-        <v>1608</v>
+      <c r="F14" s="23">
+        <v>1598</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -5180,20 +5203,20 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>12</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>43916</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <v>1832</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="29">
         <v>2033</v>
       </c>
-      <c r="F15" s="26">
-        <v>1854</v>
+      <c r="F15" s="24">
+        <v>1832</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -5201,20 +5224,20 @@
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>13</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>43917</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="27">
         <v>2211</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="28">
         <v>2375</v>
       </c>
-      <c r="F16" s="25">
-        <v>2106</v>
+      <c r="F16" s="23">
+        <v>2211</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -5222,20 +5245,20 @@
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>14</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>43918</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="25">
         <v>2627</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="29">
         <v>2732</v>
       </c>
-      <c r="F17" s="26">
-        <v>2507</v>
+      <c r="F17" s="24">
+        <v>2627</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
@@ -5247,20 +5270,20 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>15</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>43919</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="27">
         <v>2925</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="28">
         <v>3092</v>
       </c>
-      <c r="F18" s="25">
-        <v>2936</v>
+      <c r="F18" s="23">
+        <v>2925</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
@@ -5268,18 +5291,20 @@
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>16</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>43920</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="31">
+      <c r="D19" s="25">
+        <v>3476</v>
+      </c>
+      <c r="E19" s="29">
         <v>3444</v>
       </c>
-      <c r="F19" s="26">
-        <v>3234</v>
+      <c r="F19" s="24">
+        <v>3476</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -5287,18 +5312,20 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>17</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>43921</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30">
+      <c r="D20" s="27">
+        <v>3758</v>
+      </c>
+      <c r="E20" s="28">
         <v>3776</v>
       </c>
-      <c r="F20" s="25">
-        <v>3535</v>
+      <c r="F20" s="23">
+        <v>3758</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -5306,18 +5333,18 @@
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>18</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>43922</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="31">
+      <c r="D21" s="25"/>
+      <c r="E21" s="29">
         <v>4076</v>
       </c>
-      <c r="F21" s="26">
-        <v>3819</v>
+      <c r="F21" s="24">
+        <v>4033</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -5325,18 +5352,18 @@
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>19</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>43923</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30">
+      <c r="D22" s="27"/>
+      <c r="E22" s="28">
         <v>4333</v>
       </c>
-      <c r="F22" s="25">
-        <v>4077</v>
+      <c r="F22" s="23">
+        <v>4288</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -5344,18 +5371,18 @@
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>20</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>43924</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="31">
+      <c r="D23" s="25"/>
+      <c r="E23" s="29">
         <v>4537</v>
       </c>
-      <c r="F23" s="26">
-        <v>4301</v>
+      <c r="F23" s="24">
+        <v>4518</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -5370,18 +5397,18 @@
       <c r="X23" s="11"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>21</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>43925</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30">
+      <c r="D24" s="27"/>
+      <c r="E24" s="28">
         <v>4677</v>
       </c>
-      <c r="F24" s="25">
-        <v>4482</v>
+      <c r="F24" s="23">
+        <v>4720</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -5396,18 +5423,18 @@
       <c r="X24" s="11"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>22</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>43926</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="38">
+      <c r="D25" s="25"/>
+      <c r="E25" s="36">
         <v>4739</v>
       </c>
-      <c r="F25" s="26">
-        <v>4611</v>
+      <c r="F25" s="24">
+        <v>4890</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -5422,18 +5449,18 @@
       <c r="X25" s="11"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>23</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>43927</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30">
+      <c r="D26" s="27"/>
+      <c r="E26" s="28">
         <v>4709</v>
       </c>
-      <c r="F26" s="37">
-        <v>4678</v>
+      <c r="F26" s="23">
+        <v>5026</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -5448,18 +5475,18 @@
       <c r="X26" s="11"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>24</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <v>43928</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="31">
+      <c r="D27" s="25"/>
+      <c r="E27" s="29">
         <v>4568</v>
       </c>
-      <c r="F27" s="26">
-        <v>4674</v>
+      <c r="F27" s="24">
+        <v>5126</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
@@ -5474,18 +5501,18 @@
       <c r="X27" s="11"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>25</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>43929</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30">
+      <c r="D28" s="27"/>
+      <c r="E28" s="28">
         <v>4295</v>
       </c>
-      <c r="F28" s="25">
-        <v>4587</v>
+      <c r="F28" s="23">
+        <v>5187</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
@@ -5500,18 +5527,18 @@
       <c r="X28" s="11"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <v>26</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="19">
         <v>43930</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="31">
+      <c r="D29" s="25"/>
+      <c r="E29" s="29">
         <v>3872</v>
       </c>
-      <c r="F29" s="26">
-        <v>4407</v>
+      <c r="F29" s="35">
+        <v>5207</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
@@ -5526,18 +5553,18 @@
       <c r="X29" s="11"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>27</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>43931</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30">
+      <c r="D30" s="27"/>
+      <c r="E30" s="28">
         <v>3293</v>
       </c>
-      <c r="F30" s="25">
-        <v>4124</v>
+      <c r="F30" s="23">
+        <v>5183</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
@@ -5552,18 +5579,18 @@
       <c r="X30" s="11"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <v>28</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="19">
         <v>43932</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="31">
+      <c r="D31" s="25"/>
+      <c r="E31" s="29">
         <v>2580</v>
       </c>
-      <c r="F31" s="26">
-        <v>3733</v>
+      <c r="F31" s="24">
+        <v>5112</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="13"/>
@@ -5580,18 +5607,18 @@
       <c r="X31" s="11"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <v>29</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>43933</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30">
+      <c r="D32" s="27"/>
+      <c r="E32" s="28">
         <v>1805</v>
       </c>
-      <c r="F32" s="25">
-        <v>3237</v>
+      <c r="F32" s="23">
+        <v>4990</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -5610,18 +5637,18 @@
       <c r="X32" s="11"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <v>30</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="19">
         <v>43934</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="31">
+      <c r="D33" s="25"/>
+      <c r="E33" s="29">
         <v>1084</v>
       </c>
-      <c r="F33" s="26">
-        <v>2655</v>
+      <c r="F33" s="24">
+        <v>4814</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
@@ -5639,18 +5666,18 @@
       <c r="X33" s="11"/>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B34" s="19">
+      <c r="B34" s="18">
         <v>31</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>43935</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30">
+      <c r="D34" s="27"/>
+      <c r="E34" s="28">
         <v>536</v>
       </c>
-      <c r="F34" s="25">
-        <v>2026</v>
+      <c r="F34" s="23">
+        <v>4580</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
@@ -5668,18 +5695,18 @@
       <c r="X34" s="11"/>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>32</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="19">
         <v>43936</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="31">
+      <c r="D35" s="25"/>
+      <c r="E35" s="29">
         <v>210</v>
       </c>
-      <c r="F35" s="26">
-        <v>1409</v>
+      <c r="F35" s="24">
+        <v>4285</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5"/>
@@ -5695,18 +5722,18 @@
       <c r="S35" s="7"/>
     </row>
     <row r="36" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B36" s="19">
+      <c r="B36" s="18">
         <v>33</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>43937</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30">
+      <c r="D36" s="27"/>
+      <c r="E36" s="28">
         <v>63</v>
       </c>
-      <c r="F36" s="25">
-        <v>873</v>
+      <c r="F36" s="23">
+        <v>3928</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5"/>
@@ -5722,18 +5749,18 @@
       <c r="S36" s="7"/>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B37" s="18">
+      <c r="B37" s="17">
         <v>34</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="19">
         <v>43938</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="31">
+      <c r="D37" s="25"/>
+      <c r="E37" s="29">
         <v>14</v>
       </c>
-      <c r="F37" s="26">
-        <v>471</v>
+      <c r="F37" s="24">
+        <v>3511</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="13"/>
@@ -5749,18 +5776,18 @@
       <c r="S37" s="7"/>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B38" s="19">
+      <c r="B38" s="18">
         <v>35</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>43939</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30">
+      <c r="D38" s="27"/>
+      <c r="E38" s="28">
         <v>2</v>
       </c>
-      <c r="F38" s="25">
-        <v>216</v>
+      <c r="F38" s="23">
+        <v>3042</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
@@ -5777,18 +5804,18 @@
       <c r="U38" s="8"/>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B39" s="18">
+      <c r="B39" s="17">
         <v>36</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="19">
         <v>43940</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="38">
-        <v>0</v>
-      </c>
-      <c r="F39" s="26">
-        <v>82</v>
+      <c r="D39" s="25"/>
+      <c r="E39" s="36">
+        <v>0</v>
+      </c>
+      <c r="F39" s="24">
+        <v>2535</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="13"/>
@@ -5804,18 +5831,18 @@
       <c r="S39" s="7"/>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B40" s="19">
+      <c r="B40" s="18">
         <v>37</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>43941</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30">
-        <v>0</v>
-      </c>
-      <c r="F40" s="25">
-        <v>25</v>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28">
+        <v>0</v>
+      </c>
+      <c r="F40" s="23">
+        <v>2014</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5"/>
@@ -5831,18 +5858,18 @@
       <c r="S40" s="7"/>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B41" s="18">
+      <c r="B41" s="17">
         <v>38</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="19">
         <v>43942</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="31">
-        <v>0</v>
-      </c>
-      <c r="F41" s="26">
-        <v>6</v>
+      <c r="D41" s="25"/>
+      <c r="E41" s="29">
+        <v>0</v>
+      </c>
+      <c r="F41" s="24">
+        <v>1508</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="13"/>
@@ -5858,18 +5885,18 @@
       <c r="S41" s="7"/>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B42" s="19">
+      <c r="B42" s="18">
         <v>39</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>43943</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30">
-        <v>0</v>
-      </c>
-      <c r="F42" s="25">
-        <v>1</v>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28">
+        <v>0</v>
+      </c>
+      <c r="F42" s="23">
+        <v>1051</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5"/>
@@ -5889,18 +5916,18 @@
       <c r="AG42" s="3"/>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B43" s="18">
+      <c r="B43" s="17">
         <v>40</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="19">
         <v>43944</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="31">
-        <v>0</v>
-      </c>
-      <c r="F43" s="37">
-        <v>0</v>
+      <c r="D43" s="25"/>
+      <c r="E43" s="29">
+        <v>0</v>
+      </c>
+      <c r="F43" s="24">
+        <v>673</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="13"/>
@@ -5916,18 +5943,18 @@
       <c r="S43" s="7"/>
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B44" s="19">
+      <c r="B44" s="18">
         <v>41</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>43945</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30">
-        <v>0</v>
-      </c>
-      <c r="F44" s="25">
-        <v>0</v>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28">
+        <v>0</v>
+      </c>
+      <c r="F44" s="23">
+        <v>390</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
@@ -5943,18 +5970,18 @@
       <c r="S44" s="7"/>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B45" s="18">
+      <c r="B45" s="17">
         <v>42</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="19">
         <v>43946</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="31">
-        <v>0</v>
-      </c>
-      <c r="F45" s="26">
-        <v>0</v>
+      <c r="D45" s="25"/>
+      <c r="E45" s="29">
+        <v>0</v>
+      </c>
+      <c r="F45" s="24">
+        <v>202</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="13"/>
@@ -5970,18 +5997,18 @@
       <c r="S45" s="7"/>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B46" s="19">
+      <c r="B46" s="18">
         <v>43</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>43947</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30">
-        <v>0</v>
-      </c>
-      <c r="F46" s="25">
-        <v>0</v>
+      <c r="D46" s="27"/>
+      <c r="E46" s="28">
+        <v>0</v>
+      </c>
+      <c r="F46" s="23">
+        <v>92</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5"/>
@@ -5997,18 +6024,18 @@
       <c r="S46" s="7"/>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B47" s="18">
+      <c r="B47" s="17">
         <v>44</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="19">
         <v>43948</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="31">
-        <v>0</v>
-      </c>
-      <c r="F47" s="26">
-        <v>0</v>
+      <c r="D47" s="25"/>
+      <c r="E47" s="29">
+        <v>0</v>
+      </c>
+      <c r="F47" s="24">
+        <v>36</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="13"/>
@@ -6024,18 +6051,18 @@
       <c r="S47" s="7"/>
     </row>
     <row r="48" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B48" s="19">
+      <c r="B48" s="18">
         <v>45</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>43949</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="30">
-        <v>0</v>
-      </c>
-      <c r="F48" s="25">
-        <v>0</v>
+      <c r="D48" s="27"/>
+      <c r="E48" s="28">
+        <v>0</v>
+      </c>
+      <c r="F48" s="23">
+        <v>12</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5"/>
@@ -6051,18 +6078,18 @@
       <c r="S48" s="7"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="18">
+      <c r="B49" s="17">
         <v>46</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="19">
         <v>43950</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="31">
-        <v>0</v>
-      </c>
-      <c r="F49" s="26">
-        <v>0</v>
+      <c r="D49" s="25"/>
+      <c r="E49" s="29">
+        <v>0</v>
+      </c>
+      <c r="F49" s="24">
+        <v>3</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="13"/>
@@ -6078,17 +6105,17 @@
       <c r="S49" s="7"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="19">
+      <c r="B50" s="18">
         <v>47</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>43951</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="30">
-        <v>0</v>
-      </c>
-      <c r="F50" s="25">
+      <c r="D50" s="27"/>
+      <c r="E50" s="28">
+        <v>0</v>
+      </c>
+      <c r="F50" s="35">
         <v>0</v>
       </c>
       <c r="G50" s="4"/>
@@ -6105,17 +6132,17 @@
       <c r="S50" s="7"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B51" s="18">
+      <c r="B51" s="17">
         <v>48</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="19">
         <v>43952</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="31">
-        <v>0</v>
-      </c>
-      <c r="F51" s="26">
+      <c r="D51" s="25"/>
+      <c r="E51" s="29">
+        <v>0</v>
+      </c>
+      <c r="F51" s="24">
         <v>0</v>
       </c>
       <c r="G51" s="4"/>
@@ -6132,17 +6159,17 @@
       <c r="S51" s="7"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B52" s="19">
+      <c r="B52" s="18">
         <v>49</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>43953</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30">
-        <v>0</v>
-      </c>
-      <c r="F52" s="25">
+      <c r="D52" s="27"/>
+      <c r="E52" s="28">
+        <v>0</v>
+      </c>
+      <c r="F52" s="23">
         <v>0</v>
       </c>
       <c r="G52" s="4"/>
@@ -6159,17 +6186,17 @@
       <c r="S52" s="7"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="18">
+      <c r="B53" s="17">
         <v>50</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="19">
         <v>43954</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="31">
-        <v>0</v>
-      </c>
-      <c r="F53" s="26">
+      <c r="D53" s="25"/>
+      <c r="E53" s="29">
+        <v>0</v>
+      </c>
+      <c r="F53" s="24">
         <v>0</v>
       </c>
       <c r="G53" s="4"/>
@@ -6186,17 +6213,17 @@
       <c r="S53" s="7"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="19">
+      <c r="B54" s="18">
         <v>51</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>43955</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30">
-        <v>0</v>
-      </c>
-      <c r="F54" s="25">
+      <c r="D54" s="27"/>
+      <c r="E54" s="28">
+        <v>0</v>
+      </c>
+      <c r="F54" s="23">
         <v>0</v>
       </c>
       <c r="G54" s="4"/>
@@ -6213,17 +6240,17 @@
       <c r="S54" s="7"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="18">
+      <c r="B55" s="17">
         <v>52</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="19">
         <v>43956</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="31">
-        <v>0</v>
-      </c>
-      <c r="F55" s="26">
+      <c r="D55" s="25"/>
+      <c r="E55" s="29">
+        <v>0</v>
+      </c>
+      <c r="F55" s="24">
         <v>0</v>
       </c>
       <c r="G55" s="4"/>
@@ -6240,17 +6267,17 @@
       <c r="S55" s="7"/>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="19">
+      <c r="B56" s="18">
         <v>53</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>43957</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="30">
-        <v>0</v>
-      </c>
-      <c r="F56" s="25">
+      <c r="D56" s="27"/>
+      <c r="E56" s="28">
+        <v>0</v>
+      </c>
+      <c r="F56" s="23">
         <v>0</v>
       </c>
       <c r="G56" s="4"/>
@@ -6267,17 +6294,17 @@
       <c r="S56" s="7"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B57" s="18">
+      <c r="B57" s="17">
         <v>54</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="19">
         <v>43958</v>
       </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="31">
-        <v>0</v>
-      </c>
-      <c r="F57" s="26">
+      <c r="D57" s="25"/>
+      <c r="E57" s="29">
+        <v>0</v>
+      </c>
+      <c r="F57" s="24">
         <v>0</v>
       </c>
       <c r="G57" s="4"/>
@@ -6294,17 +6321,17 @@
       <c r="S57" s="7"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="19">
+      <c r="B58" s="18">
         <v>55</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>43959</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="30">
-        <v>0</v>
-      </c>
-      <c r="F58" s="25">
+      <c r="D58" s="27"/>
+      <c r="E58" s="28">
+        <v>0</v>
+      </c>
+      <c r="F58" s="23">
         <v>0</v>
       </c>
       <c r="G58" s="4"/>
@@ -6321,17 +6348,17 @@
       <c r="S58" s="7"/>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="18">
+      <c r="B59" s="17">
         <v>56</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="19">
         <v>43960</v>
       </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="31">
-        <v>0</v>
-      </c>
-      <c r="F59" s="26">
+      <c r="D59" s="25"/>
+      <c r="E59" s="29">
+        <v>0</v>
+      </c>
+      <c r="F59" s="24">
         <v>0</v>
       </c>
       <c r="G59" s="4"/>
@@ -6342,17 +6369,17 @@
       <c r="S59" s="7"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="19">
+      <c r="B60" s="18">
         <v>57</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>43961</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="30">
-        <v>0</v>
-      </c>
-      <c r="F60" s="25">
+      <c r="D60" s="27"/>
+      <c r="E60" s="28">
+        <v>0</v>
+      </c>
+      <c r="F60" s="23">
         <v>0</v>
       </c>
       <c r="G60" s="4"/>
@@ -6363,17 +6390,17 @@
       <c r="S60" s="7"/>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="18">
+      <c r="B61" s="17">
         <v>58</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="19">
         <v>43962</v>
       </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="31">
-        <v>0</v>
-      </c>
-      <c r="F61" s="26">
+      <c r="D61" s="25"/>
+      <c r="E61" s="29">
+        <v>0</v>
+      </c>
+      <c r="F61" s="24">
         <v>0</v>
       </c>
       <c r="G61" s="4"/>
@@ -6384,17 +6411,17 @@
       <c r="S61" s="7"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="19">
+      <c r="B62" s="18">
         <v>59</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>43963</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="30">
-        <v>0</v>
-      </c>
-      <c r="F62" s="25">
+      <c r="D62" s="27"/>
+      <c r="E62" s="28">
+        <v>0</v>
+      </c>
+      <c r="F62" s="23">
         <v>0</v>
       </c>
       <c r="G62" s="4"/>
@@ -6405,17 +6432,17 @@
       <c r="S62" s="7"/>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="18">
+      <c r="B63" s="17">
         <v>60</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="19">
         <v>43964</v>
       </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="31">
-        <v>0</v>
-      </c>
-      <c r="F63" s="26">
+      <c r="D63" s="25"/>
+      <c r="E63" s="29">
+        <v>0</v>
+      </c>
+      <c r="F63" s="24">
         <v>0</v>
       </c>
       <c r="G63" s="4"/>
@@ -6426,17 +6453,17 @@
       <c r="S63" s="7"/>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B64" s="19">
+      <c r="B64" s="18">
         <v>61</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>43965</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="30">
-        <v>0</v>
-      </c>
-      <c r="F64" s="25">
+      <c r="D64" s="27"/>
+      <c r="E64" s="28">
+        <v>0</v>
+      </c>
+      <c r="F64" s="23">
         <v>0</v>
       </c>
       <c r="G64" s="4"/>
@@ -6447,17 +6474,17 @@
       <c r="S64" s="7"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B65" s="18">
+      <c r="B65" s="17">
         <v>62</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="19">
         <v>43966</v>
       </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="31">
-        <v>0</v>
-      </c>
-      <c r="F65" s="26">
+      <c r="D65" s="25"/>
+      <c r="E65" s="29">
+        <v>0</v>
+      </c>
+      <c r="F65" s="24">
         <v>0</v>
       </c>
       <c r="G65" s="4"/>
@@ -6468,17 +6495,17 @@
       <c r="S65" s="7"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="19">
+      <c r="B66" s="18">
         <v>63</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="20">
         <v>43967</v>
       </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="30">
-        <v>0</v>
-      </c>
-      <c r="F66" s="25">
+      <c r="D66" s="27"/>
+      <c r="E66" s="28">
+        <v>0</v>
+      </c>
+      <c r="F66" s="23">
         <v>0</v>
       </c>
       <c r="G66" s="4"/>
@@ -6489,17 +6516,17 @@
       <c r="S66" s="7"/>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="18">
+      <c r="B67" s="17">
         <v>64</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="19">
         <v>43968</v>
       </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="31">
-        <v>0</v>
-      </c>
-      <c r="F67" s="26">
+      <c r="D67" s="25"/>
+      <c r="E67" s="29">
+        <v>0</v>
+      </c>
+      <c r="F67" s="24">
         <v>0</v>
       </c>
       <c r="G67" s="4"/>
@@ -6510,17 +6537,17 @@
       <c r="S67" s="7"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="19">
+      <c r="B68" s="18">
         <v>65</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="20">
         <v>43969</v>
       </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="30">
-        <v>0</v>
-      </c>
-      <c r="F68" s="25">
+      <c r="D68" s="27"/>
+      <c r="E68" s="28">
+        <v>0</v>
+      </c>
+      <c r="F68" s="23">
         <v>0</v>
       </c>
       <c r="G68" s="4"/>
@@ -6531,17 +6558,17 @@
       <c r="S68" s="7"/>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="18">
+      <c r="B69" s="17">
         <v>66</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="19">
         <v>43970</v>
       </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="31">
-        <v>0</v>
-      </c>
-      <c r="F69" s="26">
+      <c r="D69" s="25"/>
+      <c r="E69" s="29">
+        <v>0</v>
+      </c>
+      <c r="F69" s="24">
         <v>0</v>
       </c>
       <c r="G69" s="4"/>
@@ -6552,17 +6579,17 @@
       <c r="S69" s="7"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="19">
+      <c r="B70" s="18">
         <v>67</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="20">
         <v>43971</v>
       </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="25">
+      <c r="D70" s="27"/>
+      <c r="E70" s="28">
+        <v>0</v>
+      </c>
+      <c r="F70" s="23">
         <v>0</v>
       </c>
       <c r="G70" s="4"/>
@@ -6573,17 +6600,17 @@
       <c r="S70" s="7"/>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B71" s="18">
+      <c r="B71" s="17">
         <v>68</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="19">
         <v>43972</v>
       </c>
-      <c r="D71" s="27"/>
-      <c r="E71" s="31">
-        <v>0</v>
-      </c>
-      <c r="F71" s="26">
+      <c r="D71" s="25"/>
+      <c r="E71" s="29">
+        <v>0</v>
+      </c>
+      <c r="F71" s="24">
         <v>0</v>
       </c>
       <c r="G71" s="4"/>
@@ -6594,17 +6621,17 @@
       <c r="S71" s="7"/>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B72" s="19">
+      <c r="B72" s="18">
         <v>69</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <v>43973</v>
       </c>
-      <c r="D72" s="29"/>
-      <c r="E72" s="30">
-        <v>0</v>
-      </c>
-      <c r="F72" s="25">
+      <c r="D72" s="27"/>
+      <c r="E72" s="28">
+        <v>0</v>
+      </c>
+      <c r="F72" s="23">
         <v>0</v>
       </c>
       <c r="G72" s="4"/>
@@ -6615,17 +6642,17 @@
       <c r="S72" s="7"/>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B73" s="18">
+      <c r="B73" s="17">
         <v>70</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="19">
         <v>43974</v>
       </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="31">
-        <v>0</v>
-      </c>
-      <c r="F73" s="26">
+      <c r="D73" s="25"/>
+      <c r="E73" s="29">
+        <v>0</v>
+      </c>
+      <c r="F73" s="24">
         <v>0</v>
       </c>
       <c r="G73" s="4"/>
@@ -6636,17 +6663,17 @@
       <c r="S73" s="7"/>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B74" s="19">
+      <c r="B74" s="18">
         <v>71</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="20">
         <v>43975</v>
       </c>
-      <c r="D74" s="29"/>
-      <c r="E74" s="30">
-        <v>0</v>
-      </c>
-      <c r="F74" s="25">
+      <c r="D74" s="27"/>
+      <c r="E74" s="28">
+        <v>0</v>
+      </c>
+      <c r="F74" s="23">
         <v>0</v>
       </c>
       <c r="G74" s="4"/>
@@ -6657,17 +6684,17 @@
       <c r="S74" s="7"/>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B75" s="18">
+      <c r="B75" s="17">
         <v>72</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="19">
         <v>43976</v>
       </c>
-      <c r="D75" s="27"/>
-      <c r="E75" s="31">
-        <v>0</v>
-      </c>
-      <c r="F75" s="26">
+      <c r="D75" s="25"/>
+      <c r="E75" s="29">
+        <v>0</v>
+      </c>
+      <c r="F75" s="24">
         <v>0</v>
       </c>
       <c r="G75" s="4"/>
@@ -6678,17 +6705,17 @@
       <c r="S75" s="7"/>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B76" s="19">
+      <c r="B76" s="18">
         <v>73</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <v>43977</v>
       </c>
-      <c r="D76" s="29"/>
-      <c r="E76" s="30">
-        <v>0</v>
-      </c>
-      <c r="F76" s="25">
+      <c r="D76" s="27"/>
+      <c r="E76" s="28">
+        <v>0</v>
+      </c>
+      <c r="F76" s="23">
         <v>0</v>
       </c>
       <c r="G76" s="4"/>
@@ -6699,17 +6726,17 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B77" s="18">
+      <c r="B77" s="17">
         <v>74</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="19">
         <v>43978</v>
       </c>
-      <c r="D77" s="27"/>
-      <c r="E77" s="31">
-        <v>0</v>
-      </c>
-      <c r="F77" s="26">
+      <c r="D77" s="25"/>
+      <c r="E77" s="29">
+        <v>0</v>
+      </c>
+      <c r="F77" s="24">
         <v>0</v>
       </c>
       <c r="G77" s="4"/>
@@ -6720,17 +6747,17 @@
       <c r="S77" s="7"/>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B78" s="19">
+      <c r="B78" s="18">
         <v>75</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="20">
         <v>43979</v>
       </c>
-      <c r="D78" s="29"/>
-      <c r="E78" s="30">
-        <v>0</v>
-      </c>
-      <c r="F78" s="25">
+      <c r="D78" s="27"/>
+      <c r="E78" s="28">
+        <v>0</v>
+      </c>
+      <c r="F78" s="23">
         <v>0</v>
       </c>
       <c r="G78" s="4"/>
@@ -6741,17 +6768,17 @@
       <c r="S78" s="7"/>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B79" s="18">
+      <c r="B79" s="17">
         <v>76</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="19">
         <v>43980</v>
       </c>
-      <c r="D79" s="27"/>
-      <c r="E79" s="31">
-        <v>0</v>
-      </c>
-      <c r="F79" s="26">
+      <c r="D79" s="25"/>
+      <c r="E79" s="29">
+        <v>0</v>
+      </c>
+      <c r="F79" s="24">
         <v>0</v>
       </c>
       <c r="G79" s="4"/>
@@ -6762,17 +6789,17 @@
       <c r="S79" s="7"/>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B80" s="19">
+      <c r="B80" s="18">
         <v>77</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C80" s="20">
         <v>43981</v>
       </c>
-      <c r="D80" s="29"/>
-      <c r="E80" s="30">
-        <v>0</v>
-      </c>
-      <c r="F80" s="25">
+      <c r="D80" s="27"/>
+      <c r="E80" s="28">
+        <v>0</v>
+      </c>
+      <c r="F80" s="23">
         <v>0</v>
       </c>
       <c r="G80" s="4"/>
@@ -6783,17 +6810,17 @@
       <c r="S80" s="7"/>
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B81" s="18">
+      <c r="B81" s="17">
         <v>78</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="19">
         <v>43982</v>
       </c>
-      <c r="D81" s="27"/>
-      <c r="E81" s="31">
-        <v>0</v>
-      </c>
-      <c r="F81" s="26">
+      <c r="D81" s="25"/>
+      <c r="E81" s="29">
+        <v>0</v>
+      </c>
+      <c r="F81" s="24">
         <v>0</v>
       </c>
       <c r="G81" s="4"/>
@@ -6804,17 +6831,17 @@
       <c r="S81" s="7"/>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B82" s="19">
+      <c r="B82" s="18">
         <v>79</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="20">
         <v>43983</v>
       </c>
-      <c r="D82" s="29"/>
-      <c r="E82" s="30">
-        <v>0</v>
-      </c>
-      <c r="F82" s="25">
+      <c r="D82" s="27"/>
+      <c r="E82" s="28">
+        <v>0</v>
+      </c>
+      <c r="F82" s="23">
         <v>0</v>
       </c>
       <c r="G82" s="4"/>
@@ -6825,17 +6852,17 @@
       <c r="S82" s="7"/>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B83" s="18">
+      <c r="B83" s="17">
         <v>80</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="19">
         <v>43984</v>
       </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="31">
-        <v>0</v>
-      </c>
-      <c r="F83" s="26">
+      <c r="D83" s="25"/>
+      <c r="E83" s="29">
+        <v>0</v>
+      </c>
+      <c r="F83" s="24">
         <v>0</v>
       </c>
       <c r="G83" s="4"/>
@@ -6846,17 +6873,17 @@
       <c r="S83" s="7"/>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B84" s="19">
+      <c r="B84" s="18">
         <v>81</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="20">
         <v>43985</v>
       </c>
-      <c r="D84" s="29"/>
-      <c r="E84" s="30">
-        <v>0</v>
-      </c>
-      <c r="F84" s="25">
+      <c r="D84" s="27"/>
+      <c r="E84" s="28">
+        <v>0</v>
+      </c>
+      <c r="F84" s="23">
         <v>0</v>
       </c>
       <c r="G84" s="4"/>
@@ -6867,17 +6894,17 @@
       <c r="S84" s="7"/>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B85" s="18">
+      <c r="B85" s="17">
         <v>82</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="19">
         <v>43986</v>
       </c>
-      <c r="D85" s="27"/>
-      <c r="E85" s="31">
-        <v>0</v>
-      </c>
-      <c r="F85" s="26">
+      <c r="D85" s="25"/>
+      <c r="E85" s="29">
+        <v>0</v>
+      </c>
+      <c r="F85" s="24">
         <v>0</v>
       </c>
       <c r="G85" s="4"/>
@@ -6888,17 +6915,17 @@
       <c r="S85" s="7"/>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B86" s="19">
+      <c r="B86" s="18">
         <v>83</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="20">
         <v>43987</v>
       </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="30">
-        <v>0</v>
-      </c>
-      <c r="F86" s="25">
+      <c r="D86" s="27"/>
+      <c r="E86" s="28">
+        <v>0</v>
+      </c>
+      <c r="F86" s="23">
         <v>0</v>
       </c>
       <c r="G86" s="4"/>
@@ -6909,17 +6936,17 @@
       <c r="S86" s="7"/>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B87" s="18">
+      <c r="B87" s="17">
         <v>84</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="19">
         <v>43988</v>
       </c>
-      <c r="D87" s="27"/>
-      <c r="E87" s="31">
-        <v>0</v>
-      </c>
-      <c r="F87" s="26">
+      <c r="D87" s="25"/>
+      <c r="E87" s="29">
+        <v>0</v>
+      </c>
+      <c r="F87" s="24">
         <v>0</v>
       </c>
       <c r="G87" s="4"/>
@@ -6930,17 +6957,17 @@
       <c r="S87" s="7"/>
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B88" s="19">
+      <c r="B88" s="18">
         <v>85</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="20">
         <v>43989</v>
       </c>
-      <c r="D88" s="29"/>
-      <c r="E88" s="30">
-        <v>0</v>
-      </c>
-      <c r="F88" s="25">
+      <c r="D88" s="27"/>
+      <c r="E88" s="28">
+        <v>0</v>
+      </c>
+      <c r="F88" s="23">
         <v>0</v>
       </c>
       <c r="G88" s="4"/>
@@ -6951,17 +6978,17 @@
       <c r="S88" s="7"/>
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B89" s="18">
+      <c r="B89" s="17">
         <v>86</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="19">
         <v>43990</v>
       </c>
-      <c r="D89" s="27"/>
-      <c r="E89" s="31">
-        <v>0</v>
-      </c>
-      <c r="F89" s="26">
+      <c r="D89" s="25"/>
+      <c r="E89" s="29">
+        <v>0</v>
+      </c>
+      <c r="F89" s="24">
         <v>0</v>
       </c>
       <c r="G89" s="4"/>
@@ -6972,17 +6999,17 @@
       <c r="S89" s="7"/>
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B90" s="19">
+      <c r="B90" s="18">
         <v>87</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="20">
         <v>43991</v>
       </c>
-      <c r="D90" s="29"/>
-      <c r="E90" s="30">
-        <v>0</v>
-      </c>
-      <c r="F90" s="25">
+      <c r="D90" s="27"/>
+      <c r="E90" s="28">
+        <v>0</v>
+      </c>
+      <c r="F90" s="23">
         <v>0</v>
       </c>
       <c r="G90" s="4"/>
@@ -6993,17 +7020,17 @@
       <c r="S90" s="7"/>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B91" s="18">
+      <c r="B91" s="17">
         <v>88</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="19">
         <v>43992</v>
       </c>
-      <c r="D91" s="27"/>
-      <c r="E91" s="31">
-        <v>0</v>
-      </c>
-      <c r="F91" s="26">
+      <c r="D91" s="25"/>
+      <c r="E91" s="29">
+        <v>0</v>
+      </c>
+      <c r="F91" s="24">
         <v>0</v>
       </c>
       <c r="G91" s="4"/>
@@ -7014,17 +7041,17 @@
       <c r="S91" s="7"/>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B92" s="19">
+      <c r="B92" s="18">
         <v>89</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="20">
         <v>43993</v>
       </c>
-      <c r="D92" s="29"/>
-      <c r="E92" s="30">
-        <v>0</v>
-      </c>
-      <c r="F92" s="25">
+      <c r="D92" s="27"/>
+      <c r="E92" s="28">
+        <v>0</v>
+      </c>
+      <c r="F92" s="23">
         <v>0</v>
       </c>
       <c r="G92" s="4"/>
@@ -7035,17 +7062,17 @@
       <c r="S92" s="7"/>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B93" s="18">
+      <c r="B93" s="17">
         <v>90</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="19">
         <v>43994</v>
       </c>
-      <c r="D93" s="27"/>
-      <c r="E93" s="31">
-        <v>0</v>
-      </c>
-      <c r="F93" s="26">
+      <c r="D93" s="25"/>
+      <c r="E93" s="29">
+        <v>0</v>
+      </c>
+      <c r="F93" s="24">
         <v>0</v>
       </c>
       <c r="G93" s="4"/>
@@ -7056,17 +7083,17 @@
       <c r="S93" s="7"/>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B94" s="19">
+      <c r="B94" s="18">
         <v>91</v>
       </c>
-      <c r="C94" s="21">
+      <c r="C94" s="20">
         <v>43995</v>
       </c>
-      <c r="D94" s="29"/>
-      <c r="E94" s="30">
-        <v>0</v>
-      </c>
-      <c r="F94" s="25">
+      <c r="D94" s="27"/>
+      <c r="E94" s="28">
+        <v>0</v>
+      </c>
+      <c r="F94" s="23">
         <v>0</v>
       </c>
       <c r="G94" s="4"/>
@@ -7077,17 +7104,17 @@
       <c r="S94" s="7"/>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B95" s="18">
+      <c r="B95" s="17">
         <v>92</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="19">
         <v>43996</v>
       </c>
-      <c r="D95" s="27"/>
-      <c r="E95" s="31">
-        <v>0</v>
-      </c>
-      <c r="F95" s="26">
+      <c r="D95" s="25"/>
+      <c r="E95" s="29">
+        <v>0</v>
+      </c>
+      <c r="F95" s="24">
         <v>0</v>
       </c>
       <c r="G95" s="4"/>
@@ -7098,17 +7125,17 @@
       <c r="S95" s="7"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B96" s="19">
+      <c r="B96" s="18">
         <v>93</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="20">
         <v>43997</v>
       </c>
-      <c r="D96" s="29"/>
-      <c r="E96" s="30">
-        <v>0</v>
-      </c>
-      <c r="F96" s="25">
+      <c r="D96" s="27"/>
+      <c r="E96" s="28">
+        <v>0</v>
+      </c>
+      <c r="F96" s="23">
         <v>0</v>
       </c>
       <c r="G96" s="4"/>
@@ -7119,17 +7146,17 @@
       <c r="S96" s="7"/>
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B97" s="18">
+      <c r="B97" s="17">
         <v>94</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="19">
         <v>43998</v>
       </c>
-      <c r="D97" s="27"/>
-      <c r="E97" s="31">
-        <v>0</v>
-      </c>
-      <c r="F97" s="26">
+      <c r="D97" s="25"/>
+      <c r="E97" s="29">
+        <v>0</v>
+      </c>
+      <c r="F97" s="24">
         <v>0</v>
       </c>
       <c r="G97" s="4"/>
@@ -7140,17 +7167,17 @@
       <c r="S97" s="7"/>
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B98" s="19">
+      <c r="B98" s="18">
         <v>95</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="20">
         <v>43999</v>
       </c>
-      <c r="D98" s="29"/>
-      <c r="E98" s="30">
-        <v>0</v>
-      </c>
-      <c r="F98" s="25">
+      <c r="D98" s="27"/>
+      <c r="E98" s="28">
+        <v>0</v>
+      </c>
+      <c r="F98" s="23">
         <v>0</v>
       </c>
       <c r="G98" s="4"/>
@@ -7161,17 +7188,17 @@
       <c r="S98" s="7"/>
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B99" s="18">
+      <c r="B99" s="17">
         <v>96</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="19">
         <v>44000</v>
       </c>
-      <c r="D99" s="27"/>
-      <c r="E99" s="31">
-        <v>0</v>
-      </c>
-      <c r="F99" s="26">
+      <c r="D99" s="25"/>
+      <c r="E99" s="29">
+        <v>0</v>
+      </c>
+      <c r="F99" s="24">
         <v>0</v>
       </c>
       <c r="G99" s="4"/>
@@ -7182,17 +7209,17 @@
       <c r="S99" s="7"/>
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B100" s="19">
+      <c r="B100" s="18">
         <v>97</v>
       </c>
-      <c r="C100" s="21">
+      <c r="C100" s="20">
         <v>44001</v>
       </c>
-      <c r="D100" s="29"/>
-      <c r="E100" s="30">
-        <v>0</v>
-      </c>
-      <c r="F100" s="25">
+      <c r="D100" s="27"/>
+      <c r="E100" s="28">
+        <v>0</v>
+      </c>
+      <c r="F100" s="23">
         <v>0</v>
       </c>
       <c r="G100" s="4"/>
@@ -7203,17 +7230,17 @@
       <c r="S100" s="7"/>
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B101" s="18">
+      <c r="B101" s="17">
         <v>98</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="19">
         <v>44002</v>
       </c>
-      <c r="D101" s="27"/>
-      <c r="E101" s="31">
-        <v>0</v>
-      </c>
-      <c r="F101" s="26">
+      <c r="D101" s="25"/>
+      <c r="E101" s="29">
+        <v>0</v>
+      </c>
+      <c r="F101" s="24">
         <v>0</v>
       </c>
       <c r="G101" s="4"/>
@@ -7224,17 +7251,17 @@
       <c r="S101" s="7"/>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B102" s="19">
+      <c r="B102" s="18">
         <v>99</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C102" s="20">
         <v>44003</v>
       </c>
-      <c r="D102" s="29"/>
-      <c r="E102" s="30">
-        <v>0</v>
-      </c>
-      <c r="F102" s="25">
+      <c r="D102" s="27"/>
+      <c r="E102" s="28">
+        <v>0</v>
+      </c>
+      <c r="F102" s="23">
         <v>0</v>
       </c>
       <c r="G102" s="4"/>
@@ -7245,17 +7272,17 @@
       <c r="S102" s="7"/>
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B103" s="18">
+      <c r="B103" s="17">
         <v>100</v>
       </c>
-      <c r="C103" s="20">
+      <c r="C103" s="19">
         <v>44004</v>
       </c>
-      <c r="D103" s="27"/>
-      <c r="E103" s="31">
-        <v>0</v>
-      </c>
-      <c r="F103" s="26">
+      <c r="D103" s="25"/>
+      <c r="E103" s="29">
+        <v>0</v>
+      </c>
+      <c r="F103" s="24">
         <v>0</v>
       </c>
       <c r="G103" s="4"/>
@@ -7266,17 +7293,17 @@
       <c r="S103" s="7"/>
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B104" s="19">
+      <c r="B104" s="18">
         <v>101</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="20">
         <v>44005</v>
       </c>
-      <c r="D104" s="29"/>
-      <c r="E104" s="30">
-        <v>0</v>
-      </c>
-      <c r="F104" s="25">
+      <c r="D104" s="27"/>
+      <c r="E104" s="28">
+        <v>0</v>
+      </c>
+      <c r="F104" s="23">
         <v>0</v>
       </c>
       <c r="G104" s="4"/>
@@ -7287,17 +7314,17 @@
       <c r="S104" s="7"/>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B105" s="18">
+      <c r="B105" s="17">
         <v>102</v>
       </c>
-      <c r="C105" s="20">
+      <c r="C105" s="19">
         <v>44006</v>
       </c>
-      <c r="D105" s="27"/>
-      <c r="E105" s="31">
-        <v>0</v>
-      </c>
-      <c r="F105" s="26">
+      <c r="D105" s="25"/>
+      <c r="E105" s="29">
+        <v>0</v>
+      </c>
+      <c r="F105" s="24">
         <v>0</v>
       </c>
       <c r="G105" s="4"/>
@@ -7308,17 +7335,17 @@
       <c r="S105" s="7"/>
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B106" s="19">
+      <c r="B106" s="18">
         <v>103</v>
       </c>
-      <c r="C106" s="21">
+      <c r="C106" s="20">
         <v>44007</v>
       </c>
-      <c r="D106" s="29"/>
-      <c r="E106" s="30">
-        <v>0</v>
-      </c>
-      <c r="F106" s="25">
+      <c r="D106" s="27"/>
+      <c r="E106" s="28">
+        <v>0</v>
+      </c>
+      <c r="F106" s="23">
         <v>0</v>
       </c>
       <c r="G106" s="4"/>
@@ -7329,17 +7356,17 @@
       <c r="S106" s="7"/>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B107" s="18">
+      <c r="B107" s="17">
         <v>104</v>
       </c>
-      <c r="C107" s="20">
+      <c r="C107" s="19">
         <v>44008</v>
       </c>
-      <c r="D107" s="27"/>
-      <c r="E107" s="31">
-        <v>0</v>
-      </c>
-      <c r="F107" s="26">
+      <c r="D107" s="25"/>
+      <c r="E107" s="29">
+        <v>0</v>
+      </c>
+      <c r="F107" s="24">
         <v>0</v>
       </c>
       <c r="G107" s="4"/>
@@ -7350,17 +7377,17 @@
       <c r="S107" s="7"/>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B108" s="19">
+      <c r="B108" s="18">
         <v>105</v>
       </c>
-      <c r="C108" s="21">
+      <c r="C108" s="20">
         <v>44009</v>
       </c>
-      <c r="D108" s="29"/>
-      <c r="E108" s="30">
-        <v>0</v>
-      </c>
-      <c r="F108" s="25">
+      <c r="D108" s="27"/>
+      <c r="E108" s="28">
+        <v>0</v>
+      </c>
+      <c r="F108" s="23">
         <v>0</v>
       </c>
       <c r="G108" s="4"/>
@@ -7371,17 +7398,17 @@
       <c r="S108" s="7"/>
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B109" s="18">
+      <c r="B109" s="17">
         <v>106</v>
       </c>
-      <c r="C109" s="20">
+      <c r="C109" s="19">
         <v>44010</v>
       </c>
-      <c r="D109" s="27"/>
-      <c r="E109" s="31">
-        <v>0</v>
-      </c>
-      <c r="F109" s="26">
+      <c r="D109" s="25"/>
+      <c r="E109" s="29">
+        <v>0</v>
+      </c>
+      <c r="F109" s="24">
         <v>0</v>
       </c>
       <c r="G109" s="4"/>
@@ -7392,17 +7419,17 @@
       <c r="S109" s="7"/>
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B110" s="19">
+      <c r="B110" s="18">
         <v>107</v>
       </c>
-      <c r="C110" s="21">
+      <c r="C110" s="20">
         <v>44011</v>
       </c>
-      <c r="D110" s="29"/>
-      <c r="E110" s="30">
-        <v>0</v>
-      </c>
-      <c r="F110" s="25">
+      <c r="D110" s="27"/>
+      <c r="E110" s="28">
+        <v>0</v>
+      </c>
+      <c r="F110" s="23">
         <v>0</v>
       </c>
       <c r="G110" s="4"/>
@@ -7413,17 +7440,17 @@
       <c r="S110" s="7"/>
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B111" s="18">
+      <c r="B111" s="17">
         <v>108</v>
       </c>
-      <c r="C111" s="20">
+      <c r="C111" s="19">
         <v>44012</v>
       </c>
-      <c r="D111" s="27"/>
-      <c r="E111" s="31">
-        <v>0</v>
-      </c>
-      <c r="F111" s="26">
+      <c r="D111" s="25"/>
+      <c r="E111" s="29">
+        <v>0</v>
+      </c>
+      <c r="F111" s="24">
         <v>0</v>
       </c>
       <c r="G111" s="4"/>
@@ -7434,17 +7461,17 @@
       <c r="S111" s="7"/>
     </row>
     <row r="112" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B112" s="19">
+      <c r="B112" s="18">
         <v>109</v>
       </c>
-      <c r="C112" s="21">
+      <c r="C112" s="20">
         <v>44013</v>
       </c>
-      <c r="D112" s="29"/>
-      <c r="E112" s="30">
-        <v>0</v>
-      </c>
-      <c r="F112" s="25">
+      <c r="D112" s="27"/>
+      <c r="E112" s="28">
+        <v>0</v>
+      </c>
+      <c r="F112" s="23">
         <v>0</v>
       </c>
       <c r="G112" s="4"/>
@@ -7455,17 +7482,17 @@
       <c r="S112" s="7"/>
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B113" s="18">
+      <c r="B113" s="17">
         <v>110</v>
       </c>
-      <c r="C113" s="20">
+      <c r="C113" s="19">
         <v>44014</v>
       </c>
-      <c r="D113" s="27"/>
-      <c r="E113" s="31">
-        <v>0</v>
-      </c>
-      <c r="F113" s="26">
+      <c r="D113" s="25"/>
+      <c r="E113" s="29">
+        <v>0</v>
+      </c>
+      <c r="F113" s="24">
         <v>0</v>
       </c>
       <c r="G113" s="4"/>
@@ -7476,17 +7503,17 @@
       <c r="S113" s="7"/>
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B114" s="19">
+      <c r="B114" s="18">
         <v>111</v>
       </c>
-      <c r="C114" s="21">
+      <c r="C114" s="20">
         <v>44015</v>
       </c>
-      <c r="D114" s="29"/>
-      <c r="E114" s="30">
-        <v>0</v>
-      </c>
-      <c r="F114" s="25">
+      <c r="D114" s="27"/>
+      <c r="E114" s="28">
+        <v>0</v>
+      </c>
+      <c r="F114" s="23">
         <v>0</v>
       </c>
       <c r="G114" s="4"/>
@@ -7497,17 +7524,17 @@
       <c r="S114" s="7"/>
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B115" s="18">
+      <c r="B115" s="17">
         <v>112</v>
       </c>
-      <c r="C115" s="20">
+      <c r="C115" s="19">
         <v>44016</v>
       </c>
-      <c r="D115" s="27"/>
-      <c r="E115" s="31">
-        <v>0</v>
-      </c>
-      <c r="F115" s="26">
+      <c r="D115" s="25"/>
+      <c r="E115" s="29">
+        <v>0</v>
+      </c>
+      <c r="F115" s="24">
         <v>0</v>
       </c>
       <c r="G115" s="4"/>
@@ -7518,17 +7545,17 @@
       <c r="S115" s="7"/>
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B116" s="19">
+      <c r="B116" s="18">
         <v>113</v>
       </c>
-      <c r="C116" s="21">
+      <c r="C116" s="20">
         <v>44017</v>
       </c>
-      <c r="D116" s="29"/>
-      <c r="E116" s="30">
-        <v>0</v>
-      </c>
-      <c r="F116" s="25">
+      <c r="D116" s="27"/>
+      <c r="E116" s="28">
+        <v>0</v>
+      </c>
+      <c r="F116" s="23">
         <v>0</v>
       </c>
       <c r="G116" s="4"/>
@@ -7539,17 +7566,17 @@
       <c r="S116" s="7"/>
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B117" s="18">
+      <c r="B117" s="17">
         <v>114</v>
       </c>
-      <c r="C117" s="20">
+      <c r="C117" s="19">
         <v>44018</v>
       </c>
-      <c r="D117" s="27"/>
-      <c r="E117" s="31">
-        <v>0</v>
-      </c>
-      <c r="F117" s="26">
+      <c r="D117" s="25"/>
+      <c r="E117" s="29">
+        <v>0</v>
+      </c>
+      <c r="F117" s="24">
         <v>0</v>
       </c>
       <c r="G117" s="4"/>
@@ -7560,17 +7587,17 @@
       <c r="S117" s="7"/>
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B118" s="19">
+      <c r="B118" s="18">
         <v>115</v>
       </c>
-      <c r="C118" s="21">
+      <c r="C118" s="20">
         <v>44019</v>
       </c>
-      <c r="D118" s="29"/>
-      <c r="E118" s="30">
-        <v>0</v>
-      </c>
-      <c r="F118" s="25">
+      <c r="D118" s="27"/>
+      <c r="E118" s="28">
+        <v>0</v>
+      </c>
+      <c r="F118" s="23">
         <v>0</v>
       </c>
       <c r="G118" s="4"/>
@@ -7581,17 +7608,17 @@
       <c r="S118" s="7"/>
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B119" s="18">
+      <c r="B119" s="17">
         <v>116</v>
       </c>
-      <c r="C119" s="20">
+      <c r="C119" s="19">
         <v>44020</v>
       </c>
-      <c r="D119" s="27"/>
-      <c r="E119" s="31">
-        <v>0</v>
-      </c>
-      <c r="F119" s="26">
+      <c r="D119" s="25"/>
+      <c r="E119" s="29">
+        <v>0</v>
+      </c>
+      <c r="F119" s="24">
         <v>0</v>
       </c>
       <c r="G119" s="4"/>
@@ -7602,17 +7629,17 @@
       <c r="S119" s="7"/>
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B120" s="19">
+      <c r="B120" s="18">
         <v>117</v>
       </c>
-      <c r="C120" s="21">
+      <c r="C120" s="20">
         <v>44021</v>
       </c>
-      <c r="D120" s="29"/>
-      <c r="E120" s="30">
-        <v>0</v>
-      </c>
-      <c r="F120" s="25">
+      <c r="D120" s="27"/>
+      <c r="E120" s="28">
+        <v>0</v>
+      </c>
+      <c r="F120" s="23">
         <v>0</v>
       </c>
       <c r="G120" s="4"/>
@@ -7623,17 +7650,17 @@
       <c r="S120" s="7"/>
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B121" s="18">
+      <c r="B121" s="17">
         <v>118</v>
       </c>
-      <c r="C121" s="20">
+      <c r="C121" s="19">
         <v>44022</v>
       </c>
-      <c r="D121" s="27"/>
-      <c r="E121" s="31">
-        <v>0</v>
-      </c>
-      <c r="F121" s="26">
+      <c r="D121" s="25"/>
+      <c r="E121" s="29">
+        <v>0</v>
+      </c>
+      <c r="F121" s="24">
         <v>0</v>
       </c>
       <c r="G121" s="4"/>
@@ -7644,17 +7671,17 @@
       <c r="S121" s="7"/>
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B122" s="19">
+      <c r="B122" s="18">
         <v>119</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C122" s="20">
         <v>44023</v>
       </c>
-      <c r="D122" s="29"/>
-      <c r="E122" s="30">
-        <v>0</v>
-      </c>
-      <c r="F122" s="25">
+      <c r="D122" s="27"/>
+      <c r="E122" s="28">
+        <v>0</v>
+      </c>
+      <c r="F122" s="23">
         <v>0</v>
       </c>
       <c r="G122" s="4"/>
@@ -7665,17 +7692,17 @@
       <c r="S122" s="7"/>
     </row>
     <row r="123" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B123" s="18">
+      <c r="B123" s="17">
         <v>120</v>
       </c>
-      <c r="C123" s="20">
+      <c r="C123" s="19">
         <v>44024</v>
       </c>
-      <c r="D123" s="27"/>
-      <c r="E123" s="31">
-        <v>0</v>
-      </c>
-      <c r="F123" s="26">
+      <c r="D123" s="25"/>
+      <c r="E123" s="29">
+        <v>0</v>
+      </c>
+      <c r="F123" s="24">
         <v>0</v>
       </c>
       <c r="G123" s="4"/>
@@ -7686,17 +7713,17 @@
       <c r="S123" s="7"/>
     </row>
     <row r="124" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B124" s="19">
+      <c r="B124" s="18">
         <v>121</v>
       </c>
-      <c r="C124" s="21">
+      <c r="C124" s="20">
         <v>44025</v>
       </c>
-      <c r="D124" s="29"/>
-      <c r="E124" s="30">
-        <v>0</v>
-      </c>
-      <c r="F124" s="25">
+      <c r="D124" s="27"/>
+      <c r="E124" s="28">
+        <v>0</v>
+      </c>
+      <c r="F124" s="23">
         <v>0</v>
       </c>
       <c r="G124" s="4"/>
@@ -7707,17 +7734,17 @@
       <c r="S124" s="7"/>
     </row>
     <row r="125" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B125" s="18">
+      <c r="B125" s="17">
         <v>122</v>
       </c>
-      <c r="C125" s="20">
+      <c r="C125" s="19">
         <v>44026</v>
       </c>
-      <c r="D125" s="27"/>
-      <c r="E125" s="31">
-        <v>0</v>
-      </c>
-      <c r="F125" s="26">
+      <c r="D125" s="25"/>
+      <c r="E125" s="29">
+        <v>0</v>
+      </c>
+      <c r="F125" s="24">
         <v>0</v>
       </c>
       <c r="G125" s="4"/>
@@ -7728,17 +7755,17 @@
       <c r="S125" s="7"/>
     </row>
     <row r="126" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B126" s="19">
+      <c r="B126" s="18">
         <v>123</v>
       </c>
-      <c r="C126" s="21">
+      <c r="C126" s="20">
         <v>44027</v>
       </c>
-      <c r="D126" s="29"/>
-      <c r="E126" s="30">
-        <v>0</v>
-      </c>
-      <c r="F126" s="25">
+      <c r="D126" s="27"/>
+      <c r="E126" s="28">
+        <v>0</v>
+      </c>
+      <c r="F126" s="23">
         <v>0</v>
       </c>
       <c r="G126" s="4"/>
@@ -7749,17 +7776,17 @@
       <c r="S126" s="7"/>
     </row>
     <row r="127" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B127" s="18">
+      <c r="B127" s="17">
         <v>124</v>
       </c>
-      <c r="C127" s="20">
+      <c r="C127" s="19">
         <v>44028</v>
       </c>
-      <c r="D127" s="27"/>
-      <c r="E127" s="31">
-        <v>0</v>
-      </c>
-      <c r="F127" s="26">
+      <c r="D127" s="25"/>
+      <c r="E127" s="29">
+        <v>0</v>
+      </c>
+      <c r="F127" s="24">
         <v>0</v>
       </c>
       <c r="G127" s="4"/>
@@ -7770,17 +7797,17 @@
       <c r="S127" s="7"/>
     </row>
     <row r="128" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B128" s="19">
+      <c r="B128" s="18">
         <v>125</v>
       </c>
-      <c r="C128" s="21">
+      <c r="C128" s="20">
         <v>44029</v>
       </c>
-      <c r="D128" s="29"/>
-      <c r="E128" s="30">
-        <v>0</v>
-      </c>
-      <c r="F128" s="25">
+      <c r="D128" s="27"/>
+      <c r="E128" s="28">
+        <v>0</v>
+      </c>
+      <c r="F128" s="23">
         <v>0</v>
       </c>
       <c r="G128" s="4"/>
@@ -7791,17 +7818,17 @@
       <c r="S128" s="7"/>
     </row>
     <row r="129" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B129" s="18">
+      <c r="B129" s="17">
         <v>126</v>
       </c>
-      <c r="C129" s="20">
+      <c r="C129" s="19">
         <v>44030</v>
       </c>
-      <c r="D129" s="27"/>
-      <c r="E129" s="31">
-        <v>0</v>
-      </c>
-      <c r="F129" s="26">
+      <c r="D129" s="25"/>
+      <c r="E129" s="29">
+        <v>0</v>
+      </c>
+      <c r="F129" s="24">
         <v>0</v>
       </c>
       <c r="G129" s="4"/>
@@ -7812,17 +7839,17 @@
       <c r="S129" s="7"/>
     </row>
     <row r="130" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B130" s="19">
+      <c r="B130" s="18">
         <v>127</v>
       </c>
-      <c r="C130" s="21">
+      <c r="C130" s="20">
         <v>44031</v>
       </c>
-      <c r="D130" s="29"/>
-      <c r="E130" s="30">
-        <v>0</v>
-      </c>
-      <c r="F130" s="25">
+      <c r="D130" s="27"/>
+      <c r="E130" s="28">
+        <v>0</v>
+      </c>
+      <c r="F130" s="23">
         <v>0</v>
       </c>
       <c r="G130" s="4"/>
@@ -7833,17 +7860,17 @@
       <c r="S130" s="7"/>
     </row>
     <row r="131" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B131" s="18">
+      <c r="B131" s="17">
         <v>128</v>
       </c>
-      <c r="C131" s="20">
+      <c r="C131" s="19">
         <v>44032</v>
       </c>
-      <c r="D131" s="27"/>
-      <c r="E131" s="31">
-        <v>0</v>
-      </c>
-      <c r="F131" s="26">
+      <c r="D131" s="25"/>
+      <c r="E131" s="29">
+        <v>0</v>
+      </c>
+      <c r="F131" s="24">
         <v>0</v>
       </c>
       <c r="G131" s="4"/>
@@ -7854,17 +7881,17 @@
       <c r="S131" s="7"/>
     </row>
     <row r="132" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B132" s="19">
+      <c r="B132" s="18">
         <v>129</v>
       </c>
-      <c r="C132" s="21">
+      <c r="C132" s="20">
         <v>44033</v>
       </c>
-      <c r="D132" s="29"/>
-      <c r="E132" s="30">
-        <v>0</v>
-      </c>
-      <c r="F132" s="25">
+      <c r="D132" s="27"/>
+      <c r="E132" s="28">
+        <v>0</v>
+      </c>
+      <c r="F132" s="23">
         <v>0</v>
       </c>
       <c r="G132" s="4"/>
@@ -7875,17 +7902,17 @@
       <c r="S132" s="7"/>
     </row>
     <row r="133" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B133" s="18">
+      <c r="B133" s="17">
         <v>130</v>
       </c>
-      <c r="C133" s="20">
+      <c r="C133" s="19">
         <v>44034</v>
       </c>
-      <c r="D133" s="27"/>
-      <c r="E133" s="31">
-        <v>0</v>
-      </c>
-      <c r="F133" s="26">
+      <c r="D133" s="25"/>
+      <c r="E133" s="29">
+        <v>0</v>
+      </c>
+      <c r="F133" s="24">
         <v>0</v>
       </c>
       <c r="G133" s="4"/>
@@ -7896,17 +7923,17 @@
       <c r="S133" s="7"/>
     </row>
     <row r="134" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B134" s="19">
+      <c r="B134" s="18">
         <v>131</v>
       </c>
-      <c r="C134" s="21">
+      <c r="C134" s="20">
         <v>44035</v>
       </c>
-      <c r="D134" s="29"/>
-      <c r="E134" s="30">
-        <v>0</v>
-      </c>
-      <c r="F134" s="25">
+      <c r="D134" s="27"/>
+      <c r="E134" s="28">
+        <v>0</v>
+      </c>
+      <c r="F134" s="23">
         <v>0</v>
       </c>
       <c r="G134" s="4"/>
@@ -7917,17 +7944,17 @@
       <c r="S134" s="7"/>
     </row>
     <row r="135" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B135" s="18">
+      <c r="B135" s="17">
         <v>132</v>
       </c>
-      <c r="C135" s="20">
+      <c r="C135" s="19">
         <v>44036</v>
       </c>
-      <c r="D135" s="27"/>
-      <c r="E135" s="31">
-        <v>0</v>
-      </c>
-      <c r="F135" s="26">
+      <c r="D135" s="25"/>
+      <c r="E135" s="29">
+        <v>0</v>
+      </c>
+      <c r="F135" s="24">
         <v>0</v>
       </c>
       <c r="G135" s="4"/>
@@ -7938,17 +7965,17 @@
       <c r="S135" s="7"/>
     </row>
     <row r="136" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B136" s="19">
+      <c r="B136" s="18">
         <v>133</v>
       </c>
-      <c r="C136" s="21">
+      <c r="C136" s="20">
         <v>44037</v>
       </c>
-      <c r="D136" s="29"/>
-      <c r="E136" s="30">
-        <v>0</v>
-      </c>
-      <c r="F136" s="25">
+      <c r="D136" s="27"/>
+      <c r="E136" s="28">
+        <v>0</v>
+      </c>
+      <c r="F136" s="23">
         <v>0</v>
       </c>
       <c r="G136" s="4"/>
@@ -7959,17 +7986,17 @@
       <c r="S136" s="7"/>
     </row>
     <row r="137" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B137" s="18">
+      <c r="B137" s="17">
         <v>134</v>
       </c>
-      <c r="C137" s="20">
+      <c r="C137" s="19">
         <v>44038</v>
       </c>
-      <c r="D137" s="27"/>
-      <c r="E137" s="31">
-        <v>0</v>
-      </c>
-      <c r="F137" s="26">
+      <c r="D137" s="25"/>
+      <c r="E137" s="29">
+        <v>0</v>
+      </c>
+      <c r="F137" s="24">
         <v>0</v>
       </c>
       <c r="G137" s="4"/>
@@ -7980,17 +8007,17 @@
       <c r="S137" s="7"/>
     </row>
     <row r="138" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B138" s="19">
+      <c r="B138" s="18">
         <v>135</v>
       </c>
-      <c r="C138" s="21">
+      <c r="C138" s="20">
         <v>44039</v>
       </c>
-      <c r="D138" s="29"/>
-      <c r="E138" s="30">
-        <v>0</v>
-      </c>
-      <c r="F138" s="25">
+      <c r="D138" s="27"/>
+      <c r="E138" s="28">
+        <v>0</v>
+      </c>
+      <c r="F138" s="23">
         <v>0</v>
       </c>
       <c r="G138" s="4"/>
@@ -8001,17 +8028,17 @@
       <c r="S138" s="7"/>
     </row>
     <row r="139" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B139" s="18">
+      <c r="B139" s="17">
         <v>136</v>
       </c>
-      <c r="C139" s="20">
+      <c r="C139" s="19">
         <v>44040</v>
       </c>
-      <c r="D139" s="27"/>
-      <c r="E139" s="31">
-        <v>0</v>
-      </c>
-      <c r="F139" s="26">
+      <c r="D139" s="25"/>
+      <c r="E139" s="29">
+        <v>0</v>
+      </c>
+      <c r="F139" s="24">
         <v>0</v>
       </c>
       <c r="G139" s="4"/>
@@ -8022,17 +8049,17 @@
       <c r="S139" s="7"/>
     </row>
     <row r="140" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B140" s="19">
+      <c r="B140" s="18">
         <v>137</v>
       </c>
-      <c r="C140" s="21">
+      <c r="C140" s="20">
         <v>44041</v>
       </c>
-      <c r="D140" s="29"/>
-      <c r="E140" s="30">
-        <v>0</v>
-      </c>
-      <c r="F140" s="25">
+      <c r="D140" s="27"/>
+      <c r="E140" s="28">
+        <v>0</v>
+      </c>
+      <c r="F140" s="23">
         <v>0</v>
       </c>
       <c r="G140" s="4"/>
@@ -8043,17 +8070,17 @@
       <c r="S140" s="7"/>
     </row>
     <row r="141" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B141" s="18">
+      <c r="B141" s="17">
         <v>138</v>
       </c>
-      <c r="C141" s="20">
+      <c r="C141" s="19">
         <v>44042</v>
       </c>
-      <c r="D141" s="27"/>
-      <c r="E141" s="31">
-        <v>0</v>
-      </c>
-      <c r="F141" s="26">
+      <c r="D141" s="25"/>
+      <c r="E141" s="29">
+        <v>0</v>
+      </c>
+      <c r="F141" s="24">
         <v>0</v>
       </c>
       <c r="G141" s="4"/>
@@ -8064,17 +8091,17 @@
       <c r="S141" s="7"/>
     </row>
     <row r="142" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B142" s="19">
+      <c r="B142" s="18">
         <v>139</v>
       </c>
-      <c r="C142" s="21">
+      <c r="C142" s="20">
         <v>44043</v>
       </c>
-      <c r="D142" s="29"/>
-      <c r="E142" s="30">
-        <v>0</v>
-      </c>
-      <c r="F142" s="25">
+      <c r="D142" s="27"/>
+      <c r="E142" s="28">
+        <v>0</v>
+      </c>
+      <c r="F142" s="23">
         <v>0</v>
       </c>
       <c r="G142" s="4"/>
@@ -8085,17 +8112,17 @@
       <c r="S142" s="7"/>
     </row>
     <row r="143" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B143" s="18">
+      <c r="B143" s="17">
         <v>140</v>
       </c>
-      <c r="C143" s="20">
+      <c r="C143" s="19">
         <v>44044</v>
       </c>
-      <c r="D143" s="27"/>
-      <c r="E143" s="31">
-        <v>0</v>
-      </c>
-      <c r="F143" s="26">
+      <c r="D143" s="25"/>
+      <c r="E143" s="29">
+        <v>0</v>
+      </c>
+      <c r="F143" s="24">
         <v>0</v>
       </c>
       <c r="G143" s="4"/>
@@ -8106,17 +8133,17 @@
       <c r="S143" s="7"/>
     </row>
     <row r="144" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B144" s="19">
+      <c r="B144" s="18">
         <v>141</v>
       </c>
-      <c r="C144" s="21">
+      <c r="C144" s="20">
         <v>44045</v>
       </c>
-      <c r="D144" s="29"/>
-      <c r="E144" s="30">
-        <v>0</v>
-      </c>
-      <c r="F144" s="25">
+      <c r="D144" s="27"/>
+      <c r="E144" s="28">
+        <v>0</v>
+      </c>
+      <c r="F144" s="23">
         <v>0</v>
       </c>
       <c r="G144" s="4"/>
@@ -8127,17 +8154,17 @@
       <c r="S144" s="7"/>
     </row>
     <row r="145" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B145" s="18">
+      <c r="B145" s="17">
         <v>142</v>
       </c>
-      <c r="C145" s="20">
+      <c r="C145" s="19">
         <v>44046</v>
       </c>
-      <c r="D145" s="27"/>
-      <c r="E145" s="31">
-        <v>0</v>
-      </c>
-      <c r="F145" s="26">
+      <c r="D145" s="25"/>
+      <c r="E145" s="29">
+        <v>0</v>
+      </c>
+      <c r="F145" s="24">
         <v>0</v>
       </c>
       <c r="G145" s="4"/>
@@ -8148,17 +8175,17 @@
       <c r="S145" s="7"/>
     </row>
     <row r="146" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B146" s="19">
+      <c r="B146" s="18">
         <v>143</v>
       </c>
-      <c r="C146" s="21">
+      <c r="C146" s="20">
         <v>44047</v>
       </c>
-      <c r="D146" s="29"/>
-      <c r="E146" s="30">
-        <v>0</v>
-      </c>
-      <c r="F146" s="25">
+      <c r="D146" s="27"/>
+      <c r="E146" s="28">
+        <v>0</v>
+      </c>
+      <c r="F146" s="23">
         <v>0</v>
       </c>
       <c r="G146" s="4"/>
@@ -8169,17 +8196,17 @@
       <c r="S146" s="7"/>
     </row>
     <row r="147" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B147" s="18">
+      <c r="B147" s="17">
         <v>144</v>
       </c>
-      <c r="C147" s="20">
+      <c r="C147" s="19">
         <v>44048</v>
       </c>
-      <c r="D147" s="27"/>
-      <c r="E147" s="31">
-        <v>0</v>
-      </c>
-      <c r="F147" s="26">
+      <c r="D147" s="25"/>
+      <c r="E147" s="29">
+        <v>0</v>
+      </c>
+      <c r="F147" s="24">
         <v>0</v>
       </c>
       <c r="G147" s="4"/>
@@ -8190,17 +8217,17 @@
       <c r="S147" s="7"/>
     </row>
     <row r="148" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B148" s="19">
+      <c r="B148" s="18">
         <v>145</v>
       </c>
-      <c r="C148" s="21">
+      <c r="C148" s="20">
         <v>44049</v>
       </c>
-      <c r="D148" s="29"/>
-      <c r="E148" s="30">
-        <v>0</v>
-      </c>
-      <c r="F148" s="25">
+      <c r="D148" s="27"/>
+      <c r="E148" s="28">
+        <v>0</v>
+      </c>
+      <c r="F148" s="23">
         <v>0</v>
       </c>
       <c r="G148" s="4"/>
@@ -8211,17 +8238,17 @@
       <c r="S148" s="7"/>
     </row>
     <row r="149" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B149" s="18">
+      <c r="B149" s="17">
         <v>146</v>
       </c>
-      <c r="C149" s="20">
+      <c r="C149" s="19">
         <v>44050</v>
       </c>
-      <c r="D149" s="27"/>
-      <c r="E149" s="31">
-        <v>0</v>
-      </c>
-      <c r="F149" s="26">
+      <c r="D149" s="25"/>
+      <c r="E149" s="29">
+        <v>0</v>
+      </c>
+      <c r="F149" s="24">
         <v>0</v>
       </c>
       <c r="G149" s="4"/>
@@ -8232,17 +8259,17 @@
       <c r="S149" s="7"/>
     </row>
     <row r="150" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B150" s="19">
+      <c r="B150" s="18">
         <v>147</v>
       </c>
-      <c r="C150" s="21">
+      <c r="C150" s="20">
         <v>44051</v>
       </c>
-      <c r="D150" s="29"/>
-      <c r="E150" s="30">
-        <v>0</v>
-      </c>
-      <c r="F150" s="25">
+      <c r="D150" s="27"/>
+      <c r="E150" s="28">
+        <v>0</v>
+      </c>
+      <c r="F150" s="23">
         <v>0</v>
       </c>
       <c r="G150" s="4"/>
@@ -8253,17 +8280,17 @@
       <c r="S150" s="7"/>
     </row>
     <row r="151" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B151" s="18">
+      <c r="B151" s="17">
         <v>148</v>
       </c>
-      <c r="C151" s="20">
+      <c r="C151" s="19">
         <v>44052</v>
       </c>
-      <c r="D151" s="27"/>
-      <c r="E151" s="31">
-        <v>0</v>
-      </c>
-      <c r="F151" s="26">
+      <c r="D151" s="25"/>
+      <c r="E151" s="29">
+        <v>0</v>
+      </c>
+      <c r="F151" s="24">
         <v>0</v>
       </c>
       <c r="G151" s="4"/>
@@ -8274,17 +8301,17 @@
       <c r="S151" s="7"/>
     </row>
     <row r="152" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B152" s="19">
+      <c r="B152" s="18">
         <v>149</v>
       </c>
-      <c r="C152" s="21">
+      <c r="C152" s="20">
         <v>44053</v>
       </c>
-      <c r="D152" s="29"/>
-      <c r="E152" s="30">
-        <v>0</v>
-      </c>
-      <c r="F152" s="25">
+      <c r="D152" s="27"/>
+      <c r="E152" s="28">
+        <v>0</v>
+      </c>
+      <c r="F152" s="23">
         <v>0</v>
       </c>
       <c r="G152" s="4"/>
@@ -8295,17 +8322,17 @@
       <c r="S152" s="7"/>
     </row>
     <row r="153" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B153" s="18">
+      <c r="B153" s="17">
         <v>150</v>
       </c>
-      <c r="C153" s="20">
+      <c r="C153" s="19">
         <v>44054</v>
       </c>
-      <c r="D153" s="27"/>
-      <c r="E153" s="31">
-        <v>0</v>
-      </c>
-      <c r="F153" s="26">
+      <c r="D153" s="25"/>
+      <c r="E153" s="29">
+        <v>0</v>
+      </c>
+      <c r="F153" s="24">
         <v>0</v>
       </c>
       <c r="G153" s="4"/>
@@ -8316,17 +8343,17 @@
       <c r="S153" s="7"/>
     </row>
     <row r="154" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B154" s="19">
+      <c r="B154" s="18">
         <v>151</v>
       </c>
-      <c r="C154" s="21">
+      <c r="C154" s="20">
         <v>44055</v>
       </c>
-      <c r="D154" s="29"/>
-      <c r="E154" s="30">
-        <v>0</v>
-      </c>
-      <c r="F154" s="25">
+      <c r="D154" s="27"/>
+      <c r="E154" s="28">
+        <v>0</v>
+      </c>
+      <c r="F154" s="23">
         <v>0</v>
       </c>
       <c r="G154" s="4"/>
@@ -8337,17 +8364,17 @@
       <c r="S154" s="7"/>
     </row>
     <row r="155" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B155" s="18">
+      <c r="B155" s="17">
         <v>152</v>
       </c>
-      <c r="C155" s="20">
+      <c r="C155" s="19">
         <v>44056</v>
       </c>
-      <c r="D155" s="27"/>
-      <c r="E155" s="31">
-        <v>0</v>
-      </c>
-      <c r="F155" s="26">
+      <c r="D155" s="25"/>
+      <c r="E155" s="29">
+        <v>0</v>
+      </c>
+      <c r="F155" s="24">
         <v>0</v>
       </c>
       <c r="G155" s="4"/>
@@ -8358,17 +8385,17 @@
       <c r="S155" s="7"/>
     </row>
     <row r="156" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B156" s="19">
+      <c r="B156" s="18">
         <v>153</v>
       </c>
-      <c r="C156" s="21">
+      <c r="C156" s="20">
         <v>44057</v>
       </c>
-      <c r="D156" s="29"/>
-      <c r="E156" s="30">
-        <v>0</v>
-      </c>
-      <c r="F156" s="25">
+      <c r="D156" s="27"/>
+      <c r="E156" s="28">
+        <v>0</v>
+      </c>
+      <c r="F156" s="23">
         <v>0</v>
       </c>
       <c r="G156" s="4"/>
@@ -8379,17 +8406,17 @@
       <c r="S156" s="7"/>
     </row>
     <row r="157" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B157" s="18">
+      <c r="B157" s="17">
         <v>154</v>
       </c>
-      <c r="C157" s="20">
+      <c r="C157" s="19">
         <v>44058</v>
       </c>
-      <c r="D157" s="27"/>
-      <c r="E157" s="31">
-        <v>0</v>
-      </c>
-      <c r="F157" s="26">
+      <c r="D157" s="25"/>
+      <c r="E157" s="29">
+        <v>0</v>
+      </c>
+      <c r="F157" s="24">
         <v>0</v>
       </c>
       <c r="G157" s="4"/>
@@ -8400,17 +8427,17 @@
       <c r="S157" s="7"/>
     </row>
     <row r="158" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B158" s="19">
+      <c r="B158" s="18">
         <v>155</v>
       </c>
-      <c r="C158" s="21">
+      <c r="C158" s="20">
         <v>44059</v>
       </c>
-      <c r="D158" s="29"/>
-      <c r="E158" s="30">
-        <v>0</v>
-      </c>
-      <c r="F158" s="25">
+      <c r="D158" s="27"/>
+      <c r="E158" s="28">
+        <v>0</v>
+      </c>
+      <c r="F158" s="23">
         <v>0</v>
       </c>
       <c r="G158" s="4"/>
@@ -8421,17 +8448,17 @@
       <c r="S158" s="7"/>
     </row>
     <row r="159" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B159" s="18">
+      <c r="B159" s="17">
         <v>156</v>
       </c>
-      <c r="C159" s="20">
+      <c r="C159" s="19">
         <v>44060</v>
       </c>
-      <c r="D159" s="27"/>
-      <c r="E159" s="31">
-        <v>0</v>
-      </c>
-      <c r="F159" s="26">
+      <c r="D159" s="25"/>
+      <c r="E159" s="29">
+        <v>0</v>
+      </c>
+      <c r="F159" s="24">
         <v>0</v>
       </c>
       <c r="G159" s="4"/>
@@ -8442,17 +8469,17 @@
       <c r="S159" s="7"/>
     </row>
     <row r="160" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B160" s="19">
+      <c r="B160" s="18">
         <v>157</v>
       </c>
-      <c r="C160" s="21">
+      <c r="C160" s="20">
         <v>44061</v>
       </c>
-      <c r="D160" s="29"/>
-      <c r="E160" s="30">
-        <v>0</v>
-      </c>
-      <c r="F160" s="25">
+      <c r="D160" s="27"/>
+      <c r="E160" s="28">
+        <v>0</v>
+      </c>
+      <c r="F160" s="23">
         <v>0</v>
       </c>
       <c r="G160" s="4"/>
@@ -8463,17 +8490,17 @@
       <c r="S160" s="7"/>
     </row>
     <row r="161" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B161" s="18">
+      <c r="B161" s="17">
         <v>158</v>
       </c>
-      <c r="C161" s="20">
+      <c r="C161" s="19">
         <v>44062</v>
       </c>
-      <c r="D161" s="27"/>
-      <c r="E161" s="31">
-        <v>0</v>
-      </c>
-      <c r="F161" s="26">
+      <c r="D161" s="25"/>
+      <c r="E161" s="29">
+        <v>0</v>
+      </c>
+      <c r="F161" s="24">
         <v>0</v>
       </c>
       <c r="G161" s="4"/>
@@ -8484,17 +8511,17 @@
       <c r="S161" s="7"/>
     </row>
     <row r="162" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B162" s="19">
+      <c r="B162" s="18">
         <v>159</v>
       </c>
-      <c r="C162" s="21">
+      <c r="C162" s="20">
         <v>44063</v>
       </c>
-      <c r="D162" s="29"/>
-      <c r="E162" s="30">
-        <v>0</v>
-      </c>
-      <c r="F162" s="25">
+      <c r="D162" s="27"/>
+      <c r="E162" s="28">
+        <v>0</v>
+      </c>
+      <c r="F162" s="23">
         <v>0</v>
       </c>
       <c r="G162" s="4"/>
@@ -8505,17 +8532,17 @@
       <c r="S162" s="7"/>
     </row>
     <row r="163" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B163" s="18">
+      <c r="B163" s="17">
         <v>160</v>
       </c>
-      <c r="C163" s="20">
+      <c r="C163" s="19">
         <v>44064</v>
       </c>
-      <c r="D163" s="27"/>
-      <c r="E163" s="31">
-        <v>0</v>
-      </c>
-      <c r="F163" s="26">
+      <c r="D163" s="25"/>
+      <c r="E163" s="29">
+        <v>0</v>
+      </c>
+      <c r="F163" s="24">
         <v>0</v>
       </c>
       <c r="G163" s="4"/>
@@ -8526,17 +8553,17 @@
       <c r="S163" s="7"/>
     </row>
     <row r="164" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B164" s="19">
+      <c r="B164" s="18">
         <v>161</v>
       </c>
-      <c r="C164" s="21">
+      <c r="C164" s="20">
         <v>44065</v>
       </c>
-      <c r="D164" s="29"/>
-      <c r="E164" s="30">
-        <v>0</v>
-      </c>
-      <c r="F164" s="25">
+      <c r="D164" s="27"/>
+      <c r="E164" s="28">
+        <v>0</v>
+      </c>
+      <c r="F164" s="23">
         <v>0</v>
       </c>
       <c r="G164" s="4"/>
@@ -8547,17 +8574,17 @@
       <c r="S164" s="7"/>
     </row>
     <row r="165" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B165" s="18">
+      <c r="B165" s="17">
         <v>162</v>
       </c>
-      <c r="C165" s="20">
+      <c r="C165" s="19">
         <v>44066</v>
       </c>
-      <c r="D165" s="27"/>
-      <c r="E165" s="31">
-        <v>0</v>
-      </c>
-      <c r="F165" s="26">
+      <c r="D165" s="25"/>
+      <c r="E165" s="29">
+        <v>0</v>
+      </c>
+      <c r="F165" s="24">
         <v>0</v>
       </c>
       <c r="G165" s="4"/>
@@ -8568,17 +8595,17 @@
       <c r="S165" s="7"/>
     </row>
     <row r="166" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B166" s="19">
+      <c r="B166" s="18">
         <v>163</v>
       </c>
-      <c r="C166" s="21">
+      <c r="C166" s="20">
         <v>44067</v>
       </c>
-      <c r="D166" s="29"/>
-      <c r="E166" s="30">
-        <v>0</v>
-      </c>
-      <c r="F166" s="25">
+      <c r="D166" s="27"/>
+      <c r="E166" s="28">
+        <v>0</v>
+      </c>
+      <c r="F166" s="23">
         <v>0</v>
       </c>
       <c r="G166" s="4"/>
@@ -8589,17 +8616,17 @@
       <c r="S166" s="7"/>
     </row>
     <row r="167" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B167" s="18">
+      <c r="B167" s="17">
         <v>164</v>
       </c>
-      <c r="C167" s="20">
+      <c r="C167" s="19">
         <v>44068</v>
       </c>
-      <c r="D167" s="27"/>
-      <c r="E167" s="31">
-        <v>0</v>
-      </c>
-      <c r="F167" s="26">
+      <c r="D167" s="25"/>
+      <c r="E167" s="29">
+        <v>0</v>
+      </c>
+      <c r="F167" s="24">
         <v>0</v>
       </c>
       <c r="G167" s="4"/>
@@ -8610,17 +8637,17 @@
       <c r="S167" s="7"/>
     </row>
     <row r="168" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B168" s="19">
+      <c r="B168" s="18">
         <v>165</v>
       </c>
-      <c r="C168" s="21">
+      <c r="C168" s="20">
         <v>44069</v>
       </c>
-      <c r="D168" s="29"/>
-      <c r="E168" s="30">
-        <v>0</v>
-      </c>
-      <c r="F168" s="25">
+      <c r="D168" s="27"/>
+      <c r="E168" s="28">
+        <v>0</v>
+      </c>
+      <c r="F168" s="23">
         <v>0</v>
       </c>
       <c r="G168" s="4"/>
@@ -8631,17 +8658,17 @@
       <c r="S168" s="7"/>
     </row>
     <row r="169" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B169" s="18">
+      <c r="B169" s="17">
         <v>166</v>
       </c>
-      <c r="C169" s="20">
+      <c r="C169" s="19">
         <v>44070</v>
       </c>
-      <c r="D169" s="27"/>
-      <c r="E169" s="31">
-        <v>0</v>
-      </c>
-      <c r="F169" s="26">
+      <c r="D169" s="25"/>
+      <c r="E169" s="29">
+        <v>0</v>
+      </c>
+      <c r="F169" s="24">
         <v>0</v>
       </c>
       <c r="G169" s="4"/>
@@ -8652,17 +8679,17 @@
       <c r="S169" s="7"/>
     </row>
     <row r="170" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B170" s="19">
+      <c r="B170" s="18">
         <v>167</v>
       </c>
-      <c r="C170" s="21">
+      <c r="C170" s="20">
         <v>44071</v>
       </c>
-      <c r="D170" s="29"/>
-      <c r="E170" s="30">
-        <v>0</v>
-      </c>
-      <c r="F170" s="25">
+      <c r="D170" s="27"/>
+      <c r="E170" s="28">
+        <v>0</v>
+      </c>
+      <c r="F170" s="23">
         <v>0</v>
       </c>
       <c r="G170" s="4"/>
@@ -8673,17 +8700,17 @@
       <c r="S170" s="7"/>
     </row>
     <row r="171" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B171" s="18">
+      <c r="B171" s="17">
         <v>168</v>
       </c>
-      <c r="C171" s="20">
+      <c r="C171" s="19">
         <v>44072</v>
       </c>
-      <c r="D171" s="27"/>
-      <c r="E171" s="31">
-        <v>0</v>
-      </c>
-      <c r="F171" s="26">
+      <c r="D171" s="25"/>
+      <c r="E171" s="29">
+        <v>0</v>
+      </c>
+      <c r="F171" s="24">
         <v>0</v>
       </c>
       <c r="G171" s="4"/>
@@ -8694,17 +8721,17 @@
       <c r="S171" s="7"/>
     </row>
     <row r="172" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B172" s="19">
+      <c r="B172" s="18">
         <v>169</v>
       </c>
-      <c r="C172" s="21">
+      <c r="C172" s="20">
         <v>44073</v>
       </c>
-      <c r="D172" s="29"/>
-      <c r="E172" s="30">
-        <v>0</v>
-      </c>
-      <c r="F172" s="25">
+      <c r="D172" s="27"/>
+      <c r="E172" s="28">
+        <v>0</v>
+      </c>
+      <c r="F172" s="23">
         <v>0</v>
       </c>
       <c r="G172" s="4"/>
@@ -8715,17 +8742,17 @@
       <c r="S172" s="7"/>
     </row>
     <row r="173" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B173" s="18">
+      <c r="B173" s="17">
         <v>170</v>
       </c>
-      <c r="C173" s="20">
+      <c r="C173" s="19">
         <v>44074</v>
       </c>
-      <c r="D173" s="27"/>
-      <c r="E173" s="31">
-        <v>0</v>
-      </c>
-      <c r="F173" s="26">
+      <c r="D173" s="25"/>
+      <c r="E173" s="29">
+        <v>0</v>
+      </c>
+      <c r="F173" s="24">
         <v>0</v>
       </c>
       <c r="G173" s="4"/>
@@ -8736,17 +8763,17 @@
       <c r="S173" s="7"/>
     </row>
     <row r="174" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B174" s="19">
+      <c r="B174" s="18">
         <v>171</v>
       </c>
-      <c r="C174" s="21">
+      <c r="C174" s="20">
         <v>44075</v>
       </c>
-      <c r="D174" s="29"/>
-      <c r="E174" s="30">
-        <v>0</v>
-      </c>
-      <c r="F174" s="25">
+      <c r="D174" s="27"/>
+      <c r="E174" s="28">
+        <v>0</v>
+      </c>
+      <c r="F174" s="23">
         <v>0</v>
       </c>
       <c r="G174" s="4"/>
@@ -8757,17 +8784,17 @@
       <c r="S174" s="7"/>
     </row>
     <row r="175" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B175" s="18">
+      <c r="B175" s="17">
         <v>172</v>
       </c>
-      <c r="C175" s="20">
+      <c r="C175" s="19">
         <v>44076</v>
       </c>
-      <c r="D175" s="27"/>
-      <c r="E175" s="31">
-        <v>0</v>
-      </c>
-      <c r="F175" s="26">
+      <c r="D175" s="25"/>
+      <c r="E175" s="29">
+        <v>0</v>
+      </c>
+      <c r="F175" s="24">
         <v>0</v>
       </c>
       <c r="G175" s="4"/>
@@ -8778,17 +8805,17 @@
       <c r="S175" s="7"/>
     </row>
     <row r="176" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B176" s="19">
+      <c r="B176" s="18">
         <v>173</v>
       </c>
-      <c r="C176" s="21">
+      <c r="C176" s="20">
         <v>44077</v>
       </c>
-      <c r="D176" s="29"/>
-      <c r="E176" s="30">
-        <v>0</v>
-      </c>
-      <c r="F176" s="25">
+      <c r="D176" s="27"/>
+      <c r="E176" s="28">
+        <v>0</v>
+      </c>
+      <c r="F176" s="23">
         <v>0</v>
       </c>
       <c r="G176" s="4"/>
@@ -8799,17 +8826,17 @@
       <c r="S176" s="7"/>
     </row>
     <row r="177" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B177" s="18">
+      <c r="B177" s="17">
         <v>174</v>
       </c>
-      <c r="C177" s="20">
+      <c r="C177" s="19">
         <v>44078</v>
       </c>
-      <c r="D177" s="27"/>
-      <c r="E177" s="31">
-        <v>0</v>
-      </c>
-      <c r="F177" s="26">
+      <c r="D177" s="25"/>
+      <c r="E177" s="29">
+        <v>0</v>
+      </c>
+      <c r="F177" s="24">
         <v>0</v>
       </c>
       <c r="G177" s="4"/>
@@ -8820,17 +8847,17 @@
       <c r="S177" s="7"/>
     </row>
     <row r="178" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B178" s="19">
+      <c r="B178" s="18">
         <v>175</v>
       </c>
-      <c r="C178" s="21">
+      <c r="C178" s="20">
         <v>44079</v>
       </c>
-      <c r="D178" s="29"/>
-      <c r="E178" s="30">
-        <v>0</v>
-      </c>
-      <c r="F178" s="25">
+      <c r="D178" s="27"/>
+      <c r="E178" s="28">
+        <v>0</v>
+      </c>
+      <c r="F178" s="23">
         <v>0</v>
       </c>
       <c r="G178" s="4"/>
@@ -8841,17 +8868,17 @@
       <c r="S178" s="7"/>
     </row>
     <row r="179" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B179" s="18">
+      <c r="B179" s="17">
         <v>176</v>
       </c>
-      <c r="C179" s="20">
+      <c r="C179" s="19">
         <v>44080</v>
       </c>
-      <c r="D179" s="27"/>
-      <c r="E179" s="31">
-        <v>0</v>
-      </c>
-      <c r="F179" s="26">
+      <c r="D179" s="25"/>
+      <c r="E179" s="29">
+        <v>0</v>
+      </c>
+      <c r="F179" s="24">
         <v>0</v>
       </c>
       <c r="G179" s="4"/>
@@ -8862,17 +8889,17 @@
       <c r="S179" s="7"/>
     </row>
     <row r="180" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B180" s="19">
+      <c r="B180" s="18">
         <v>177</v>
       </c>
-      <c r="C180" s="21">
+      <c r="C180" s="20">
         <v>44081</v>
       </c>
-      <c r="D180" s="29"/>
-      <c r="E180" s="30">
-        <v>0</v>
-      </c>
-      <c r="F180" s="25">
+      <c r="D180" s="27"/>
+      <c r="E180" s="28">
+        <v>0</v>
+      </c>
+      <c r="F180" s="23">
         <v>0</v>
       </c>
       <c r="G180" s="4"/>
@@ -8883,17 +8910,17 @@
       <c r="S180" s="7"/>
     </row>
     <row r="181" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B181" s="18">
+      <c r="B181" s="17">
         <v>178</v>
       </c>
-      <c r="C181" s="20">
+      <c r="C181" s="19">
         <v>44082</v>
       </c>
-      <c r="D181" s="27"/>
-      <c r="E181" s="31">
-        <v>0</v>
-      </c>
-      <c r="F181" s="26">
+      <c r="D181" s="25"/>
+      <c r="E181" s="29">
+        <v>0</v>
+      </c>
+      <c r="F181" s="24">
         <v>0</v>
       </c>
       <c r="G181" s="4"/>
@@ -8904,17 +8931,17 @@
       <c r="S181" s="7"/>
     </row>
     <row r="182" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B182" s="19">
+      <c r="B182" s="18">
         <v>179</v>
       </c>
-      <c r="C182" s="21">
+      <c r="C182" s="20">
         <v>44083</v>
       </c>
-      <c r="D182" s="29"/>
-      <c r="E182" s="30">
-        <v>0</v>
-      </c>
-      <c r="F182" s="25">
+      <c r="D182" s="27"/>
+      <c r="E182" s="28">
+        <v>0</v>
+      </c>
+      <c r="F182" s="23">
         <v>0</v>
       </c>
       <c r="G182" s="4"/>
@@ -8925,17 +8952,17 @@
       <c r="S182" s="7"/>
     </row>
     <row r="183" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B183" s="18">
+      <c r="B183" s="17">
         <v>180</v>
       </c>
-      <c r="C183" s="20">
+      <c r="C183" s="19">
         <v>44084</v>
       </c>
-      <c r="D183" s="27"/>
-      <c r="E183" s="31">
-        <v>0</v>
-      </c>
-      <c r="F183" s="26">
+      <c r="D183" s="25"/>
+      <c r="E183" s="29">
+        <v>0</v>
+      </c>
+      <c r="F183" s="24">
         <v>0</v>
       </c>
       <c r="G183" s="4"/>
@@ -8946,17 +8973,17 @@
       <c r="S183" s="7"/>
     </row>
     <row r="184" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B184" s="19">
+      <c r="B184" s="18">
         <v>181</v>
       </c>
-      <c r="C184" s="21">
+      <c r="C184" s="20">
         <v>44085</v>
       </c>
-      <c r="D184" s="29"/>
-      <c r="E184" s="30">
-        <v>0</v>
-      </c>
-      <c r="F184" s="25">
+      <c r="D184" s="27"/>
+      <c r="E184" s="28">
+        <v>0</v>
+      </c>
+      <c r="F184" s="23">
         <v>0</v>
       </c>
       <c r="G184" s="4"/>
@@ -8967,17 +8994,17 @@
       <c r="S184" s="7"/>
     </row>
     <row r="185" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B185" s="18">
+      <c r="B185" s="17">
         <v>182</v>
       </c>
-      <c r="C185" s="20">
+      <c r="C185" s="19">
         <v>44086</v>
       </c>
-      <c r="D185" s="27"/>
-      <c r="E185" s="31">
-        <v>0</v>
-      </c>
-      <c r="F185" s="26">
+      <c r="D185" s="25"/>
+      <c r="E185" s="29">
+        <v>0</v>
+      </c>
+      <c r="F185" s="24">
         <v>0</v>
       </c>
       <c r="G185" s="4"/>
@@ -8988,17 +9015,17 @@
       <c r="S185" s="7"/>
     </row>
     <row r="186" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B186" s="19">
+      <c r="B186" s="18">
         <v>183</v>
       </c>
-      <c r="C186" s="21">
+      <c r="C186" s="20">
         <v>44087</v>
       </c>
-      <c r="D186" s="29"/>
-      <c r="E186" s="30">
-        <v>0</v>
-      </c>
-      <c r="F186" s="25">
+      <c r="D186" s="27"/>
+      <c r="E186" s="28">
+        <v>0</v>
+      </c>
+      <c r="F186" s="23">
         <v>0</v>
       </c>
       <c r="G186" s="4"/>
@@ -9009,17 +9036,17 @@
       <c r="S186" s="7"/>
     </row>
     <row r="187" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B187" s="18">
+      <c r="B187" s="17">
         <v>184</v>
       </c>
-      <c r="C187" s="20">
+      <c r="C187" s="19">
         <v>44088</v>
       </c>
-      <c r="D187" s="27"/>
-      <c r="E187" s="31">
-        <v>0</v>
-      </c>
-      <c r="F187" s="26">
+      <c r="D187" s="25"/>
+      <c r="E187" s="29">
+        <v>0</v>
+      </c>
+      <c r="F187" s="24">
         <v>0</v>
       </c>
       <c r="G187" s="4"/>
@@ -9030,17 +9057,17 @@
       <c r="S187" s="7"/>
     </row>
     <row r="188" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B188" s="19">
+      <c r="B188" s="18">
         <v>185</v>
       </c>
-      <c r="C188" s="21">
+      <c r="C188" s="20">
         <v>44089</v>
       </c>
-      <c r="D188" s="29"/>
-      <c r="E188" s="30">
-        <v>0</v>
-      </c>
-      <c r="F188" s="25">
+      <c r="D188" s="27"/>
+      <c r="E188" s="28">
+        <v>0</v>
+      </c>
+      <c r="F188" s="23">
         <v>0</v>
       </c>
       <c r="G188" s="4"/>
@@ -9051,17 +9078,17 @@
       <c r="S188" s="7"/>
     </row>
     <row r="189" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B189" s="18">
+      <c r="B189" s="17">
         <v>186</v>
       </c>
-      <c r="C189" s="20">
+      <c r="C189" s="19">
         <v>44090</v>
       </c>
-      <c r="D189" s="27"/>
-      <c r="E189" s="31">
-        <v>0</v>
-      </c>
-      <c r="F189" s="26">
+      <c r="D189" s="25"/>
+      <c r="E189" s="29">
+        <v>0</v>
+      </c>
+      <c r="F189" s="24">
         <v>0</v>
       </c>
       <c r="G189" s="4"/>
@@ -9072,17 +9099,17 @@
       <c r="S189" s="7"/>
     </row>
     <row r="190" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="32">
+      <c r="B190" s="30">
         <v>187</v>
       </c>
-      <c r="C190" s="33">
+      <c r="C190" s="31">
         <v>44091</v>
       </c>
-      <c r="D190" s="34"/>
-      <c r="E190" s="35">
-        <v>0</v>
-      </c>
-      <c r="F190" s="36">
+      <c r="D190" s="32"/>
+      <c r="E190" s="33">
+        <v>0</v>
+      </c>
+      <c r="F190" s="34">
         <v>0</v>
       </c>
       <c r="G190" s="4"/>

--- a/SIRS MODELS/galicia/summary.xlsx
+++ b/SIRS MODELS/galicia/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78D2E11-77F6-4BC8-A69C-A484E7809BFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABFD98F-06D0-4161-AFFB-2FB16B73A3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1252,6 +1252,9 @@
                 <c:pt idx="17">
                   <c:v>3758</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>4058</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1271,7 +1274,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3/23/2020</c:v>
+                  <c:v>23/03/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1869,34 +1872,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>239</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>285</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>333</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>444</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>567</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>721</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>885</c:v>
+                  <c:v>899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1170</c:v>
+                  <c:v>1094</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1425</c:v>
@@ -2451,7 +2454,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31/03/2020</c:v>
+                  <c:v>01/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3052,142 +3055,142 @@
                   <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>239</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>285</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>333</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>444</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>567</c:v>
+                  <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>721</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>885</c:v>
+                  <c:v>853</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1589</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1833</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2484</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2913</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3212</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3754</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4303</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4718</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4880</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5149</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5156</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5116</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5024</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4877</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4670</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4064</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3664</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3205</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2173</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>1170</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>1374</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1598</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1832</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2211</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2627</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2925</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3476</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3758</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4033</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4288</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4518</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4720</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4890</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5026</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5126</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5187</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5207</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5183</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5112</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4990</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4814</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4580</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4285</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3928</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3511</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3042</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2535</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1508</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>1051</c:v>
+                  <c:v>762</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>673</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>390</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>202</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>92</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
@@ -3769,7 +3772,7 @@
         <c:axId val="1353300159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6000"/>
+          <c:max val="6500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4872,7 +4875,7 @@
   <dimension ref="B1:AG426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4937,7 +4940,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="37">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
@@ -4953,7 +4956,7 @@
         <v>131</v>
       </c>
       <c r="E3" s="26">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F3" s="22">
         <v>135</v>
@@ -4971,10 +4974,10 @@
         <v>183</v>
       </c>
       <c r="E4" s="28">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F4" s="23">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -4992,10 +4995,10 @@
         <v>232</v>
       </c>
       <c r="E5" s="29">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F5" s="24">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -5014,10 +5017,10 @@
         <v>278</v>
       </c>
       <c r="E6" s="28">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="F6" s="23">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
@@ -5036,10 +5039,10 @@
         <v>325</v>
       </c>
       <c r="E7" s="29">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="F7" s="24">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -5058,10 +5061,10 @@
         <v>435</v>
       </c>
       <c r="E8" s="28">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="F8" s="23">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -5080,10 +5083,10 @@
         <v>556</v>
       </c>
       <c r="E9" s="29">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F9" s="24">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
@@ -5102,10 +5105,10 @@
         <v>703</v>
       </c>
       <c r="E10" s="28">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F10" s="23">
-        <v>721</v>
+        <v>675</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -5123,10 +5126,10 @@
         <v>855</v>
       </c>
       <c r="E11" s="29">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="F11" s="24">
-        <v>885</v>
+        <v>853</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
@@ -5144,10 +5147,10 @@
         <v>1132</v>
       </c>
       <c r="E12" s="28">
-        <v>1170</v>
+        <v>1094</v>
       </c>
       <c r="F12" s="23">
-        <v>1170</v>
+        <v>1041</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -5168,7 +5171,7 @@
         <v>1425</v>
       </c>
       <c r="F13" s="24">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -5195,7 +5198,7 @@
         <v>1714</v>
       </c>
       <c r="F14" s="23">
-        <v>1598</v>
+        <v>1589</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -5216,7 +5219,7 @@
         <v>2033</v>
       </c>
       <c r="F15" s="24">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -5237,7 +5240,7 @@
         <v>2375</v>
       </c>
       <c r="F16" s="23">
-        <v>2211</v>
+        <v>2085</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -5258,7 +5261,7 @@
         <v>2732</v>
       </c>
       <c r="F17" s="24">
-        <v>2627</v>
+        <v>2484</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
@@ -5283,7 +5286,7 @@
         <v>3092</v>
       </c>
       <c r="F18" s="23">
-        <v>2925</v>
+        <v>2913</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
@@ -5304,7 +5307,7 @@
         <v>3444</v>
       </c>
       <c r="F19" s="24">
-        <v>3476</v>
+        <v>3212</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -5325,7 +5328,7 @@
         <v>3776</v>
       </c>
       <c r="F20" s="23">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -5339,12 +5342,14 @@
       <c r="C21" s="19">
         <v>43922</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="25">
+        <v>4058</v>
+      </c>
       <c r="E21" s="29">
         <v>4076</v>
       </c>
       <c r="F21" s="24">
-        <v>4033</v>
+        <v>4023</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -5363,7 +5368,7 @@
         <v>4333</v>
       </c>
       <c r="F22" s="23">
-        <v>4288</v>
+        <v>4303</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -5382,7 +5387,7 @@
         <v>4537</v>
       </c>
       <c r="F23" s="24">
-        <v>4518</v>
+        <v>4524</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -5408,7 +5413,7 @@
         <v>4677</v>
       </c>
       <c r="F24" s="23">
-        <v>4720</v>
+        <v>4718</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -5434,7 +5439,7 @@
         <v>4739</v>
       </c>
       <c r="F25" s="24">
-        <v>4890</v>
+        <v>4880</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -5460,7 +5465,7 @@
         <v>4709</v>
       </c>
       <c r="F26" s="23">
-        <v>5026</v>
+        <v>5008</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -5486,7 +5491,7 @@
         <v>4568</v>
       </c>
       <c r="F27" s="24">
-        <v>5126</v>
+        <v>5099</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
@@ -5512,7 +5517,7 @@
         <v>4295</v>
       </c>
       <c r="F28" s="23">
-        <v>5187</v>
+        <v>5149</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
@@ -5538,7 +5543,7 @@
         <v>3872</v>
       </c>
       <c r="F29" s="35">
-        <v>5207</v>
+        <v>5156</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
@@ -5564,7 +5569,7 @@
         <v>3293</v>
       </c>
       <c r="F30" s="23">
-        <v>5183</v>
+        <v>5116</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
@@ -5590,7 +5595,7 @@
         <v>2580</v>
       </c>
       <c r="F31" s="24">
-        <v>5112</v>
+        <v>5024</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="13"/>
@@ -5618,7 +5623,7 @@
         <v>1805</v>
       </c>
       <c r="F32" s="23">
-        <v>4990</v>
+        <v>4877</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -5648,7 +5653,7 @@
         <v>1084</v>
       </c>
       <c r="F33" s="24">
-        <v>4814</v>
+        <v>4670</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
@@ -5677,7 +5682,7 @@
         <v>536</v>
       </c>
       <c r="F34" s="23">
-        <v>4580</v>
+        <v>4400</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
@@ -5706,7 +5711,7 @@
         <v>210</v>
       </c>
       <c r="F35" s="24">
-        <v>4285</v>
+        <v>4064</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5"/>
@@ -5733,7 +5738,7 @@
         <v>63</v>
       </c>
       <c r="F36" s="23">
-        <v>3928</v>
+        <v>3664</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5"/>
@@ -5760,7 +5765,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="24">
-        <v>3511</v>
+        <v>3205</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="13"/>
@@ -5787,7 +5792,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="23">
-        <v>3042</v>
+        <v>2701</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
@@ -5815,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="24">
-        <v>2535</v>
+        <v>2173</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="13"/>
@@ -5842,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="23">
-        <v>2014</v>
+        <v>1651</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5"/>
@@ -5869,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="24">
-        <v>1508</v>
+        <v>1170</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="13"/>
@@ -5896,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="23">
-        <v>1051</v>
+        <v>762</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5"/>
@@ -5927,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="24">
-        <v>673</v>
+        <v>450</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="13"/>
@@ -5954,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="23">
-        <v>390</v>
+        <v>238</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
@@ -5981,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="24">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="13"/>
@@ -6008,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="23">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5"/>
@@ -6035,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="24">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="13"/>
@@ -6062,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="23">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5"/>
@@ -6089,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="13"/>

--- a/SIRS MODELS/galicia/summary.xlsx
+++ b/SIRS MODELS/galicia/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABFD98F-06D0-4161-AFFB-2FB16B73A3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCCD890-EF0C-46A4-AAB5-00397CD88847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1255,6 +1255,9 @@
                 <c:pt idx="18">
                   <c:v>4058</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>4379</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2454,7 +2457,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>01/04/2020</c:v>
+                  <c:v>02/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3052,148 +3055,148 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>163</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>228</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>288</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>343</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>531</c:v>
+                  <c:v>527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>675</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>853</c:v>
+                  <c:v>848</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1041</c:v>
+                  <c:v>1035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1362</c:v>
+                  <c:v>1355</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1589</c:v>
+                  <c:v>1581</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1833</c:v>
+                  <c:v>1825</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2085</c:v>
+                  <c:v>2076</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2484</c:v>
+                  <c:v>2476</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2913</c:v>
+                  <c:v>2904</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3212</c:v>
+                  <c:v>3204</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3754</c:v>
+                  <c:v>3747</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4023</c:v>
+                  <c:v>4017</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4303</c:v>
+                  <c:v>4298</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4524</c:v>
+                  <c:v>4595</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4718</c:v>
+                  <c:v>4786</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4880</c:v>
+                  <c:v>4948</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5008</c:v>
+                  <c:v>5078</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5099</c:v>
+                  <c:v>5174</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5149</c:v>
+                  <c:v>5234</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5156</c:v>
+                  <c:v>5255</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5116</c:v>
+                  <c:v>5234</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5024</c:v>
+                  <c:v>5167</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4877</c:v>
+                  <c:v>5052</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4670</c:v>
+                  <c:v>4884</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4400</c:v>
+                  <c:v>4661</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4064</c:v>
+                  <c:v>4379</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3664</c:v>
+                  <c:v>4038</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3205</c:v>
+                  <c:v>3640</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2701</c:v>
+                  <c:v>3190</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2173</c:v>
+                  <c:v>2702</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1651</c:v>
+                  <c:v>2194</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1170</c:v>
+                  <c:v>1692</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>762</c:v>
+                  <c:v>1226</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>450</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>238</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>111</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>15</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -4875,7 +4878,7 @@
   <dimension ref="B1:AG426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4940,7 +4943,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="37">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
@@ -4959,7 +4962,7 @@
         <v>144</v>
       </c>
       <c r="F3" s="22">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4977,7 +4980,7 @@
         <v>174</v>
       </c>
       <c r="F4" s="23">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -4998,7 +5001,7 @@
         <v>242</v>
       </c>
       <c r="F5" s="24">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -5020,7 +5023,7 @@
         <v>306</v>
       </c>
       <c r="F6" s="23">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
@@ -5042,7 +5045,7 @@
         <v>364</v>
       </c>
       <c r="F7" s="24">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -5064,7 +5067,7 @@
         <v>424</v>
       </c>
       <c r="F8" s="23">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -5086,7 +5089,7 @@
         <v>562</v>
       </c>
       <c r="F9" s="24">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
@@ -5108,7 +5111,7 @@
         <v>713</v>
       </c>
       <c r="F10" s="23">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -5129,7 +5132,7 @@
         <v>899</v>
       </c>
       <c r="F11" s="24">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
@@ -5150,7 +5153,7 @@
         <v>1094</v>
       </c>
       <c r="F12" s="23">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -5171,7 +5174,7 @@
         <v>1425</v>
       </c>
       <c r="F13" s="24">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -5198,7 +5201,7 @@
         <v>1714</v>
       </c>
       <c r="F14" s="23">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -5219,7 +5222,7 @@
         <v>2033</v>
       </c>
       <c r="F15" s="24">
-        <v>1833</v>
+        <v>1825</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -5240,7 +5243,7 @@
         <v>2375</v>
       </c>
       <c r="F16" s="23">
-        <v>2085</v>
+        <v>2076</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -5261,7 +5264,7 @@
         <v>2732</v>
       </c>
       <c r="F17" s="24">
-        <v>2484</v>
+        <v>2476</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
@@ -5286,7 +5289,7 @@
         <v>3092</v>
       </c>
       <c r="F18" s="23">
-        <v>2913</v>
+        <v>2904</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
@@ -5307,7 +5310,7 @@
         <v>3444</v>
       </c>
       <c r="F19" s="24">
-        <v>3212</v>
+        <v>3204</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -5328,7 +5331,7 @@
         <v>3776</v>
       </c>
       <c r="F20" s="23">
-        <v>3754</v>
+        <v>3747</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -5349,7 +5352,7 @@
         <v>4076</v>
       </c>
       <c r="F21" s="24">
-        <v>4023</v>
+        <v>4017</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -5363,12 +5366,14 @@
       <c r="C22" s="20">
         <v>43923</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="27">
+        <v>4379</v>
+      </c>
       <c r="E22" s="28">
         <v>4333</v>
       </c>
       <c r="F22" s="23">
-        <v>4303</v>
+        <v>4298</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -5387,7 +5392,7 @@
         <v>4537</v>
       </c>
       <c r="F23" s="24">
-        <v>4524</v>
+        <v>4595</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -5413,7 +5418,7 @@
         <v>4677</v>
       </c>
       <c r="F24" s="23">
-        <v>4718</v>
+        <v>4786</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -5439,7 +5444,7 @@
         <v>4739</v>
       </c>
       <c r="F25" s="24">
-        <v>4880</v>
+        <v>4948</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -5465,7 +5470,7 @@
         <v>4709</v>
       </c>
       <c r="F26" s="23">
-        <v>5008</v>
+        <v>5078</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -5491,7 +5496,7 @@
         <v>4568</v>
       </c>
       <c r="F27" s="24">
-        <v>5099</v>
+        <v>5174</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
@@ -5517,7 +5522,7 @@
         <v>4295</v>
       </c>
       <c r="F28" s="23">
-        <v>5149</v>
+        <v>5234</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
@@ -5543,7 +5548,7 @@
         <v>3872</v>
       </c>
       <c r="F29" s="35">
-        <v>5156</v>
+        <v>5255</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
@@ -5569,7 +5574,7 @@
         <v>3293</v>
       </c>
       <c r="F30" s="23">
-        <v>5116</v>
+        <v>5234</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
@@ -5595,7 +5600,7 @@
         <v>2580</v>
       </c>
       <c r="F31" s="24">
-        <v>5024</v>
+        <v>5167</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="13"/>
@@ -5623,7 +5628,7 @@
         <v>1805</v>
       </c>
       <c r="F32" s="23">
-        <v>4877</v>
+        <v>5052</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -5653,7 +5658,7 @@
         <v>1084</v>
       </c>
       <c r="F33" s="24">
-        <v>4670</v>
+        <v>4884</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
@@ -5682,7 +5687,7 @@
         <v>536</v>
       </c>
       <c r="F34" s="23">
-        <v>4400</v>
+        <v>4661</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
@@ -5711,7 +5716,7 @@
         <v>210</v>
       </c>
       <c r="F35" s="24">
-        <v>4064</v>
+        <v>4379</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5"/>
@@ -5738,7 +5743,7 @@
         <v>63</v>
       </c>
       <c r="F36" s="23">
-        <v>3664</v>
+        <v>4038</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5"/>
@@ -5765,7 +5770,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="24">
-        <v>3205</v>
+        <v>3640</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="13"/>
@@ -5792,7 +5797,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="23">
-        <v>2701</v>
+        <v>3190</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
@@ -5820,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="24">
-        <v>2173</v>
+        <v>2702</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="13"/>
@@ -5847,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="23">
-        <v>1651</v>
+        <v>2194</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5"/>
@@ -5874,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="24">
-        <v>1170</v>
+        <v>1692</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="13"/>
@@ -5901,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="23">
-        <v>762</v>
+        <v>1226</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5"/>
@@ -5932,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="24">
-        <v>450</v>
+        <v>825</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="13"/>
@@ -5959,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="23">
-        <v>238</v>
+        <v>510</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
@@ -5986,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="24">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="13"/>
@@ -6013,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="23">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5"/>
@@ -6040,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="24">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="13"/>
@@ -6067,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="23">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5"/>
@@ -6094,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="13"/>
@@ -6121,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5"/>

--- a/SIRS MODELS/galicia/summary.xlsx
+++ b/SIRS MODELS/galicia/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCCD890-EF0C-46A4-AAB5-00397CD88847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA301CB2-44C6-4F88-9F4A-FF28696C3C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,7 +605,15 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>REAL</c:v>
+            <c:strRef>
+              <c:f>'SPANISH SIRS MODEL'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -621,573 +629,573 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$3:$B$190</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$3:$C$190</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>120</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>123</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>124</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>125</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>126</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>127</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>128</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>129</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>130</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>131</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>132</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>133</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>134</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>135</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>136</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>137</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>138</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>139</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>140</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>141</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>142</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>143</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>144</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>146</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>147</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>148</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>151</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>152</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>153</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>154</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>155</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>156</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>157</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>158</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>159</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>160</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>161</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>162</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>163</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>164</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>165</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>166</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>167</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>168</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>169</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>170</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>171</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>172</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>173</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>174</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>176</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>177</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>178</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>179</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>180</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>181</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>182</c:v>
+                  <c:v>44086</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>183</c:v>
+                  <c:v>44087</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>184</c:v>
+                  <c:v>44088</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>185</c:v>
+                  <c:v>44089</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>186</c:v>
+                  <c:v>44090</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>187</c:v>
+                  <c:v>44091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1297,573 +1305,573 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$3:$B$190</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$3:$C$190</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>120</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>123</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>124</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>125</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>126</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>127</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>128</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>129</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>130</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>131</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>132</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>133</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>134</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>135</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>136</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>137</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>138</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>139</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>140</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>141</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>142</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>143</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>144</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>146</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>147</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>148</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>151</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>152</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>153</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>154</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>155</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>156</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>157</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>158</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>159</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>160</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>161</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>162</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>163</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>164</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>165</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>166</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>167</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>168</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>169</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>170</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>171</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>172</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>173</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>174</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>176</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>177</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>178</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>179</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>180</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>181</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>182</c:v>
+                  <c:v>44086</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>183</c:v>
+                  <c:v>44087</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>184</c:v>
+                  <c:v>44088</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>185</c:v>
+                  <c:v>44089</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>186</c:v>
+                  <c:v>44090</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>187</c:v>
+                  <c:v>44091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2477,573 +2485,573 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$3:$B$190</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$3:$C$190</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>120</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>123</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>124</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>125</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>126</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>127</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>128</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>129</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>130</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>131</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>132</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>133</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>134</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>135</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>136</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>137</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>138</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>139</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>140</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>141</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>142</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>143</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>144</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>146</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>147</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>148</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>151</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>152</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>153</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>154</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>155</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>156</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>157</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>158</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>159</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>160</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>161</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>162</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>163</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>164</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>165</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>166</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>167</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>168</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>169</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>170</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>171</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>172</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>173</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>174</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>176</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>177</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>178</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>179</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>180</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>181</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>182</c:v>
+                  <c:v>44086</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>183</c:v>
+                  <c:v>44087</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>184</c:v>
+                  <c:v>44088</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>185</c:v>
+                  <c:v>44089</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>186</c:v>
+                  <c:v>44090</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>187</c:v>
+                  <c:v>44091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,8 +3651,8 @@
         <c:axId val="1356387871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
-          <c:min val="0"/>
+          <c:max val="43960"/>
+          <c:min val="43904"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3696,7 +3704,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Days since MARCH 14TH</a:t>
+                  <a:t>Days since QUARANTINE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3730,7 +3738,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-C0A]d/mmm;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3770,13 +3778,12 @@
         <c:crossAx val="1353300159"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1353300159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6500"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3828,7 +3835,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>POPULATION</a:t>
+                  <a:t>INFECTED POPULATION</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4878,7 +4885,7 @@
   <dimension ref="B1:AG426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SIRS MODELS/galicia/summary.xlsx
+++ b/SIRS MODELS/galicia/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA301CB2-44C6-4F88-9F4A-FF28696C3C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8254C7-CF41-4190-95B9-BFD72AC53563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1266,6 +1266,15 @@
                 <c:pt idx="19">
                   <c:v>4379</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>4635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4926</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5175</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2465,7 +2474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>02/04/2020</c:v>
+                  <c:v>05/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3063,154 +3072,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>134</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>162</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>226</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>286</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>340</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>397</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>527</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>671</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>848</c:v>
+                  <c:v>842</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1035</c:v>
+                  <c:v>1028</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1355</c:v>
+                  <c:v>1347</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1581</c:v>
+                  <c:v>1572</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2066</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2465</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2894</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3194</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3738</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4291</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4590</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4823</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5085</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5307</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5408</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5476</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5509</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5505</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5461</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5374</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5240</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5056</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4819</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4527</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4179</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3777</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3326</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2838</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>1825</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>2076</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2476</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2904</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3204</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3747</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4017</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4298</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4595</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4786</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4948</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5078</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5174</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5234</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5255</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5234</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5167</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5052</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4884</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4661</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4379</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4038</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3640</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3190</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2702</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2194</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1692</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1226</c:v>
-                </c:pt>
                 <c:pt idx="40">
-                  <c:v>825</c:v>
+                  <c:v>1352</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>510</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>286</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>143</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>63</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>24</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -3704,7 +3713,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Days since QUARANTINE</a:t>
+                  <a:t>DATE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4885,7 +4894,7 @@
   <dimension ref="B1:AG426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4950,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="37">
-        <v>43923</v>
+        <v>43926</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
@@ -4969,7 +4978,7 @@
         <v>144</v>
       </c>
       <c r="F3" s="22">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4987,7 +4996,7 @@
         <v>174</v>
       </c>
       <c r="F4" s="23">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -5008,7 +5017,7 @@
         <v>242</v>
       </c>
       <c r="F5" s="24">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -5030,7 +5039,7 @@
         <v>306</v>
       </c>
       <c r="F6" s="23">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
@@ -5052,7 +5061,7 @@
         <v>364</v>
       </c>
       <c r="F7" s="24">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -5074,7 +5083,7 @@
         <v>424</v>
       </c>
       <c r="F8" s="23">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -5096,7 +5105,7 @@
         <v>562</v>
       </c>
       <c r="F9" s="24">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
@@ -5118,7 +5127,7 @@
         <v>713</v>
       </c>
       <c r="F10" s="23">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -5139,7 +5148,7 @@
         <v>899</v>
       </c>
       <c r="F11" s="24">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
@@ -5160,7 +5169,7 @@
         <v>1094</v>
       </c>
       <c r="F12" s="23">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -5181,7 +5190,7 @@
         <v>1425</v>
       </c>
       <c r="F13" s="24">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -5208,7 +5217,7 @@
         <v>1714</v>
       </c>
       <c r="F14" s="23">
-        <v>1581</v>
+        <v>1572</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -5229,7 +5238,7 @@
         <v>2033</v>
       </c>
       <c r="F15" s="24">
-        <v>1825</v>
+        <v>1815</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -5250,7 +5259,7 @@
         <v>2375</v>
       </c>
       <c r="F16" s="23">
-        <v>2076</v>
+        <v>2066</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -5271,7 +5280,7 @@
         <v>2732</v>
       </c>
       <c r="F17" s="24">
-        <v>2476</v>
+        <v>2465</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
@@ -5296,7 +5305,7 @@
         <v>3092</v>
       </c>
       <c r="F18" s="23">
-        <v>2904</v>
+        <v>2894</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
@@ -5317,7 +5326,7 @@
         <v>3444</v>
       </c>
       <c r="F19" s="24">
-        <v>3204</v>
+        <v>3194</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -5338,7 +5347,7 @@
         <v>3776</v>
       </c>
       <c r="F20" s="23">
-        <v>3747</v>
+        <v>3738</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -5359,7 +5368,7 @@
         <v>4076</v>
       </c>
       <c r="F21" s="24">
-        <v>4017</v>
+        <v>4009</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -5380,7 +5389,7 @@
         <v>4333</v>
       </c>
       <c r="F22" s="23">
-        <v>4298</v>
+        <v>4291</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -5394,12 +5403,14 @@
       <c r="C23" s="19">
         <v>43924</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="25">
+        <v>4635</v>
+      </c>
       <c r="E23" s="29">
         <v>4537</v>
       </c>
       <c r="F23" s="24">
-        <v>4595</v>
+        <v>4590</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -5420,12 +5431,14 @@
       <c r="C24" s="20">
         <v>43925</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="27">
+        <v>4926</v>
+      </c>
       <c r="E24" s="28">
         <v>4677</v>
       </c>
       <c r="F24" s="23">
-        <v>4786</v>
+        <v>4823</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -5446,12 +5459,14 @@
       <c r="C25" s="19">
         <v>43926</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="25">
+        <v>5175</v>
+      </c>
       <c r="E25" s="36">
         <v>4739</v>
       </c>
       <c r="F25" s="24">
-        <v>4948</v>
+        <v>5085</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -5477,7 +5492,7 @@
         <v>4709</v>
       </c>
       <c r="F26" s="23">
-        <v>5078</v>
+        <v>5307</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -5503,7 +5518,7 @@
         <v>4568</v>
       </c>
       <c r="F27" s="24">
-        <v>5174</v>
+        <v>5408</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
@@ -5529,7 +5544,7 @@
         <v>4295</v>
       </c>
       <c r="F28" s="23">
-        <v>5234</v>
+        <v>5476</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
@@ -5555,7 +5570,7 @@
         <v>3872</v>
       </c>
       <c r="F29" s="35">
-        <v>5255</v>
+        <v>5509</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
@@ -5581,7 +5596,7 @@
         <v>3293</v>
       </c>
       <c r="F30" s="23">
-        <v>5234</v>
+        <v>5505</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
@@ -5607,7 +5622,7 @@
         <v>2580</v>
       </c>
       <c r="F31" s="24">
-        <v>5167</v>
+        <v>5461</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="13"/>
@@ -5635,7 +5650,7 @@
         <v>1805</v>
       </c>
       <c r="F32" s="23">
-        <v>5052</v>
+        <v>5374</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -5665,7 +5680,7 @@
         <v>1084</v>
       </c>
       <c r="F33" s="24">
-        <v>4884</v>
+        <v>5240</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
@@ -5694,7 +5709,7 @@
         <v>536</v>
       </c>
       <c r="F34" s="23">
-        <v>4661</v>
+        <v>5056</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
@@ -5723,7 +5738,7 @@
         <v>210</v>
       </c>
       <c r="F35" s="24">
-        <v>4379</v>
+        <v>4819</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5"/>
@@ -5750,7 +5765,7 @@
         <v>63</v>
       </c>
       <c r="F36" s="23">
-        <v>4038</v>
+        <v>4527</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5"/>
@@ -5777,7 +5792,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="24">
-        <v>3640</v>
+        <v>4179</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="13"/>
@@ -5804,7 +5819,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="23">
-        <v>3190</v>
+        <v>3777</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
@@ -5832,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="24">
-        <v>2702</v>
+        <v>3326</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="13"/>
@@ -5859,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="23">
-        <v>2194</v>
+        <v>2838</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5"/>
@@ -5886,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="24">
-        <v>1692</v>
+        <v>2330</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="13"/>
@@ -5913,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="23">
-        <v>1226</v>
+        <v>1825</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5"/>
@@ -5944,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="24">
-        <v>825</v>
+        <v>1352</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="13"/>
@@ -5971,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="23">
-        <v>510</v>
+        <v>937</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
@@ -5998,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="24">
-        <v>286</v>
+        <v>601</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="13"/>
@@ -6025,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="23">
-        <v>143</v>
+        <v>352</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5"/>
@@ -6052,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="24">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="13"/>
@@ -6079,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="23">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5"/>
@@ -6106,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="24">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="13"/>
@@ -6133,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="35">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5"/>
@@ -6160,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="13"/>
@@ -6187,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5"/>

--- a/SIRS MODELS/galicia/summary.xlsx
+++ b/SIRS MODELS/galicia/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8254C7-CF41-4190-95B9-BFD72AC53563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2DD302-CCE8-4EB7-84C7-60F6D80FC521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2474,7 +2474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>05/04/2020</c:v>
+                  <c:v>06/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3072,184 +3072,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>133</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>224</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>283</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>338</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>394</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>523</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>666</c:v>
+                  <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>842</c:v>
+                  <c:v>829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1028</c:v>
+                  <c:v>1013</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1347</c:v>
+                  <c:v>1328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1572</c:v>
+                  <c:v>1551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1815</c:v>
+                  <c:v>1793</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2066</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2465</c:v>
+                  <c:v>2440</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2894</c:v>
+                  <c:v>2868</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3194</c:v>
+                  <c:v>3169</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3738</c:v>
+                  <c:v>3714</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4009</c:v>
+                  <c:v>3987</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4291</c:v>
+                  <c:v>4272</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4590</c:v>
+                  <c:v>4574</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4823</c:v>
+                  <c:v>4810</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5085</c:v>
+                  <c:v>5075</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5307</c:v>
+                  <c:v>5301</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5408</c:v>
+                  <c:v>5449</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5476</c:v>
+                  <c:v>5535</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5509</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5505</c:v>
+                  <c:v>5644</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5461</c:v>
+                  <c:v>5666</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5374</c:v>
+                  <c:v>5666</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5240</c:v>
+                  <c:v>5643</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5056</c:v>
+                  <c:v>5596</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4819</c:v>
+                  <c:v>5525</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4527</c:v>
+                  <c:v>5428</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4179</c:v>
+                  <c:v>5305</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3777</c:v>
+                  <c:v>5155</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3326</c:v>
+                  <c:v>4976</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2838</c:v>
+                  <c:v>4768</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2330</c:v>
+                  <c:v>4531</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1825</c:v>
+                  <c:v>4265</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1352</c:v>
+                  <c:v>3970</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>937</c:v>
+                  <c:v>3649</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>601</c:v>
+                  <c:v>3305</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>352</c:v>
+                  <c:v>2942</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>187</c:v>
+                  <c:v>2567</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>89</c:v>
+                  <c:v>2188</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37</c:v>
+                  <c:v>1816</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13</c:v>
+                  <c:v>1461</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4</c:v>
+                  <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
@@ -4894,7 +4894,7 @@
   <dimension ref="B1:AG426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4959,7 +4959,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="37">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
@@ -4978,7 +4978,7 @@
         <v>144</v>
       </c>
       <c r="F3" s="22">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4996,7 +4996,7 @@
         <v>174</v>
       </c>
       <c r="F4" s="23">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -5017,7 +5017,7 @@
         <v>242</v>
       </c>
       <c r="F5" s="24">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -5039,7 +5039,7 @@
         <v>306</v>
       </c>
       <c r="F6" s="23">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
@@ -5061,7 +5061,7 @@
         <v>364</v>
       </c>
       <c r="F7" s="24">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -5083,7 +5083,7 @@
         <v>424</v>
       </c>
       <c r="F8" s="23">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -5105,7 +5105,7 @@
         <v>562</v>
       </c>
       <c r="F9" s="24">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
@@ -5127,7 +5127,7 @@
         <v>713</v>
       </c>
       <c r="F10" s="23">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -5148,7 +5148,7 @@
         <v>899</v>
       </c>
       <c r="F11" s="24">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
@@ -5169,7 +5169,7 @@
         <v>1094</v>
       </c>
       <c r="F12" s="23">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -5190,7 +5190,7 @@
         <v>1425</v>
       </c>
       <c r="F13" s="24">
-        <v>1347</v>
+        <v>1328</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -5217,7 +5217,7 @@
         <v>1714</v>
       </c>
       <c r="F14" s="23">
-        <v>1572</v>
+        <v>1551</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -5238,7 +5238,7 @@
         <v>2033</v>
       </c>
       <c r="F15" s="24">
-        <v>1815</v>
+        <v>1793</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -5259,7 +5259,7 @@
         <v>2375</v>
       </c>
       <c r="F16" s="23">
-        <v>2066</v>
+        <v>2042</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -5280,7 +5280,7 @@
         <v>2732</v>
       </c>
       <c r="F17" s="24">
-        <v>2465</v>
+        <v>2440</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
@@ -5305,7 +5305,7 @@
         <v>3092</v>
       </c>
       <c r="F18" s="23">
-        <v>2894</v>
+        <v>2868</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
@@ -5326,7 +5326,7 @@
         <v>3444</v>
       </c>
       <c r="F19" s="24">
-        <v>3194</v>
+        <v>3169</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -5347,7 +5347,7 @@
         <v>3776</v>
       </c>
       <c r="F20" s="23">
-        <v>3738</v>
+        <v>3714</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -5368,7 +5368,7 @@
         <v>4076</v>
       </c>
       <c r="F21" s="24">
-        <v>4009</v>
+        <v>3987</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -5389,7 +5389,7 @@
         <v>4333</v>
       </c>
       <c r="F22" s="23">
-        <v>4291</v>
+        <v>4272</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -5410,7 +5410,7 @@
         <v>4537</v>
       </c>
       <c r="F23" s="24">
-        <v>4590</v>
+        <v>4574</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -5438,7 +5438,7 @@
         <v>4677</v>
       </c>
       <c r="F24" s="23">
-        <v>4823</v>
+        <v>4810</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -5466,7 +5466,7 @@
         <v>4739</v>
       </c>
       <c r="F25" s="24">
-        <v>5085</v>
+        <v>5075</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -5492,7 +5492,7 @@
         <v>4709</v>
       </c>
       <c r="F26" s="23">
-        <v>5307</v>
+        <v>5301</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -5518,7 +5518,7 @@
         <v>4568</v>
       </c>
       <c r="F27" s="24">
-        <v>5408</v>
+        <v>5449</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
@@ -5544,7 +5544,7 @@
         <v>4295</v>
       </c>
       <c r="F28" s="23">
-        <v>5476</v>
+        <v>5535</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
@@ -5570,7 +5570,7 @@
         <v>3872</v>
       </c>
       <c r="F29" s="35">
-        <v>5509</v>
+        <v>5600</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
@@ -5596,7 +5596,7 @@
         <v>3293</v>
       </c>
       <c r="F30" s="23">
-        <v>5505</v>
+        <v>5644</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
@@ -5622,7 +5622,7 @@
         <v>2580</v>
       </c>
       <c r="F31" s="24">
-        <v>5461</v>
+        <v>5666</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="13"/>
@@ -5650,7 +5650,7 @@
         <v>1805</v>
       </c>
       <c r="F32" s="23">
-        <v>5374</v>
+        <v>5666</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -5680,7 +5680,7 @@
         <v>1084</v>
       </c>
       <c r="F33" s="24">
-        <v>5240</v>
+        <v>5643</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
@@ -5709,7 +5709,7 @@
         <v>536</v>
       </c>
       <c r="F34" s="23">
-        <v>5056</v>
+        <v>5596</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
@@ -5738,7 +5738,7 @@
         <v>210</v>
       </c>
       <c r="F35" s="24">
-        <v>4819</v>
+        <v>5525</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5"/>
@@ -5765,7 +5765,7 @@
         <v>63</v>
       </c>
       <c r="F36" s="23">
-        <v>4527</v>
+        <v>5428</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5"/>
@@ -5792,7 +5792,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="24">
-        <v>4179</v>
+        <v>5305</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="13"/>
@@ -5819,7 +5819,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="23">
-        <v>3777</v>
+        <v>5155</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="24">
-        <v>3326</v>
+        <v>4976</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="13"/>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="23">
-        <v>2838</v>
+        <v>4768</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5"/>
@@ -5901,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="24">
-        <v>2330</v>
+        <v>4531</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="13"/>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="23">
-        <v>1825</v>
+        <v>4265</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5"/>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="24">
-        <v>1352</v>
+        <v>3970</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="13"/>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="23">
-        <v>937</v>
+        <v>3649</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="24">
-        <v>601</v>
+        <v>3305</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="13"/>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="23">
-        <v>352</v>
+        <v>2942</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5"/>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="24">
-        <v>187</v>
+        <v>2567</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="13"/>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="23">
-        <v>89</v>
+        <v>2188</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5"/>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="24">
-        <v>37</v>
+        <v>1816</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="13"/>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="35">
-        <v>13</v>
+        <v>1461</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5"/>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="24">
-        <v>4</v>
+        <v>1134</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="13"/>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="23">
-        <v>1</v>
+        <v>845</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5"/>
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="24">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="13"/>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="23">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5"/>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="24">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="13"/>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="23">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="5"/>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="24">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="13"/>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="23">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5"/>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="24">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="5"/>
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5"/>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="5"/>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5"/>

--- a/SIRS MODELS/galicia/summary.xlsx
+++ b/SIRS MODELS/galicia/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2DD302-CCE8-4EB7-84C7-60F6D80FC521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DA4C98-03ED-40EE-859C-518A47F8A273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1275,6 +1275,12 @@
                 <c:pt idx="22">
                   <c:v>5175</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>5342</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5435</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2474,7 +2480,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>06/04/2020</c:v>
+                  <c:v>07/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3072,193 +3078,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>131</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>332</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>387</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>515</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>655</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>829</c:v>
+                  <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1013</c:v>
+                  <c:v>1006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1328</c:v>
+                  <c:v>1320</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1551</c:v>
+                  <c:v>1542</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1793</c:v>
+                  <c:v>1783</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2042</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2440</c:v>
+                  <c:v>2429</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2868</c:v>
+                  <c:v>2857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3169</c:v>
+                  <c:v>3158</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3714</c:v>
+                  <c:v>3704</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3987</c:v>
+                  <c:v>3978</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4272</c:v>
+                  <c:v>4264</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4574</c:v>
+                  <c:v>4567</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4810</c:v>
+                  <c:v>4804</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5075</c:v>
+                  <c:v>5071</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5301</c:v>
+                  <c:v>5298</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5449</c:v>
+                  <c:v>5447</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5535</c:v>
+                  <c:v>5529</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5600</c:v>
+                  <c:v>5604</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5644</c:v>
+                  <c:v>5660</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5666</c:v>
+                  <c:v>5697</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5666</c:v>
+                  <c:v>5714</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5643</c:v>
+                  <c:v>5711</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5596</c:v>
+                  <c:v>5687</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5525</c:v>
+                  <c:v>5642</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5428</c:v>
+                  <c:v>5575</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5305</c:v>
+                  <c:v>5486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5155</c:v>
+                  <c:v>5374</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4976</c:v>
+                  <c:v>5238</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4768</c:v>
+                  <c:v>5077</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4531</c:v>
+                  <c:v>4891</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4265</c:v>
+                  <c:v>4679</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3970</c:v>
+                  <c:v>4442</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3649</c:v>
+                  <c:v>4179</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3305</c:v>
+                  <c:v>3892</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2942</c:v>
+                  <c:v>3583</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2567</c:v>
+                  <c:v>3255</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2188</c:v>
+                  <c:v>2912</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1816</c:v>
+                  <c:v>2560</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1461</c:v>
+                  <c:v>2205</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1134</c:v>
+                  <c:v>1855</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>845</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>602</c:v>
+                  <c:v>1208</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>407</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>260</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>156</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>88</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>46</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>22</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="62">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
@@ -4894,7 +4900,7 @@
   <dimension ref="B1:AG426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4959,7 +4965,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="37">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
@@ -4978,7 +4984,7 @@
         <v>144</v>
       </c>
       <c r="F3" s="22">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4996,7 +5002,7 @@
         <v>174</v>
       </c>
       <c r="F4" s="23">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -5017,7 +5023,7 @@
         <v>242</v>
       </c>
       <c r="F5" s="24">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -5039,7 +5045,7 @@
         <v>306</v>
       </c>
       <c r="F6" s="23">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
@@ -5061,7 +5067,7 @@
         <v>364</v>
       </c>
       <c r="F7" s="24">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -5083,7 +5089,7 @@
         <v>424</v>
       </c>
       <c r="F8" s="23">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -5105,7 +5111,7 @@
         <v>562</v>
       </c>
       <c r="F9" s="24">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
@@ -5127,7 +5133,7 @@
         <v>713</v>
       </c>
       <c r="F10" s="23">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -5148,7 +5154,7 @@
         <v>899</v>
       </c>
       <c r="F11" s="24">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
@@ -5169,7 +5175,7 @@
         <v>1094</v>
       </c>
       <c r="F12" s="23">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -5190,7 +5196,7 @@
         <v>1425</v>
       </c>
       <c r="F13" s="24">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -5217,7 +5223,7 @@
         <v>1714</v>
       </c>
       <c r="F14" s="23">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -5238,7 +5244,7 @@
         <v>2033</v>
       </c>
       <c r="F15" s="24">
-        <v>1793</v>
+        <v>1783</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -5259,7 +5265,7 @@
         <v>2375</v>
       </c>
       <c r="F16" s="23">
-        <v>2042</v>
+        <v>2032</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -5280,7 +5286,7 @@
         <v>2732</v>
       </c>
       <c r="F17" s="24">
-        <v>2440</v>
+        <v>2429</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
@@ -5305,7 +5311,7 @@
         <v>3092</v>
       </c>
       <c r="F18" s="23">
-        <v>2868</v>
+        <v>2857</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
@@ -5326,7 +5332,7 @@
         <v>3444</v>
       </c>
       <c r="F19" s="24">
-        <v>3169</v>
+        <v>3158</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -5347,7 +5353,7 @@
         <v>3776</v>
       </c>
       <c r="F20" s="23">
-        <v>3714</v>
+        <v>3704</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -5368,7 +5374,7 @@
         <v>4076</v>
       </c>
       <c r="F21" s="24">
-        <v>3987</v>
+        <v>3978</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -5389,7 +5395,7 @@
         <v>4333</v>
       </c>
       <c r="F22" s="23">
-        <v>4272</v>
+        <v>4264</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -5410,7 +5416,7 @@
         <v>4537</v>
       </c>
       <c r="F23" s="24">
-        <v>4574</v>
+        <v>4567</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -5438,7 +5444,7 @@
         <v>4677</v>
       </c>
       <c r="F24" s="23">
-        <v>4810</v>
+        <v>4804</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -5466,7 +5472,7 @@
         <v>4739</v>
       </c>
       <c r="F25" s="24">
-        <v>5075</v>
+        <v>5071</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -5487,12 +5493,14 @@
       <c r="C26" s="20">
         <v>43927</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="27">
+        <v>5342</v>
+      </c>
       <c r="E26" s="28">
         <v>4709</v>
       </c>
       <c r="F26" s="23">
-        <v>5301</v>
+        <v>5298</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -5513,12 +5521,14 @@
       <c r="C27" s="19">
         <v>43928</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="25">
+        <v>5435</v>
+      </c>
       <c r="E27" s="29">
         <v>4568</v>
       </c>
       <c r="F27" s="24">
-        <v>5449</v>
+        <v>5447</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
@@ -5544,7 +5554,7 @@
         <v>4295</v>
       </c>
       <c r="F28" s="23">
-        <v>5535</v>
+        <v>5529</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
@@ -5570,7 +5580,7 @@
         <v>3872</v>
       </c>
       <c r="F29" s="35">
-        <v>5600</v>
+        <v>5604</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
@@ -5596,7 +5606,7 @@
         <v>3293</v>
       </c>
       <c r="F30" s="23">
-        <v>5644</v>
+        <v>5660</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
@@ -5622,7 +5632,7 @@
         <v>2580</v>
       </c>
       <c r="F31" s="24">
-        <v>5666</v>
+        <v>5697</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="13"/>
@@ -5650,7 +5660,7 @@
         <v>1805</v>
       </c>
       <c r="F32" s="23">
-        <v>5666</v>
+        <v>5714</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -5680,7 +5690,7 @@
         <v>1084</v>
       </c>
       <c r="F33" s="24">
-        <v>5643</v>
+        <v>5711</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
@@ -5709,7 +5719,7 @@
         <v>536</v>
       </c>
       <c r="F34" s="23">
-        <v>5596</v>
+        <v>5687</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
@@ -5738,7 +5748,7 @@
         <v>210</v>
       </c>
       <c r="F35" s="24">
-        <v>5525</v>
+        <v>5642</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5"/>
@@ -5765,7 +5775,7 @@
         <v>63</v>
       </c>
       <c r="F36" s="23">
-        <v>5428</v>
+        <v>5575</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5"/>
@@ -5792,7 +5802,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="24">
-        <v>5305</v>
+        <v>5486</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="13"/>
@@ -5819,7 +5829,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="23">
-        <v>5155</v>
+        <v>5374</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
@@ -5847,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="24">
-        <v>4976</v>
+        <v>5238</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="13"/>
@@ -5874,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="23">
-        <v>4768</v>
+        <v>5077</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5"/>
@@ -5901,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="24">
-        <v>4531</v>
+        <v>4891</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="13"/>
@@ -5928,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="23">
-        <v>4265</v>
+        <v>4679</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5"/>
@@ -5959,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="24">
-        <v>3970</v>
+        <v>4442</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="13"/>
@@ -5986,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="23">
-        <v>3649</v>
+        <v>4179</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
@@ -6013,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="24">
-        <v>3305</v>
+        <v>3892</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="13"/>
@@ -6040,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="23">
-        <v>2942</v>
+        <v>3583</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5"/>
@@ -6067,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="24">
-        <v>2567</v>
+        <v>3255</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="13"/>
@@ -6094,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="23">
-        <v>2188</v>
+        <v>2912</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5"/>
@@ -6121,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="24">
-        <v>1816</v>
+        <v>2560</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="13"/>
@@ -6148,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="35">
-        <v>1461</v>
+        <v>2205</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5"/>
@@ -6175,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="24">
-        <v>1134</v>
+        <v>1855</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="13"/>
@@ -6202,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="23">
-        <v>845</v>
+        <v>1520</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5"/>
@@ -6229,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="24">
-        <v>602</v>
+        <v>1208</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="13"/>
@@ -6256,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="23">
-        <v>407</v>
+        <v>928</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5"/>
@@ -6283,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="24">
-        <v>260</v>
+        <v>686</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="13"/>
@@ -6310,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="23">
-        <v>156</v>
+        <v>486</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="5"/>
@@ -6337,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="24">
-        <v>88</v>
+        <v>328</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="13"/>
@@ -6364,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="23">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5"/>
@@ -6391,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="24">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="5"/>
@@ -6412,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="23">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5"/>
@@ -6433,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="24">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="5"/>
@@ -6454,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="23">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5"/>
@@ -6475,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5"/>
@@ -6496,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5"/>
@@ -6517,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5"/>

--- a/SIRS MODELS/galicia/summary.xlsx
+++ b/SIRS MODELS/galicia/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DA4C98-03ED-40EE-859C-518A47F8A273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9003CFC2-6112-444D-8084-9C50A89697A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1281,6 +1281,15 @@
                 <c:pt idx="24">
                   <c:v>5435</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>5460</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5631</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2480,7 +2489,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>07/04/2020</c:v>
+                  <c:v>10/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3078,202 +3087,202 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>219</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>276</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>329</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>384</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>511</c:v>
+                  <c:v>502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>650</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>823</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1006</c:v>
+                  <c:v>991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1320</c:v>
+                  <c:v>1302</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1542</c:v>
+                  <c:v>1522</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1783</c:v>
+                  <c:v>1761</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2032</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2429</c:v>
+                  <c:v>2404</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2857</c:v>
+                  <c:v>2831</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3158</c:v>
+                  <c:v>3132</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3704</c:v>
+                  <c:v>3679</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3978</c:v>
+                  <c:v>3954</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4264</c:v>
+                  <c:v>4242</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4567</c:v>
+                  <c:v>4548</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4804</c:v>
+                  <c:v>4787</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5071</c:v>
+                  <c:v>5057</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5298</c:v>
+                  <c:v>5287</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5447</c:v>
+                  <c:v>5438</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5529</c:v>
+                  <c:v>5521</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5604</c:v>
+                  <c:v>5530</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5660</c:v>
+                  <c:v>5609</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5697</c:v>
+                  <c:v>5677</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5714</c:v>
+                  <c:v>5706</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5711</c:v>
+                  <c:v>5719</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5687</c:v>
+                  <c:v>5715</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5642</c:v>
+                  <c:v>5693</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5575</c:v>
+                  <c:v>5654</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5486</c:v>
+                  <c:v>5596</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5374</c:v>
+                  <c:v>5519</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5238</c:v>
+                  <c:v>5422</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5077</c:v>
+                  <c:v>5305</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4891</c:v>
+                  <c:v>5167</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4679</c:v>
+                  <c:v>5008</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4442</c:v>
+                  <c:v>4827</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4179</c:v>
+                  <c:v>4624</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3892</c:v>
+                  <c:v>4399</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3583</c:v>
+                  <c:v>4153</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3255</c:v>
+                  <c:v>3886</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2912</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2560</c:v>
+                  <c:v>3298</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2205</c:v>
+                  <c:v>2983</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1855</c:v>
+                  <c:v>2659</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1520</c:v>
+                  <c:v>2331</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1208</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>928</c:v>
+                  <c:v>1688</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>686</c:v>
+                  <c:v>1387</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>486</c:v>
+                  <c:v>1109</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>328</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>210</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>127</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>72</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>38</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>19</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0</c:v>
@@ -3666,7 +3675,7 @@
         <c:axId val="1356387871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43960"/>
+          <c:max val="43980"/>
           <c:min val="43904"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4900,7 +4909,7 @@
   <dimension ref="B1:AG426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4965,7 +4974,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="37">
-        <v>43928</v>
+        <v>43931</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
@@ -4984,7 +4993,7 @@
         <v>144</v>
       </c>
       <c r="F3" s="22">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -5002,7 +5011,7 @@
         <v>174</v>
       </c>
       <c r="F4" s="23">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -5023,7 +5032,7 @@
         <v>242</v>
       </c>
       <c r="F5" s="24">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -5045,7 +5054,7 @@
         <v>306</v>
       </c>
       <c r="F6" s="23">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
@@ -5067,7 +5076,7 @@
         <v>364</v>
       </c>
       <c r="F7" s="24">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -5089,7 +5098,7 @@
         <v>424</v>
       </c>
       <c r="F8" s="23">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -5111,7 +5120,7 @@
         <v>562</v>
       </c>
       <c r="F9" s="24">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
@@ -5133,7 +5142,7 @@
         <v>713</v>
       </c>
       <c r="F10" s="23">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -5154,7 +5163,7 @@
         <v>899</v>
       </c>
       <c r="F11" s="24">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
@@ -5175,7 +5184,7 @@
         <v>1094</v>
       </c>
       <c r="F12" s="23">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -5196,7 +5205,7 @@
         <v>1425</v>
       </c>
       <c r="F13" s="24">
-        <v>1320</v>
+        <v>1302</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -5223,7 +5232,7 @@
         <v>1714</v>
       </c>
       <c r="F14" s="23">
-        <v>1542</v>
+        <v>1522</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -5244,7 +5253,7 @@
         <v>2033</v>
       </c>
       <c r="F15" s="24">
-        <v>1783</v>
+        <v>1761</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -5265,7 +5274,7 @@
         <v>2375</v>
       </c>
       <c r="F16" s="23">
-        <v>2032</v>
+        <v>2008</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -5286,7 +5295,7 @@
         <v>2732</v>
       </c>
       <c r="F17" s="24">
-        <v>2429</v>
+        <v>2404</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
@@ -5311,7 +5320,7 @@
         <v>3092</v>
       </c>
       <c r="F18" s="23">
-        <v>2857</v>
+        <v>2831</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
@@ -5332,7 +5341,7 @@
         <v>3444</v>
       </c>
       <c r="F19" s="24">
-        <v>3158</v>
+        <v>3132</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -5353,7 +5362,7 @@
         <v>3776</v>
       </c>
       <c r="F20" s="23">
-        <v>3704</v>
+        <v>3679</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -5374,7 +5383,7 @@
         <v>4076</v>
       </c>
       <c r="F21" s="24">
-        <v>3978</v>
+        <v>3954</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -5395,7 +5404,7 @@
         <v>4333</v>
       </c>
       <c r="F22" s="23">
-        <v>4264</v>
+        <v>4242</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -5416,7 +5425,7 @@
         <v>4537</v>
       </c>
       <c r="F23" s="24">
-        <v>4567</v>
+        <v>4548</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -5444,7 +5453,7 @@
         <v>4677</v>
       </c>
       <c r="F24" s="23">
-        <v>4804</v>
+        <v>4787</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -5472,7 +5481,7 @@
         <v>4739</v>
       </c>
       <c r="F25" s="24">
-        <v>5071</v>
+        <v>5057</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -5500,7 +5509,7 @@
         <v>4709</v>
       </c>
       <c r="F26" s="23">
-        <v>5298</v>
+        <v>5287</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -5528,7 +5537,7 @@
         <v>4568</v>
       </c>
       <c r="F27" s="24">
-        <v>5447</v>
+        <v>5438</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
@@ -5549,12 +5558,14 @@
       <c r="C28" s="20">
         <v>43929</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="27">
+        <v>5460</v>
+      </c>
       <c r="E28" s="28">
         <v>4295</v>
       </c>
       <c r="F28" s="23">
-        <v>5529</v>
+        <v>5521</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
@@ -5575,12 +5586,14 @@
       <c r="C29" s="19">
         <v>43930</v>
       </c>
-      <c r="D29" s="25"/>
+      <c r="D29" s="25">
+        <v>5551</v>
+      </c>
       <c r="E29" s="29">
         <v>3872</v>
       </c>
       <c r="F29" s="35">
-        <v>5604</v>
+        <v>5530</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
@@ -5601,12 +5614,14 @@
       <c r="C30" s="20">
         <v>43931</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="27">
+        <v>5631</v>
+      </c>
       <c r="E30" s="28">
         <v>3293</v>
       </c>
       <c r="F30" s="23">
-        <v>5660</v>
+        <v>5609</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
@@ -5632,7 +5647,7 @@
         <v>2580</v>
       </c>
       <c r="F31" s="24">
-        <v>5697</v>
+        <v>5677</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="13"/>
@@ -5660,7 +5675,7 @@
         <v>1805</v>
       </c>
       <c r="F32" s="23">
-        <v>5714</v>
+        <v>5706</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -5690,7 +5705,7 @@
         <v>1084</v>
       </c>
       <c r="F33" s="24">
-        <v>5711</v>
+        <v>5719</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
@@ -5719,7 +5734,7 @@
         <v>536</v>
       </c>
       <c r="F34" s="23">
-        <v>5687</v>
+        <v>5715</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
@@ -5748,7 +5763,7 @@
         <v>210</v>
       </c>
       <c r="F35" s="24">
-        <v>5642</v>
+        <v>5693</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5"/>
@@ -5775,7 +5790,7 @@
         <v>63</v>
       </c>
       <c r="F36" s="23">
-        <v>5575</v>
+        <v>5654</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5"/>
@@ -5802,7 +5817,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="24">
-        <v>5486</v>
+        <v>5596</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="13"/>
@@ -5829,7 +5844,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="23">
-        <v>5374</v>
+        <v>5519</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
@@ -5857,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="24">
-        <v>5238</v>
+        <v>5422</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="13"/>
@@ -5884,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="23">
-        <v>5077</v>
+        <v>5305</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5"/>
@@ -5911,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="24">
-        <v>4891</v>
+        <v>5167</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="13"/>
@@ -5938,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="23">
-        <v>4679</v>
+        <v>5008</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5"/>
@@ -5969,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="24">
-        <v>4442</v>
+        <v>4827</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="13"/>
@@ -5996,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="23">
-        <v>4179</v>
+        <v>4624</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
@@ -6023,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="24">
-        <v>3892</v>
+        <v>4399</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="13"/>
@@ -6050,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="23">
-        <v>3583</v>
+        <v>4153</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5"/>
@@ -6077,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="24">
-        <v>3255</v>
+        <v>3886</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="13"/>
@@ -6104,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="23">
-        <v>2912</v>
+        <v>3600</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5"/>
@@ -6131,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="24">
-        <v>2560</v>
+        <v>3298</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="13"/>
@@ -6158,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="35">
-        <v>2205</v>
+        <v>2983</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5"/>
@@ -6185,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="24">
-        <v>1855</v>
+        <v>2659</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="13"/>
@@ -6212,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="23">
-        <v>1520</v>
+        <v>2331</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5"/>
@@ -6239,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="24">
-        <v>1208</v>
+        <v>2005</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="13"/>
@@ -6266,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="23">
-        <v>928</v>
+        <v>1688</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5"/>
@@ -6293,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="24">
-        <v>686</v>
+        <v>1387</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="13"/>
@@ -6320,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="23">
-        <v>486</v>
+        <v>1109</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="5"/>
@@ -6347,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="24">
-        <v>328</v>
+        <v>860</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="13"/>
@@ -6374,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="23">
-        <v>210</v>
+        <v>645</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5"/>
@@ -6401,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="24">
-        <v>127</v>
+        <v>466</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="5"/>
@@ -6422,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="23">
-        <v>72</v>
+        <v>323</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5"/>
@@ -6443,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="24">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="5"/>
@@ -6464,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="23">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5"/>
@@ -6485,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="24">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5"/>
@@ -6506,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="23">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5"/>
@@ -6527,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="24">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5"/>
@@ -6548,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="5"/>
@@ -6569,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5"/>
@@ -6590,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="5"/>

--- a/SIRS MODELS/galicia/summary.xlsx
+++ b/SIRS MODELS/galicia/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9003CFC2-6112-444D-8084-9C50A89697A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD861E62-7C25-46DB-93BA-67CF70729411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,11 +37,10 @@
   <authors>
     <author>tc={0BB39EF3-C699-4B8A-B5AD-E99727BB14D3}</author>
     <author>tc={469D1045-3110-426D-A815-75EE00F843F3}</author>
-    <author>tc={A7000F40-AD28-4ED1-AAC4-5067EC4F6036}</author>
     <author>tc={9B53482F-F4BC-41E2-8946-0D9AAC461CD3}</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{0BB39EF3-C699-4B8A-B5AD-E99727BB14D3}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{0BB39EF3-C699-4B8A-B5AD-E99727BB14D3}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -49,7 +48,7 @@
     FIRST MODEL</t>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{469D1045-3110-426D-A815-75EE00F843F3}">
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{469D1045-3110-426D-A815-75EE00F843F3}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,15 +56,7 @@
     LAST MODEL</t>
       </text>
     </comment>
-    <comment ref="B3" authorId="2" shapeId="0" xr:uid="{A7000F40-AD28-4ED1-AAC4-5067EC4F6036}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    QUARANTINE BEGINING</t>
-      </text>
-    </comment>
-    <comment ref="C50" authorId="3" shapeId="0" xr:uid="{9B53482F-F4BC-41E2-8946-0D9AAC461CD3}">
+    <comment ref="B50" authorId="2" shapeId="0" xr:uid="{9B53482F-F4BC-41E2-8946-0D9AAC461CD3}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,10 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>DAY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>REAL</t>
   </si>
@@ -392,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,12 +430,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,9 +463,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,9 +476,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,7 +582,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SPANISH SIRS MODEL'!$D$2</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -629,7 +605,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$C$3:$C$190</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$B$3:$B$190</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="188"/>
@@ -1202,39 +1178,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$D$3:$D$190</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$3:$C$190</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>131</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>232</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>325</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>435</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>556</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>703</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>855</c:v>
+                  <c:v>885</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1132</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1374</c:v>
@@ -1289,6 +1265,21 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5631</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5747</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5833</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5939</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5973</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,7 +1296,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SPANISH SIRS MODEL'!$E$2</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1329,7 +1320,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$C$3:$C$190</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$B$3:$B$190</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="188"/>
@@ -1902,573 +1893,573 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$E$3:$E$190</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$D$3:$D$190</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>144</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>242</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>306</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>364</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>424</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>562</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>713</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>899</c:v>
+                  <c:v>895</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1419</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2346</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2695</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3742</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4062</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4356</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4620</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4852</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5052</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5221</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5362</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5476</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5567</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5689</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5726</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5749</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5761</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5764</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5759</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5748</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5731</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5710</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5685</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5657</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5626</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5593</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5559</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5523</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5486</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5448</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5409</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5330</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5290</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5209</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5168</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5127</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5086</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5045</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4963</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4922</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4881</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4840</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4799</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4758</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4717</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4676</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4635</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4594</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4554</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4514</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4474</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4434</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4394</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4354</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4314</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4274</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4234</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4195</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4156</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4117</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4078</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4039</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3961</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3922</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3884</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3846</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3808</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3732</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3694</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3656</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3618</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3580</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3543</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3506</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3469</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3432</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3395</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3358</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3285</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3249</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3213</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3177</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3141</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3035</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2965</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2895</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2860</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2825</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2790</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2755</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2653</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2585</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2551</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2518</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2485</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2452</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2419</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2386</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2353</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2287</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2223</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2191</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2159</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2127</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1909</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1788</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1698</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1669</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1611</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1582</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1553</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1524</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1496</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1468</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1303</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1145</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="169">
                   <c:v>1094</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>1425</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1714</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2375</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2732</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3092</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3444</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3776</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4076</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4537</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4677</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4739</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4709</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4568</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4295</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3872</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3293</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2580</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1805</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1084</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>536</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="170">
-                  <c:v>0</c:v>
+                  <c:v>1069</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0</c:v>
+                  <c:v>1044</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0</c:v>
+                  <c:v>1019</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0</c:v>
+                  <c:v>995</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0</c:v>
+                  <c:v>971</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0</c:v>
+                  <c:v>947</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0</c:v>
+                  <c:v>923</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0</c:v>
+                  <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0</c:v>
+                  <c:v>854</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0</c:v>
+                  <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0</c:v>
+                  <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0</c:v>
+                  <c:v>787</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2485,11 +2476,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SPANISH SIRS MODEL'!$F$2</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10/04/2020</c:v>
+                  <c:v>15/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2509,7 +2500,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$C$3:$C$190</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$B$3:$B$190</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="188"/>
@@ -3082,279 +3073,279 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$F$3:$F$190</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$E$3:$E$190</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>127</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>271</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>323</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>378</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>502</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>640</c:v>
+                  <c:v>739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>810</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>991</c:v>
+                  <c:v>1130</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1302</c:v>
+                  <c:v>1468</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1522</c:v>
+                  <c:v>1704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1761</c:v>
+                  <c:v>1957</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2008</c:v>
+                  <c:v>2214</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2404</c:v>
+                  <c:v>2620</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2831</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3132</c:v>
+                  <c:v>3347</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3679</c:v>
+                  <c:v>3879</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3954</c:v>
+                  <c:v>4140</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4242</c:v>
+                  <c:v>4411</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4548</c:v>
+                  <c:v>4696</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4787</c:v>
+                  <c:v>4916</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5057</c:v>
+                  <c:v>5162</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5287</c:v>
+                  <c:v>5370</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5438</c:v>
+                  <c:v>5505</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5521</c:v>
+                  <c:v>5580</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5530</c:v>
+                  <c:v>5574</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5609</c:v>
+                  <c:v>5641</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5677</c:v>
+                  <c:v>5699</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5706</c:v>
+                  <c:v>5783</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5719</c:v>
+                  <c:v>5848</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5715</c:v>
+                  <c:v>5930</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5693</c:v>
+                  <c:v>5951</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5654</c:v>
+                  <c:v>5985</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5596</c:v>
+                  <c:v>5941</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5519</c:v>
+                  <c:v>5887</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5422</c:v>
+                  <c:v>5825</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5305</c:v>
+                  <c:v>5755</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5167</c:v>
+                  <c:v>5678</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5008</c:v>
+                  <c:v>5595</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4827</c:v>
+                  <c:v>5506</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4624</c:v>
+                  <c:v>5411</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4399</c:v>
+                  <c:v>5310</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4153</c:v>
+                  <c:v>5203</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3886</c:v>
+                  <c:v>5091</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3600</c:v>
+                  <c:v>4974</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3298</c:v>
+                  <c:v>4851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2983</c:v>
+                  <c:v>4723</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2659</c:v>
+                  <c:v>4590</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2331</c:v>
+                  <c:v>4452</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2005</c:v>
+                  <c:v>4309</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1688</c:v>
+                  <c:v>4161</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1387</c:v>
+                  <c:v>4008</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1109</c:v>
+                  <c:v>3851</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>860</c:v>
+                  <c:v>3689</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>645</c:v>
+                  <c:v>3523</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>466</c:v>
+                  <c:v>3353</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>323</c:v>
+                  <c:v>3180</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>214</c:v>
+                  <c:v>3004</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>135</c:v>
+                  <c:v>2825</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>81</c:v>
+                  <c:v>2644</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>46</c:v>
+                  <c:v>2462</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>24</c:v>
+                  <c:v>2280</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>12</c:v>
+                  <c:v>2098</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>0</c:v>
@@ -3675,7 +3666,7 @@
         <c:axId val="1356387871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43980"/>
+          <c:max val="43995"/>
           <c:min val="43904"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4581,16 +4572,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>847724</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>184547</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4889,16 +4880,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E2" dT="2020-03-27T09:14:26.82" personId="{1FD46492-6B6C-48C9-8745-353F70AF58A1}" id="{0BB39EF3-C699-4B8A-B5AD-E99727BB14D3}">
+  <threadedComment ref="D2" dT="2020-03-27T09:14:26.82" personId="{1FD46492-6B6C-48C9-8745-353F70AF58A1}" id="{0BB39EF3-C699-4B8A-B5AD-E99727BB14D3}">
     <text>FIRST MODEL</text>
   </threadedComment>
-  <threadedComment ref="F2" dT="2020-03-27T09:14:33.55" personId="{1FD46492-6B6C-48C9-8745-353F70AF58A1}" id="{469D1045-3110-426D-A815-75EE00F843F3}">
+  <threadedComment ref="E2" dT="2020-03-27T09:14:33.55" personId="{1FD46492-6B6C-48C9-8745-353F70AF58A1}" id="{469D1045-3110-426D-A815-75EE00F843F3}">
     <text>LAST MODEL</text>
   </threadedComment>
-  <threadedComment ref="B3" dT="2020-03-27T09:14:17.64" personId="{1FD46492-6B6C-48C9-8745-353F70AF58A1}" id="{A7000F40-AD28-4ED1-AAC4-5067EC4F6036}">
-    <text>QUARANTINE BEGINING</text>
-  </threadedComment>
-  <threadedComment ref="C50" dT="2020-03-23T21:52:10.04" personId="{1FD46492-6B6C-48C9-8745-353F70AF58A1}" id="{9B53482F-F4BC-41E2-8946-0D9AAC461CD3}">
+  <threadedComment ref="B50" dT="2020-03-23T21:52:10.04" personId="{1FD46492-6B6C-48C9-8745-353F70AF58A1}" id="{9B53482F-F4BC-41E2-8946-0D9AAC461CD3}">
     <text>1 month after state emergency</text>
   </threadedComment>
 </ThreadedComments>
@@ -4908,20 +4896,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="2" customWidth="1"/>
-    <col min="8" max="14" width="10.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="2" customWidth="1"/>
-    <col min="16" max="21" width="12.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="2" customWidth="1"/>
+    <col min="7" max="21" width="10.7109375" style="2" customWidth="1"/>
     <col min="22" max="22" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="33" width="9.140625" style="2"/>
   </cols>
@@ -4962,56 +4947,47 @@
     </row>
     <row r="2" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="38">
+      <c r="C2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34">
         <v>43913</v>
       </c>
-      <c r="F2" s="37">
-        <v>43931</v>
+      <c r="E2" s="33">
+        <v>43936</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="17">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19">
         <v>43904</v>
       </c>
-      <c r="D3" s="25">
-        <v>131</v>
-      </c>
-      <c r="E3" s="26">
-        <v>144</v>
-      </c>
-      <c r="F3" s="22">
-        <v>127</v>
+      <c r="C3" s="23">
+        <v>135</v>
+      </c>
+      <c r="D3" s="24">
+        <v>143</v>
+      </c>
+      <c r="E3" s="20">
+        <v>150</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20">
         <v>43905</v>
       </c>
-      <c r="D4" s="27">
-        <v>183</v>
-      </c>
-      <c r="E4" s="28">
-        <v>174</v>
-      </c>
-      <c r="F4" s="23">
-        <v>153</v>
+      <c r="C4" s="25">
+        <v>189</v>
+      </c>
+      <c r="D4" s="26">
+        <v>173</v>
+      </c>
+      <c r="E4" s="21">
+        <v>181</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -5020,19 +4996,16 @@
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="17">
-        <v>2</v>
-      </c>
-      <c r="C5" s="19">
         <v>43906</v>
       </c>
-      <c r="D5" s="25">
-        <v>232</v>
-      </c>
-      <c r="E5" s="29">
-        <v>242</v>
-      </c>
-      <c r="F5" s="24">
-        <v>215</v>
+      <c r="C5" s="23">
+        <v>239</v>
+      </c>
+      <c r="D5" s="27">
+        <v>241</v>
+      </c>
+      <c r="E5" s="22">
+        <v>252</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -5042,19 +5015,16 @@
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20">
         <v>43907</v>
       </c>
-      <c r="D6" s="27">
-        <v>278</v>
-      </c>
-      <c r="E6" s="28">
-        <v>306</v>
-      </c>
-      <c r="F6" s="23">
-        <v>271</v>
+      <c r="C6" s="25">
+        <v>285</v>
+      </c>
+      <c r="D6" s="26">
+        <v>304</v>
+      </c>
+      <c r="E6" s="21">
+        <v>318</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
@@ -5064,19 +5034,16 @@
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="17">
-        <v>4</v>
-      </c>
-      <c r="C7" s="19">
         <v>43908</v>
       </c>
-      <c r="D7" s="25">
-        <v>325</v>
-      </c>
-      <c r="E7" s="29">
-        <v>364</v>
-      </c>
-      <c r="F7" s="24">
-        <v>323</v>
+      <c r="C7" s="23">
+        <v>333</v>
+      </c>
+      <c r="D7" s="27">
+        <v>362</v>
+      </c>
+      <c r="E7" s="22">
+        <v>378</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -5086,19 +5053,16 @@
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
-        <v>5</v>
-      </c>
-      <c r="C8" s="20">
         <v>43909</v>
       </c>
-      <c r="D8" s="27">
-        <v>435</v>
-      </c>
-      <c r="E8" s="28">
-        <v>424</v>
-      </c>
-      <c r="F8" s="23">
-        <v>378</v>
+      <c r="C8" s="25">
+        <v>444</v>
+      </c>
+      <c r="D8" s="26">
+        <v>422</v>
+      </c>
+      <c r="E8" s="21">
+        <v>441</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -5108,19 +5072,16 @@
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="17">
-        <v>6</v>
-      </c>
-      <c r="C9" s="19">
         <v>43910</v>
       </c>
-      <c r="D9" s="25">
-        <v>556</v>
-      </c>
-      <c r="E9" s="29">
-        <v>562</v>
-      </c>
-      <c r="F9" s="24">
-        <v>502</v>
+      <c r="C9" s="23">
+        <v>567</v>
+      </c>
+      <c r="D9" s="27">
+        <v>559</v>
+      </c>
+      <c r="E9" s="22">
+        <v>583</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
@@ -5130,19 +5091,16 @@
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
-        <v>7</v>
-      </c>
-      <c r="C10" s="20">
         <v>43911</v>
       </c>
-      <c r="D10" s="27">
-        <v>703</v>
-      </c>
-      <c r="E10" s="28">
-        <v>713</v>
-      </c>
-      <c r="F10" s="23">
-        <v>640</v>
+      <c r="C10" s="25">
+        <v>721</v>
+      </c>
+      <c r="D10" s="26">
+        <v>710</v>
+      </c>
+      <c r="E10" s="21">
+        <v>739</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -5151,19 +5109,16 @@
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="17">
-        <v>8</v>
-      </c>
-      <c r="C11" s="19">
         <v>43912</v>
       </c>
-      <c r="D11" s="25">
-        <v>855</v>
-      </c>
-      <c r="E11" s="29">
-        <v>899</v>
-      </c>
-      <c r="F11" s="24">
-        <v>810</v>
+      <c r="C11" s="23">
+        <v>885</v>
+      </c>
+      <c r="D11" s="27">
+        <v>895</v>
+      </c>
+      <c r="E11" s="22">
+        <v>930</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
@@ -5172,19 +5127,16 @@
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
-        <v>9</v>
-      </c>
-      <c r="C12" s="20">
         <v>43913</v>
       </c>
-      <c r="D12" s="27">
-        <v>1132</v>
-      </c>
-      <c r="E12" s="28">
-        <v>1094</v>
-      </c>
-      <c r="F12" s="23">
-        <v>991</v>
+      <c r="C12" s="25">
+        <v>1170</v>
+      </c>
+      <c r="D12" s="26">
+        <v>1089</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1130</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -5193,19 +5145,16 @@
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="17">
-        <v>10</v>
-      </c>
-      <c r="C13" s="19">
         <v>43914</v>
       </c>
-      <c r="D13" s="25">
+      <c r="C13" s="23">
         <v>1374</v>
       </c>
-      <c r="E13" s="29">
-        <v>1425</v>
-      </c>
-      <c r="F13" s="24">
-        <v>1302</v>
+      <c r="D13" s="27">
+        <v>1419</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1468</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -5220,19 +5169,16 @@
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
-        <v>11</v>
-      </c>
-      <c r="C14" s="20">
         <v>43915</v>
       </c>
-      <c r="D14" s="27">
+      <c r="C14" s="25">
         <v>1598</v>
       </c>
-      <c r="E14" s="28">
-        <v>1714</v>
-      </c>
-      <c r="F14" s="23">
-        <v>1522</v>
+      <c r="D14" s="26">
+        <v>1701</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1704</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -5241,19 +5187,16 @@
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="17">
-        <v>12</v>
-      </c>
-      <c r="C15" s="19">
         <v>43916</v>
       </c>
-      <c r="D15" s="25">
+      <c r="C15" s="23">
         <v>1832</v>
       </c>
-      <c r="E15" s="29">
-        <v>2033</v>
-      </c>
-      <c r="F15" s="24">
-        <v>1761</v>
+      <c r="D15" s="27">
+        <v>2012</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1957</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -5262,19 +5205,16 @@
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
-        <v>13</v>
-      </c>
-      <c r="C16" s="20">
         <v>43917</v>
       </c>
-      <c r="D16" s="27">
+      <c r="C16" s="25">
         <v>2211</v>
       </c>
-      <c r="E16" s="28">
-        <v>2375</v>
-      </c>
-      <c r="F16" s="23">
-        <v>2008</v>
+      <c r="D16" s="26">
+        <v>2346</v>
+      </c>
+      <c r="E16" s="21">
+        <v>2214</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -5283,19 +5223,16 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="17">
-        <v>14</v>
-      </c>
-      <c r="C17" s="19">
         <v>43918</v>
       </c>
-      <c r="D17" s="25">
+      <c r="C17" s="23">
         <v>2627</v>
       </c>
-      <c r="E17" s="29">
-        <v>2732</v>
-      </c>
-      <c r="F17" s="24">
-        <v>2404</v>
+      <c r="D17" s="27">
+        <v>2695</v>
+      </c>
+      <c r="E17" s="22">
+        <v>2620</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
@@ -5308,19 +5245,16 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
-        <v>15</v>
-      </c>
-      <c r="C18" s="20">
         <v>43919</v>
       </c>
-      <c r="D18" s="27">
+      <c r="C18" s="25">
         <v>2925</v>
       </c>
-      <c r="E18" s="28">
-        <v>3092</v>
-      </c>
-      <c r="F18" s="23">
-        <v>2831</v>
+      <c r="D18" s="26">
+        <v>3050</v>
+      </c>
+      <c r="E18" s="21">
+        <v>3050</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
@@ -5329,19 +5263,16 @@
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="17">
-        <v>16</v>
-      </c>
-      <c r="C19" s="19">
         <v>43920</v>
       </c>
-      <c r="D19" s="25">
+      <c r="C19" s="23">
         <v>3476</v>
       </c>
-      <c r="E19" s="29">
-        <v>3444</v>
-      </c>
-      <c r="F19" s="24">
-        <v>3132</v>
+      <c r="D19" s="27">
+        <v>3402</v>
+      </c>
+      <c r="E19" s="22">
+        <v>3347</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -5350,19 +5281,16 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
-        <v>17</v>
-      </c>
-      <c r="C20" s="20">
         <v>43921</v>
       </c>
-      <c r="D20" s="27">
+      <c r="C20" s="25">
         <v>3758</v>
       </c>
-      <c r="E20" s="28">
-        <v>3776</v>
-      </c>
-      <c r="F20" s="23">
-        <v>3679</v>
+      <c r="D20" s="26">
+        <v>3742</v>
+      </c>
+      <c r="E20" s="21">
+        <v>3879</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -5371,19 +5299,16 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="17">
-        <v>18</v>
-      </c>
-      <c r="C21" s="19">
         <v>43922</v>
       </c>
-      <c r="D21" s="25">
+      <c r="C21" s="23">
         <v>4058</v>
       </c>
-      <c r="E21" s="29">
-        <v>4076</v>
-      </c>
-      <c r="F21" s="24">
-        <v>3954</v>
+      <c r="D21" s="27">
+        <v>4062</v>
+      </c>
+      <c r="E21" s="22">
+        <v>4140</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -5392,19 +5317,16 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
-        <v>19</v>
-      </c>
-      <c r="C22" s="20">
         <v>43923</v>
       </c>
-      <c r="D22" s="27">
+      <c r="C22" s="25">
         <v>4379</v>
       </c>
-      <c r="E22" s="28">
-        <v>4333</v>
-      </c>
-      <c r="F22" s="23">
-        <v>4242</v>
+      <c r="D22" s="26">
+        <v>4356</v>
+      </c>
+      <c r="E22" s="21">
+        <v>4411</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -5413,19 +5335,16 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="17">
-        <v>20</v>
-      </c>
-      <c r="C23" s="19">
         <v>43924</v>
       </c>
-      <c r="D23" s="25">
+      <c r="C23" s="23">
         <v>4635</v>
       </c>
-      <c r="E23" s="29">
-        <v>4537</v>
-      </c>
-      <c r="F23" s="24">
-        <v>4548</v>
+      <c r="D23" s="27">
+        <v>4620</v>
+      </c>
+      <c r="E23" s="22">
+        <v>4696</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -5441,19 +5360,16 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
-        <v>21</v>
-      </c>
-      <c r="C24" s="20">
         <v>43925</v>
       </c>
-      <c r="D24" s="27">
+      <c r="C24" s="25">
         <v>4926</v>
       </c>
-      <c r="E24" s="28">
-        <v>4677</v>
-      </c>
-      <c r="F24" s="23">
-        <v>4787</v>
+      <c r="D24" s="26">
+        <v>4852</v>
+      </c>
+      <c r="E24" s="21">
+        <v>4916</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -5469,19 +5385,16 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="17">
-        <v>22</v>
-      </c>
-      <c r="C25" s="19">
         <v>43926</v>
       </c>
-      <c r="D25" s="25">
+      <c r="C25" s="23">
         <v>5175</v>
       </c>
-      <c r="E25" s="36">
-        <v>4739</v>
-      </c>
-      <c r="F25" s="24">
-        <v>5057</v>
+      <c r="D25" s="27">
+        <v>5052</v>
+      </c>
+      <c r="E25" s="22">
+        <v>5162</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -5497,19 +5410,16 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
-        <v>23</v>
-      </c>
-      <c r="C26" s="20">
         <v>43927</v>
       </c>
-      <c r="D26" s="27">
+      <c r="C26" s="25">
         <v>5342</v>
       </c>
-      <c r="E26" s="28">
-        <v>4709</v>
-      </c>
-      <c r="F26" s="23">
-        <v>5287</v>
+      <c r="D26" s="26">
+        <v>5221</v>
+      </c>
+      <c r="E26" s="21">
+        <v>5370</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -5525,19 +5435,16 @@
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="17">
-        <v>24</v>
-      </c>
-      <c r="C27" s="19">
         <v>43928</v>
       </c>
-      <c r="D27" s="25">
+      <c r="C27" s="23">
         <v>5435</v>
       </c>
-      <c r="E27" s="29">
-        <v>4568</v>
-      </c>
-      <c r="F27" s="24">
-        <v>5438</v>
+      <c r="D27" s="27">
+        <v>5362</v>
+      </c>
+      <c r="E27" s="22">
+        <v>5505</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
@@ -5553,19 +5460,16 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
-        <v>25</v>
-      </c>
-      <c r="C28" s="20">
         <v>43929</v>
       </c>
-      <c r="D28" s="27">
+      <c r="C28" s="25">
         <v>5460</v>
       </c>
-      <c r="E28" s="28">
-        <v>4295</v>
-      </c>
-      <c r="F28" s="23">
-        <v>5521</v>
+      <c r="D28" s="26">
+        <v>5476</v>
+      </c>
+      <c r="E28" s="21">
+        <v>5580</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
@@ -5581,19 +5485,16 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="17">
-        <v>26</v>
-      </c>
-      <c r="C29" s="19">
         <v>43930</v>
       </c>
-      <c r="D29" s="25">
+      <c r="C29" s="23">
         <v>5551</v>
       </c>
-      <c r="E29" s="29">
-        <v>3872</v>
-      </c>
-      <c r="F29" s="35">
-        <v>5530</v>
+      <c r="D29" s="27">
+        <v>5567</v>
+      </c>
+      <c r="E29" s="22">
+        <v>5574</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
@@ -5609,19 +5510,16 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
-        <v>27</v>
-      </c>
-      <c r="C30" s="20">
         <v>43931</v>
       </c>
-      <c r="D30" s="27">
+      <c r="C30" s="25">
         <v>5631</v>
       </c>
-      <c r="E30" s="28">
-        <v>3293</v>
-      </c>
-      <c r="F30" s="23">
-        <v>5609</v>
+      <c r="D30" s="26">
+        <v>5637</v>
+      </c>
+      <c r="E30" s="21">
+        <v>5641</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
@@ -5637,17 +5535,16 @@
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="17">
-        <v>28</v>
-      </c>
-      <c r="C31" s="19">
         <v>43932</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="29">
-        <v>2580</v>
-      </c>
-      <c r="F31" s="24">
-        <v>5677</v>
+      <c r="C31" s="23">
+        <v>5747</v>
+      </c>
+      <c r="D31" s="27">
+        <v>5689</v>
+      </c>
+      <c r="E31" s="22">
+        <v>5699</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="13"/>
@@ -5665,17 +5562,16 @@
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
-        <v>29</v>
-      </c>
-      <c r="C32" s="20">
         <v>43933</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28">
-        <v>1805</v>
-      </c>
-      <c r="F32" s="23">
-        <v>5706</v>
+      <c r="C32" s="25">
+        <v>5833</v>
+      </c>
+      <c r="D32" s="26">
+        <v>5726</v>
+      </c>
+      <c r="E32" s="21">
+        <v>5783</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -5695,17 +5591,16 @@
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B33" s="17">
-        <v>30</v>
-      </c>
-      <c r="C33" s="19">
         <v>43934</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="29">
-        <v>1084</v>
-      </c>
-      <c r="F33" s="24">
-        <v>5719</v>
+      <c r="C33" s="23">
+        <v>5939</v>
+      </c>
+      <c r="D33" s="27">
+        <v>5749</v>
+      </c>
+      <c r="E33" s="22">
+        <v>5848</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
@@ -5724,17 +5619,16 @@
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B34" s="18">
-        <v>31</v>
-      </c>
-      <c r="C34" s="20">
         <v>43935</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28">
-        <v>536</v>
-      </c>
-      <c r="F34" s="23">
-        <v>5715</v>
+      <c r="C34" s="25">
+        <v>5973</v>
+      </c>
+      <c r="D34" s="26">
+        <v>5761</v>
+      </c>
+      <c r="E34" s="21">
+        <v>5930</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
@@ -5753,17 +5647,16 @@
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B35" s="17">
-        <v>32</v>
-      </c>
-      <c r="C35" s="19">
         <v>43936</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="29">
-        <v>210</v>
-      </c>
-      <c r="F35" s="24">
-        <v>5693</v>
+      <c r="C35" s="23">
+        <v>6019</v>
+      </c>
+      <c r="D35" s="27">
+        <v>5764</v>
+      </c>
+      <c r="E35" s="22">
+        <v>5951</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5"/>
@@ -5780,17 +5673,14 @@
     </row>
     <row r="36" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B36" s="18">
-        <v>33</v>
-      </c>
-      <c r="C36" s="20">
         <v>43937</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28">
-        <v>63</v>
-      </c>
-      <c r="F36" s="23">
-        <v>5654</v>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26">
+        <v>5759</v>
+      </c>
+      <c r="E36" s="21">
+        <v>5985</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5"/>
@@ -5807,17 +5697,14 @@
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B37" s="17">
-        <v>34</v>
-      </c>
-      <c r="C37" s="19">
         <v>43938</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="29">
-        <v>14</v>
-      </c>
-      <c r="F37" s="24">
-        <v>5596</v>
+      <c r="C37" s="23"/>
+      <c r="D37" s="27">
+        <v>5748</v>
+      </c>
+      <c r="E37" s="22">
+        <v>5941</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="13"/>
@@ -5834,17 +5721,14 @@
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B38" s="18">
-        <v>35</v>
-      </c>
-      <c r="C38" s="20">
         <v>43939</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="28">
-        <v>2</v>
-      </c>
-      <c r="F38" s="23">
-        <v>5519</v>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26">
+        <v>5731</v>
+      </c>
+      <c r="E38" s="21">
+        <v>5887</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
@@ -5862,17 +5746,14 @@
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B39" s="17">
-        <v>36</v>
-      </c>
-      <c r="C39" s="19">
         <v>43940</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="36">
-        <v>0</v>
-      </c>
-      <c r="F39" s="24">
-        <v>5422</v>
+      <c r="C39" s="23"/>
+      <c r="D39" s="27">
+        <v>5710</v>
+      </c>
+      <c r="E39" s="22">
+        <v>5825</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="13"/>
@@ -5889,17 +5770,14 @@
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B40" s="18">
-        <v>37</v>
-      </c>
-      <c r="C40" s="20">
         <v>43941</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28">
-        <v>0</v>
-      </c>
-      <c r="F40" s="23">
-        <v>5305</v>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26">
+        <v>5685</v>
+      </c>
+      <c r="E40" s="21">
+        <v>5755</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5"/>
@@ -5916,17 +5794,14 @@
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B41" s="17">
-        <v>38</v>
-      </c>
-      <c r="C41" s="19">
         <v>43942</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="29">
-        <v>0</v>
-      </c>
-      <c r="F41" s="24">
-        <v>5167</v>
+      <c r="C41" s="23"/>
+      <c r="D41" s="27">
+        <v>5657</v>
+      </c>
+      <c r="E41" s="22">
+        <v>5678</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="13"/>
@@ -5943,17 +5818,14 @@
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B42" s="18">
-        <v>39</v>
-      </c>
-      <c r="C42" s="20">
         <v>43943</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28">
-        <v>0</v>
-      </c>
-      <c r="F42" s="23">
-        <v>5008</v>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26">
+        <v>5626</v>
+      </c>
+      <c r="E42" s="21">
+        <v>5595</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5"/>
@@ -5974,17 +5846,14 @@
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B43" s="17">
-        <v>40</v>
-      </c>
-      <c r="C43" s="19">
         <v>43944</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="29">
-        <v>0</v>
-      </c>
-      <c r="F43" s="24">
-        <v>4827</v>
+      <c r="C43" s="23"/>
+      <c r="D43" s="27">
+        <v>5593</v>
+      </c>
+      <c r="E43" s="22">
+        <v>5506</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="13"/>
@@ -6001,17 +5870,14 @@
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B44" s="18">
-        <v>41</v>
-      </c>
-      <c r="C44" s="20">
         <v>43945</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="28">
-        <v>0</v>
-      </c>
-      <c r="F44" s="23">
-        <v>4624</v>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26">
+        <v>5559</v>
+      </c>
+      <c r="E44" s="21">
+        <v>5411</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
@@ -6028,17 +5894,14 @@
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B45" s="17">
-        <v>42</v>
-      </c>
-      <c r="C45" s="19">
         <v>43946</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="29">
-        <v>0</v>
-      </c>
-      <c r="F45" s="24">
-        <v>4399</v>
+      <c r="C45" s="23"/>
+      <c r="D45" s="27">
+        <v>5523</v>
+      </c>
+      <c r="E45" s="22">
+        <v>5310</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="13"/>
@@ -6055,17 +5918,14 @@
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B46" s="18">
-        <v>43</v>
-      </c>
-      <c r="C46" s="20">
         <v>43947</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="28">
-        <v>0</v>
-      </c>
-      <c r="F46" s="23">
-        <v>4153</v>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26">
+        <v>5486</v>
+      </c>
+      <c r="E46" s="21">
+        <v>5203</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5"/>
@@ -6082,17 +5942,14 @@
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B47" s="17">
-        <v>44</v>
-      </c>
-      <c r="C47" s="19">
         <v>43948</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="29">
-        <v>0</v>
-      </c>
-      <c r="F47" s="24">
-        <v>3886</v>
+      <c r="C47" s="23"/>
+      <c r="D47" s="27">
+        <v>5448</v>
+      </c>
+      <c r="E47" s="22">
+        <v>5091</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="13"/>
@@ -6109,17 +5966,14 @@
     </row>
     <row r="48" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B48" s="18">
-        <v>45</v>
-      </c>
-      <c r="C48" s="20">
         <v>43949</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="28">
-        <v>0</v>
-      </c>
-      <c r="F48" s="23">
-        <v>3600</v>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26">
+        <v>5409</v>
+      </c>
+      <c r="E48" s="21">
+        <v>4974</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5"/>
@@ -6136,17 +5990,14 @@
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="17">
-        <v>46</v>
-      </c>
-      <c r="C49" s="19">
         <v>43950</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="29">
-        <v>0</v>
-      </c>
-      <c r="F49" s="24">
-        <v>3298</v>
+      <c r="C49" s="23"/>
+      <c r="D49" s="27">
+        <v>5370</v>
+      </c>
+      <c r="E49" s="22">
+        <v>4851</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="13"/>
@@ -6163,17 +6014,14 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="18">
-        <v>47</v>
-      </c>
-      <c r="C50" s="20">
         <v>43951</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="28">
-        <v>0</v>
-      </c>
-      <c r="F50" s="35">
-        <v>2983</v>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26">
+        <v>5330</v>
+      </c>
+      <c r="E50" s="32">
+        <v>4723</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5"/>
@@ -6190,17 +6038,14 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="17">
-        <v>48</v>
-      </c>
-      <c r="C51" s="19">
         <v>43952</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="29">
-        <v>0</v>
-      </c>
-      <c r="F51" s="24">
-        <v>2659</v>
+      <c r="C51" s="23"/>
+      <c r="D51" s="27">
+        <v>5290</v>
+      </c>
+      <c r="E51" s="22">
+        <v>4590</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="13"/>
@@ -6217,17 +6062,14 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="18">
-        <v>49</v>
-      </c>
-      <c r="C52" s="20">
         <v>43953</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="28">
-        <v>0</v>
-      </c>
-      <c r="F52" s="23">
-        <v>2331</v>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26">
+        <v>5250</v>
+      </c>
+      <c r="E52" s="21">
+        <v>4452</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5"/>
@@ -6244,17 +6086,14 @@
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="17">
-        <v>50</v>
-      </c>
-      <c r="C53" s="19">
         <v>43954</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="29">
-        <v>0</v>
-      </c>
-      <c r="F53" s="24">
-        <v>2005</v>
+      <c r="C53" s="23"/>
+      <c r="D53" s="27">
+        <v>5209</v>
+      </c>
+      <c r="E53" s="22">
+        <v>4309</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="13"/>
@@ -6271,17 +6110,14 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="18">
-        <v>51</v>
-      </c>
-      <c r="C54" s="20">
         <v>43955</v>
       </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="28">
-        <v>0</v>
-      </c>
-      <c r="F54" s="23">
-        <v>1688</v>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26">
+        <v>5168</v>
+      </c>
+      <c r="E54" s="21">
+        <v>4161</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5"/>
@@ -6298,17 +6134,14 @@
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="17">
-        <v>52</v>
-      </c>
-      <c r="C55" s="19">
         <v>43956</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="29">
-        <v>0</v>
-      </c>
-      <c r="F55" s="24">
-        <v>1387</v>
+      <c r="C55" s="23"/>
+      <c r="D55" s="27">
+        <v>5127</v>
+      </c>
+      <c r="E55" s="22">
+        <v>4008</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="13"/>
@@ -6325,17 +6158,14 @@
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" s="18">
-        <v>53</v>
-      </c>
-      <c r="C56" s="20">
         <v>43957</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="28">
-        <v>0</v>
-      </c>
-      <c r="F56" s="23">
-        <v>1109</v>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26">
+        <v>5086</v>
+      </c>
+      <c r="E56" s="21">
+        <v>3851</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="5"/>
@@ -6352,17 +6182,14 @@
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" s="17">
-        <v>54</v>
-      </c>
-      <c r="C57" s="19">
         <v>43958</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="29">
-        <v>0</v>
-      </c>
-      <c r="F57" s="24">
-        <v>860</v>
+      <c r="C57" s="23"/>
+      <c r="D57" s="27">
+        <v>5045</v>
+      </c>
+      <c r="E57" s="22">
+        <v>3689</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="13"/>
@@ -6379,17 +6206,14 @@
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="18">
-        <v>55</v>
-      </c>
-      <c r="C58" s="20">
         <v>43959</v>
       </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="28">
-        <v>0</v>
-      </c>
-      <c r="F58" s="23">
-        <v>645</v>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26">
+        <v>5004</v>
+      </c>
+      <c r="E58" s="21">
+        <v>3523</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5"/>
@@ -6406,17 +6230,14 @@
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59" s="17">
-        <v>56</v>
-      </c>
-      <c r="C59" s="19">
         <v>43960</v>
       </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="29">
-        <v>0</v>
-      </c>
-      <c r="F59" s="24">
-        <v>466</v>
+      <c r="C59" s="23"/>
+      <c r="D59" s="27">
+        <v>4963</v>
+      </c>
+      <c r="E59" s="22">
+        <v>3353</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="5"/>
@@ -6427,17 +6248,14 @@
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" s="18">
-        <v>57</v>
-      </c>
-      <c r="C60" s="20">
         <v>43961</v>
       </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="28">
-        <v>0</v>
-      </c>
-      <c r="F60" s="23">
-        <v>323</v>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26">
+        <v>4922</v>
+      </c>
+      <c r="E60" s="21">
+        <v>3180</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5"/>
@@ -6448,17 +6266,14 @@
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61" s="17">
-        <v>58</v>
-      </c>
-      <c r="C61" s="19">
         <v>43962</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="29">
-        <v>0</v>
-      </c>
-      <c r="F61" s="24">
-        <v>214</v>
+      <c r="C61" s="23"/>
+      <c r="D61" s="27">
+        <v>4881</v>
+      </c>
+      <c r="E61" s="22">
+        <v>3004</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="5"/>
@@ -6469,17 +6284,14 @@
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B62" s="18">
-        <v>59</v>
-      </c>
-      <c r="C62" s="20">
         <v>43963</v>
       </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="28">
-        <v>0</v>
-      </c>
-      <c r="F62" s="23">
-        <v>135</v>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26">
+        <v>4840</v>
+      </c>
+      <c r="E62" s="21">
+        <v>2825</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5"/>
@@ -6490,17 +6302,14 @@
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="17">
-        <v>60</v>
-      </c>
-      <c r="C63" s="19">
         <v>43964</v>
       </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="29">
-        <v>0</v>
-      </c>
-      <c r="F63" s="24">
-        <v>81</v>
+      <c r="C63" s="23"/>
+      <c r="D63" s="27">
+        <v>4799</v>
+      </c>
+      <c r="E63" s="22">
+        <v>2644</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5"/>
@@ -6511,17 +6320,14 @@
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="18">
-        <v>61</v>
-      </c>
-      <c r="C64" s="20">
         <v>43965</v>
       </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="28">
-        <v>0</v>
-      </c>
-      <c r="F64" s="23">
-        <v>46</v>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26">
+        <v>4758</v>
+      </c>
+      <c r="E64" s="21">
+        <v>2462</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5"/>
@@ -6532,17 +6338,14 @@
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" s="17">
-        <v>62</v>
-      </c>
-      <c r="C65" s="19">
         <v>43966</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="29">
-        <v>0</v>
-      </c>
-      <c r="F65" s="24">
-        <v>24</v>
+      <c r="C65" s="23"/>
+      <c r="D65" s="27">
+        <v>4717</v>
+      </c>
+      <c r="E65" s="22">
+        <v>2280</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5"/>
@@ -6553,17 +6356,14 @@
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66" s="18">
-        <v>63</v>
-      </c>
-      <c r="C66" s="20">
         <v>43967</v>
       </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="28">
-        <v>0</v>
-      </c>
-      <c r="F66" s="23">
-        <v>12</v>
+      <c r="C66" s="25"/>
+      <c r="D66" s="26">
+        <v>4676</v>
+      </c>
+      <c r="E66" s="21">
+        <v>2098</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="5"/>
@@ -6574,17 +6374,14 @@
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" s="17">
-        <v>64</v>
-      </c>
-      <c r="C67" s="19">
         <v>43968</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="29">
-        <v>0</v>
-      </c>
-      <c r="F67" s="24">
-        <v>5</v>
+      <c r="C67" s="23"/>
+      <c r="D67" s="27">
+        <v>4635</v>
+      </c>
+      <c r="E67" s="22">
+        <v>1918</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5"/>
@@ -6595,17 +6392,14 @@
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" s="18">
-        <v>65</v>
-      </c>
-      <c r="C68" s="20">
         <v>43969</v>
       </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="28">
-        <v>0</v>
-      </c>
-      <c r="F68" s="23">
-        <v>2</v>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26">
+        <v>4594</v>
+      </c>
+      <c r="E68" s="21">
+        <v>1741</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="5"/>
@@ -6616,17 +6410,14 @@
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" s="17">
-        <v>66</v>
-      </c>
-      <c r="C69" s="19">
         <v>43970</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="29">
-        <v>0</v>
-      </c>
-      <c r="F69" s="24">
-        <v>0</v>
+      <c r="C69" s="23"/>
+      <c r="D69" s="27">
+        <v>4554</v>
+      </c>
+      <c r="E69" s="22">
+        <v>1568</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5"/>
@@ -6637,17 +6428,14 @@
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" s="18">
-        <v>67</v>
-      </c>
-      <c r="C70" s="20">
         <v>43971</v>
       </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="28">
-        <v>0</v>
-      </c>
-      <c r="F70" s="23">
-        <v>0</v>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26">
+        <v>4514</v>
+      </c>
+      <c r="E70" s="21">
+        <v>1400</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5"/>
@@ -6658,17 +6446,14 @@
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" s="17">
-        <v>68</v>
-      </c>
-      <c r="C71" s="19">
         <v>43972</v>
       </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="29">
-        <v>0</v>
-      </c>
-      <c r="F71" s="24">
-        <v>0</v>
+      <c r="C71" s="23"/>
+      <c r="D71" s="27">
+        <v>4474</v>
+      </c>
+      <c r="E71" s="22">
+        <v>1238</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5"/>
@@ -6679,17 +6464,14 @@
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" s="18">
-        <v>69</v>
-      </c>
-      <c r="C72" s="20">
         <v>43973</v>
       </c>
-      <c r="D72" s="27"/>
-      <c r="E72" s="28">
-        <v>0</v>
-      </c>
-      <c r="F72" s="23">
-        <v>0</v>
+      <c r="C72" s="25"/>
+      <c r="D72" s="26">
+        <v>4434</v>
+      </c>
+      <c r="E72" s="21">
+        <v>1083</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5"/>
@@ -6700,17 +6482,14 @@
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" s="17">
-        <v>70</v>
-      </c>
-      <c r="C73" s="19">
         <v>43974</v>
       </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="29">
-        <v>0</v>
-      </c>
-      <c r="F73" s="24">
-        <v>0</v>
+      <c r="C73" s="23"/>
+      <c r="D73" s="27">
+        <v>4394</v>
+      </c>
+      <c r="E73" s="22">
+        <v>937</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="5"/>
@@ -6721,17 +6500,14 @@
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" s="18">
-        <v>71</v>
-      </c>
-      <c r="C74" s="20">
         <v>43975</v>
       </c>
-      <c r="D74" s="27"/>
-      <c r="E74" s="28">
-        <v>0</v>
-      </c>
-      <c r="F74" s="23">
-        <v>0</v>
+      <c r="C74" s="25"/>
+      <c r="D74" s="26">
+        <v>4354</v>
+      </c>
+      <c r="E74" s="21">
+        <v>801</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5"/>
@@ -6742,17 +6518,14 @@
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" s="17">
-        <v>72</v>
-      </c>
-      <c r="C75" s="19">
         <v>43976</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="29">
-        <v>0</v>
-      </c>
-      <c r="F75" s="24">
-        <v>0</v>
+      <c r="C75" s="23"/>
+      <c r="D75" s="27">
+        <v>4314</v>
+      </c>
+      <c r="E75" s="22">
+        <v>676</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5"/>
@@ -6763,17 +6536,14 @@
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="18">
-        <v>73</v>
-      </c>
-      <c r="C76" s="20">
         <v>43977</v>
       </c>
-      <c r="D76" s="27"/>
-      <c r="E76" s="28">
-        <v>0</v>
-      </c>
-      <c r="F76" s="23">
-        <v>0</v>
+      <c r="C76" s="25"/>
+      <c r="D76" s="26">
+        <v>4274</v>
+      </c>
+      <c r="E76" s="21">
+        <v>563</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5"/>
@@ -6784,17 +6554,14 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" s="17">
-        <v>74</v>
-      </c>
-      <c r="C77" s="19">
         <v>43978</v>
       </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="29">
-        <v>0</v>
-      </c>
-      <c r="F77" s="24">
-        <v>0</v>
+      <c r="C77" s="23"/>
+      <c r="D77" s="27">
+        <v>4234</v>
+      </c>
+      <c r="E77" s="22">
+        <v>462</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5"/>
@@ -6805,17 +6572,14 @@
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" s="18">
-        <v>75</v>
-      </c>
-      <c r="C78" s="20">
         <v>43979</v>
       </c>
-      <c r="D78" s="27"/>
-      <c r="E78" s="28">
-        <v>0</v>
-      </c>
-      <c r="F78" s="23">
-        <v>0</v>
+      <c r="C78" s="25"/>
+      <c r="D78" s="26">
+        <v>4195</v>
+      </c>
+      <c r="E78" s="21">
+        <v>373</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5"/>
@@ -6826,17 +6590,14 @@
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" s="17">
-        <v>76</v>
-      </c>
-      <c r="C79" s="19">
         <v>43980</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="29">
-        <v>0</v>
-      </c>
-      <c r="F79" s="24">
-        <v>0</v>
+      <c r="C79" s="23"/>
+      <c r="D79" s="27">
+        <v>4156</v>
+      </c>
+      <c r="E79" s="22">
+        <v>296</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5"/>
@@ -6847,17 +6608,14 @@
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" s="18">
-        <v>77</v>
-      </c>
-      <c r="C80" s="20">
         <v>43981</v>
       </c>
-      <c r="D80" s="27"/>
-      <c r="E80" s="28">
-        <v>0</v>
-      </c>
-      <c r="F80" s="23">
-        <v>0</v>
+      <c r="C80" s="25"/>
+      <c r="D80" s="26">
+        <v>4117</v>
+      </c>
+      <c r="E80" s="21">
+        <v>231</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5"/>
@@ -6868,17 +6626,14 @@
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B81" s="17">
-        <v>78</v>
-      </c>
-      <c r="C81" s="19">
         <v>43982</v>
       </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="29">
-        <v>0</v>
-      </c>
-      <c r="F81" s="24">
-        <v>0</v>
+      <c r="C81" s="23"/>
+      <c r="D81" s="27">
+        <v>4078</v>
+      </c>
+      <c r="E81" s="22">
+        <v>177</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5"/>
@@ -6889,17 +6644,14 @@
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B82" s="18">
-        <v>79</v>
-      </c>
-      <c r="C82" s="20">
         <v>43983</v>
       </c>
-      <c r="D82" s="27"/>
-      <c r="E82" s="28">
-        <v>0</v>
-      </c>
-      <c r="F82" s="23">
-        <v>0</v>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26">
+        <v>4039</v>
+      </c>
+      <c r="E82" s="21">
+        <v>133</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5"/>
@@ -6910,17 +6662,14 @@
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B83" s="17">
-        <v>80</v>
-      </c>
-      <c r="C83" s="19">
         <v>43984</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="29">
-        <v>0</v>
-      </c>
-      <c r="F83" s="24">
-        <v>0</v>
+      <c r="C83" s="23"/>
+      <c r="D83" s="27">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="22">
+        <v>98</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="5"/>
@@ -6931,17 +6680,14 @@
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84" s="18">
-        <v>81</v>
-      </c>
-      <c r="C84" s="20">
         <v>43985</v>
       </c>
-      <c r="D84" s="27"/>
-      <c r="E84" s="28">
-        <v>0</v>
-      </c>
-      <c r="F84" s="23">
-        <v>0</v>
+      <c r="C84" s="25"/>
+      <c r="D84" s="26">
+        <v>3961</v>
+      </c>
+      <c r="E84" s="21">
+        <v>70</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5"/>
@@ -6952,17 +6698,14 @@
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B85" s="17">
-        <v>82</v>
-      </c>
-      <c r="C85" s="19">
         <v>43986</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="29">
-        <v>0</v>
-      </c>
-      <c r="F85" s="24">
-        <v>0</v>
+      <c r="C85" s="23"/>
+      <c r="D85" s="27">
+        <v>3922</v>
+      </c>
+      <c r="E85" s="22">
+        <v>49</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5"/>
@@ -6973,17 +6716,14 @@
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B86" s="18">
-        <v>83</v>
-      </c>
-      <c r="C86" s="20">
         <v>43987</v>
       </c>
-      <c r="D86" s="27"/>
-      <c r="E86" s="28">
-        <v>0</v>
-      </c>
-      <c r="F86" s="23">
-        <v>0</v>
+      <c r="C86" s="25"/>
+      <c r="D86" s="26">
+        <v>3884</v>
+      </c>
+      <c r="E86" s="21">
+        <v>33</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="5"/>
@@ -6994,17 +6734,14 @@
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B87" s="17">
-        <v>84</v>
-      </c>
-      <c r="C87" s="19">
         <v>43988</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="29">
-        <v>0</v>
-      </c>
-      <c r="F87" s="24">
-        <v>0</v>
+      <c r="C87" s="23"/>
+      <c r="D87" s="27">
+        <v>3846</v>
+      </c>
+      <c r="E87" s="22">
+        <v>22</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5"/>
@@ -7015,17 +6752,14 @@
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B88" s="18">
-        <v>85</v>
-      </c>
-      <c r="C88" s="20">
         <v>43989</v>
       </c>
-      <c r="D88" s="27"/>
-      <c r="E88" s="28">
-        <v>0</v>
-      </c>
-      <c r="F88" s="23">
-        <v>0</v>
+      <c r="C88" s="25"/>
+      <c r="D88" s="26">
+        <v>3808</v>
+      </c>
+      <c r="E88" s="21">
+        <v>14</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5"/>
@@ -7036,17 +6770,14 @@
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B89" s="17">
-        <v>86</v>
-      </c>
-      <c r="C89" s="19">
         <v>43990</v>
       </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="29">
-        <v>0</v>
-      </c>
-      <c r="F89" s="24">
-        <v>0</v>
+      <c r="C89" s="23"/>
+      <c r="D89" s="27">
+        <v>3770</v>
+      </c>
+      <c r="E89" s="22">
+        <v>9</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5"/>
@@ -7057,17 +6788,14 @@
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B90" s="18">
-        <v>87</v>
-      </c>
-      <c r="C90" s="20">
         <v>43991</v>
       </c>
-      <c r="D90" s="27"/>
-      <c r="E90" s="28">
-        <v>0</v>
-      </c>
-      <c r="F90" s="23">
-        <v>0</v>
+      <c r="C90" s="25"/>
+      <c r="D90" s="26">
+        <v>3732</v>
+      </c>
+      <c r="E90" s="21">
+        <v>5</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5"/>
@@ -7078,17 +6806,14 @@
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B91" s="17">
-        <v>88</v>
-      </c>
-      <c r="C91" s="19">
         <v>43992</v>
       </c>
-      <c r="D91" s="25"/>
-      <c r="E91" s="29">
-        <v>0</v>
-      </c>
-      <c r="F91" s="24">
-        <v>0</v>
+      <c r="C91" s="23"/>
+      <c r="D91" s="27">
+        <v>3694</v>
+      </c>
+      <c r="E91" s="22">
+        <v>3</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5"/>
@@ -7099,17 +6824,14 @@
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B92" s="18">
-        <v>89</v>
-      </c>
-      <c r="C92" s="20">
         <v>43993</v>
       </c>
-      <c r="D92" s="27"/>
-      <c r="E92" s="28">
-        <v>0</v>
-      </c>
-      <c r="F92" s="23">
-        <v>0</v>
+      <c r="C92" s="25"/>
+      <c r="D92" s="26">
+        <v>3656</v>
+      </c>
+      <c r="E92" s="21">
+        <v>1</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="5"/>
@@ -7120,16 +6842,13 @@
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B93" s="17">
-        <v>90</v>
-      </c>
-      <c r="C93" s="19">
         <v>43994</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="29">
-        <v>0</v>
-      </c>
-      <c r="F93" s="24">
+      <c r="C93" s="23"/>
+      <c r="D93" s="27">
+        <v>3618</v>
+      </c>
+      <c r="E93" s="22">
         <v>0</v>
       </c>
       <c r="G93" s="4"/>
@@ -7141,16 +6860,13 @@
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B94" s="18">
-        <v>91</v>
-      </c>
-      <c r="C94" s="20">
         <v>43995</v>
       </c>
-      <c r="D94" s="27"/>
-      <c r="E94" s="28">
-        <v>0</v>
-      </c>
-      <c r="F94" s="23">
+      <c r="C94" s="25"/>
+      <c r="D94" s="26">
+        <v>3580</v>
+      </c>
+      <c r="E94" s="21">
         <v>0</v>
       </c>
       <c r="G94" s="4"/>
@@ -7162,16 +6878,13 @@
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B95" s="17">
-        <v>92</v>
-      </c>
-      <c r="C95" s="19">
         <v>43996</v>
       </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="29">
-        <v>0</v>
-      </c>
-      <c r="F95" s="24">
+      <c r="C95" s="23"/>
+      <c r="D95" s="27">
+        <v>3543</v>
+      </c>
+      <c r="E95" s="22">
         <v>0</v>
       </c>
       <c r="G95" s="4"/>
@@ -7183,16 +6896,13 @@
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="18">
-        <v>93</v>
-      </c>
-      <c r="C96" s="20">
         <v>43997</v>
       </c>
-      <c r="D96" s="27"/>
-      <c r="E96" s="28">
-        <v>0</v>
-      </c>
-      <c r="F96" s="23">
+      <c r="C96" s="25"/>
+      <c r="D96" s="26">
+        <v>3506</v>
+      </c>
+      <c r="E96" s="21">
         <v>0</v>
       </c>
       <c r="G96" s="4"/>
@@ -7204,16 +6914,13 @@
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B97" s="17">
-        <v>94</v>
-      </c>
-      <c r="C97" s="19">
         <v>43998</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="29">
-        <v>0</v>
-      </c>
-      <c r="F97" s="24">
+      <c r="C97" s="23"/>
+      <c r="D97" s="27">
+        <v>3469</v>
+      </c>
+      <c r="E97" s="22">
         <v>0</v>
       </c>
       <c r="G97" s="4"/>
@@ -7225,16 +6932,13 @@
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98" s="18">
-        <v>95</v>
-      </c>
-      <c r="C98" s="20">
         <v>43999</v>
       </c>
-      <c r="D98" s="27"/>
-      <c r="E98" s="28">
-        <v>0</v>
-      </c>
-      <c r="F98" s="23">
+      <c r="C98" s="25"/>
+      <c r="D98" s="26">
+        <v>3432</v>
+      </c>
+      <c r="E98" s="21">
         <v>0</v>
       </c>
       <c r="G98" s="4"/>
@@ -7246,16 +6950,13 @@
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B99" s="17">
-        <v>96</v>
-      </c>
-      <c r="C99" s="19">
         <v>44000</v>
       </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="29">
-        <v>0</v>
-      </c>
-      <c r="F99" s="24">
+      <c r="C99" s="23"/>
+      <c r="D99" s="27">
+        <v>3395</v>
+      </c>
+      <c r="E99" s="22">
         <v>0</v>
       </c>
       <c r="G99" s="4"/>
@@ -7267,16 +6968,13 @@
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B100" s="18">
-        <v>97</v>
-      </c>
-      <c r="C100" s="20">
         <v>44001</v>
       </c>
-      <c r="D100" s="27"/>
-      <c r="E100" s="28">
-        <v>0</v>
-      </c>
-      <c r="F100" s="23">
+      <c r="C100" s="25"/>
+      <c r="D100" s="26">
+        <v>3358</v>
+      </c>
+      <c r="E100" s="21">
         <v>0</v>
       </c>
       <c r="G100" s="4"/>
@@ -7288,16 +6986,13 @@
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B101" s="17">
-        <v>98</v>
-      </c>
-      <c r="C101" s="19">
         <v>44002</v>
       </c>
-      <c r="D101" s="25"/>
-      <c r="E101" s="29">
-        <v>0</v>
-      </c>
-      <c r="F101" s="24">
+      <c r="C101" s="23"/>
+      <c r="D101" s="27">
+        <v>3321</v>
+      </c>
+      <c r="E101" s="22">
         <v>0</v>
       </c>
       <c r="G101" s="4"/>
@@ -7309,16 +7004,13 @@
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B102" s="18">
-        <v>99</v>
-      </c>
-      <c r="C102" s="20">
         <v>44003</v>
       </c>
-      <c r="D102" s="27"/>
-      <c r="E102" s="28">
-        <v>0</v>
-      </c>
-      <c r="F102" s="23">
+      <c r="C102" s="25"/>
+      <c r="D102" s="26">
+        <v>3285</v>
+      </c>
+      <c r="E102" s="21">
         <v>0</v>
       </c>
       <c r="G102" s="4"/>
@@ -7330,16 +7022,13 @@
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B103" s="17">
-        <v>100</v>
-      </c>
-      <c r="C103" s="19">
         <v>44004</v>
       </c>
-      <c r="D103" s="25"/>
-      <c r="E103" s="29">
-        <v>0</v>
-      </c>
-      <c r="F103" s="24">
+      <c r="C103" s="23"/>
+      <c r="D103" s="27">
+        <v>3249</v>
+      </c>
+      <c r="E103" s="22">
         <v>0</v>
       </c>
       <c r="G103" s="4"/>
@@ -7351,16 +7040,13 @@
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B104" s="18">
-        <v>101</v>
-      </c>
-      <c r="C104" s="20">
         <v>44005</v>
       </c>
-      <c r="D104" s="27"/>
-      <c r="E104" s="28">
-        <v>0</v>
-      </c>
-      <c r="F104" s="23">
+      <c r="C104" s="25"/>
+      <c r="D104" s="26">
+        <v>3213</v>
+      </c>
+      <c r="E104" s="21">
         <v>0</v>
       </c>
       <c r="G104" s="4"/>
@@ -7372,16 +7058,13 @@
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B105" s="17">
-        <v>102</v>
-      </c>
-      <c r="C105" s="19">
         <v>44006</v>
       </c>
-      <c r="D105" s="25"/>
-      <c r="E105" s="29">
-        <v>0</v>
-      </c>
-      <c r="F105" s="24">
+      <c r="C105" s="23"/>
+      <c r="D105" s="27">
+        <v>3177</v>
+      </c>
+      <c r="E105" s="22">
         <v>0</v>
       </c>
       <c r="G105" s="4"/>
@@ -7393,16 +7076,13 @@
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B106" s="18">
-        <v>103</v>
-      </c>
-      <c r="C106" s="20">
         <v>44007</v>
       </c>
-      <c r="D106" s="27"/>
-      <c r="E106" s="28">
-        <v>0</v>
-      </c>
-      <c r="F106" s="23">
+      <c r="C106" s="25"/>
+      <c r="D106" s="26">
+        <v>3141</v>
+      </c>
+      <c r="E106" s="21">
         <v>0</v>
       </c>
       <c r="G106" s="4"/>
@@ -7414,16 +7094,13 @@
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B107" s="17">
-        <v>104</v>
-      </c>
-      <c r="C107" s="19">
         <v>44008</v>
       </c>
-      <c r="D107" s="25"/>
-      <c r="E107" s="29">
-        <v>0</v>
-      </c>
-      <c r="F107" s="24">
+      <c r="C107" s="23"/>
+      <c r="D107" s="27">
+        <v>3105</v>
+      </c>
+      <c r="E107" s="22">
         <v>0</v>
       </c>
       <c r="G107" s="4"/>
@@ -7435,16 +7112,13 @@
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B108" s="18">
-        <v>105</v>
-      </c>
-      <c r="C108" s="20">
         <v>44009</v>
       </c>
-      <c r="D108" s="27"/>
-      <c r="E108" s="28">
-        <v>0</v>
-      </c>
-      <c r="F108" s="23">
+      <c r="C108" s="25"/>
+      <c r="D108" s="26">
+        <v>3070</v>
+      </c>
+      <c r="E108" s="21">
         <v>0</v>
       </c>
       <c r="G108" s="4"/>
@@ -7456,16 +7130,13 @@
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B109" s="17">
-        <v>106</v>
-      </c>
-      <c r="C109" s="19">
         <v>44010</v>
       </c>
-      <c r="D109" s="25"/>
-      <c r="E109" s="29">
-        <v>0</v>
-      </c>
-      <c r="F109" s="24">
+      <c r="C109" s="23"/>
+      <c r="D109" s="27">
+        <v>3035</v>
+      </c>
+      <c r="E109" s="22">
         <v>0</v>
       </c>
       <c r="G109" s="4"/>
@@ -7477,16 +7148,13 @@
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B110" s="18">
-        <v>107</v>
-      </c>
-      <c r="C110" s="20">
         <v>44011</v>
       </c>
-      <c r="D110" s="27"/>
-      <c r="E110" s="28">
-        <v>0</v>
-      </c>
-      <c r="F110" s="23">
+      <c r="C110" s="25"/>
+      <c r="D110" s="26">
+        <v>3000</v>
+      </c>
+      <c r="E110" s="21">
         <v>0</v>
       </c>
       <c r="G110" s="4"/>
@@ -7498,16 +7166,13 @@
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B111" s="17">
-        <v>108</v>
-      </c>
-      <c r="C111" s="19">
         <v>44012</v>
       </c>
-      <c r="D111" s="25"/>
-      <c r="E111" s="29">
-        <v>0</v>
-      </c>
-      <c r="F111" s="24">
+      <c r="C111" s="23"/>
+      <c r="D111" s="27">
+        <v>2965</v>
+      </c>
+      <c r="E111" s="22">
         <v>0</v>
       </c>
       <c r="G111" s="4"/>
@@ -7519,16 +7184,13 @@
     </row>
     <row r="112" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B112" s="18">
-        <v>109</v>
-      </c>
-      <c r="C112" s="20">
         <v>44013</v>
       </c>
-      <c r="D112" s="27"/>
-      <c r="E112" s="28">
-        <v>0</v>
-      </c>
-      <c r="F112" s="23">
+      <c r="C112" s="25"/>
+      <c r="D112" s="26">
+        <v>2930</v>
+      </c>
+      <c r="E112" s="21">
         <v>0</v>
       </c>
       <c r="G112" s="4"/>
@@ -7540,16 +7202,13 @@
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B113" s="17">
-        <v>110</v>
-      </c>
-      <c r="C113" s="19">
         <v>44014</v>
       </c>
-      <c r="D113" s="25"/>
-      <c r="E113" s="29">
-        <v>0</v>
-      </c>
-      <c r="F113" s="24">
+      <c r="C113" s="23"/>
+      <c r="D113" s="27">
+        <v>2895</v>
+      </c>
+      <c r="E113" s="22">
         <v>0</v>
       </c>
       <c r="G113" s="4"/>
@@ -7561,16 +7220,13 @@
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B114" s="18">
-        <v>111</v>
-      </c>
-      <c r="C114" s="20">
         <v>44015</v>
       </c>
-      <c r="D114" s="27"/>
-      <c r="E114" s="28">
-        <v>0</v>
-      </c>
-      <c r="F114" s="23">
+      <c r="C114" s="25"/>
+      <c r="D114" s="26">
+        <v>2860</v>
+      </c>
+      <c r="E114" s="21">
         <v>0</v>
       </c>
       <c r="G114" s="4"/>
@@ -7582,16 +7238,13 @@
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B115" s="17">
-        <v>112</v>
-      </c>
-      <c r="C115" s="19">
         <v>44016</v>
       </c>
-      <c r="D115" s="25"/>
-      <c r="E115" s="29">
-        <v>0</v>
-      </c>
-      <c r="F115" s="24">
+      <c r="C115" s="23"/>
+      <c r="D115" s="27">
+        <v>2825</v>
+      </c>
+      <c r="E115" s="22">
         <v>0</v>
       </c>
       <c r="G115" s="4"/>
@@ -7603,16 +7256,13 @@
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B116" s="18">
-        <v>113</v>
-      </c>
-      <c r="C116" s="20">
         <v>44017</v>
       </c>
-      <c r="D116" s="27"/>
-      <c r="E116" s="28">
-        <v>0</v>
-      </c>
-      <c r="F116" s="23">
+      <c r="C116" s="25"/>
+      <c r="D116" s="26">
+        <v>2790</v>
+      </c>
+      <c r="E116" s="21">
         <v>0</v>
       </c>
       <c r="G116" s="4"/>
@@ -7624,16 +7274,13 @@
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B117" s="17">
-        <v>114</v>
-      </c>
-      <c r="C117" s="19">
         <v>44018</v>
       </c>
-      <c r="D117" s="25"/>
-      <c r="E117" s="29">
-        <v>0</v>
-      </c>
-      <c r="F117" s="24">
+      <c r="C117" s="23"/>
+      <c r="D117" s="27">
+        <v>2755</v>
+      </c>
+      <c r="E117" s="22">
         <v>0</v>
       </c>
       <c r="G117" s="4"/>
@@ -7645,16 +7292,13 @@
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B118" s="18">
-        <v>115</v>
-      </c>
-      <c r="C118" s="20">
         <v>44019</v>
       </c>
-      <c r="D118" s="27"/>
-      <c r="E118" s="28">
-        <v>0</v>
-      </c>
-      <c r="F118" s="23">
+      <c r="C118" s="25"/>
+      <c r="D118" s="26">
+        <v>2721</v>
+      </c>
+      <c r="E118" s="21">
         <v>0</v>
       </c>
       <c r="G118" s="4"/>
@@ -7666,16 +7310,13 @@
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B119" s="17">
-        <v>116</v>
-      </c>
-      <c r="C119" s="19">
         <v>44020</v>
       </c>
-      <c r="D119" s="25"/>
-      <c r="E119" s="29">
-        <v>0</v>
-      </c>
-      <c r="F119" s="24">
+      <c r="C119" s="23"/>
+      <c r="D119" s="27">
+        <v>2687</v>
+      </c>
+      <c r="E119" s="22">
         <v>0</v>
       </c>
       <c r="G119" s="4"/>
@@ -7687,16 +7328,13 @@
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B120" s="18">
-        <v>117</v>
-      </c>
-      <c r="C120" s="20">
         <v>44021</v>
       </c>
-      <c r="D120" s="27"/>
-      <c r="E120" s="28">
-        <v>0</v>
-      </c>
-      <c r="F120" s="23">
+      <c r="C120" s="25"/>
+      <c r="D120" s="26">
+        <v>2653</v>
+      </c>
+      <c r="E120" s="21">
         <v>0</v>
       </c>
       <c r="G120" s="4"/>
@@ -7708,16 +7346,13 @@
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B121" s="17">
-        <v>118</v>
-      </c>
-      <c r="C121" s="19">
         <v>44022</v>
       </c>
-      <c r="D121" s="25"/>
-      <c r="E121" s="29">
-        <v>0</v>
-      </c>
-      <c r="F121" s="24">
+      <c r="C121" s="23"/>
+      <c r="D121" s="27">
+        <v>2619</v>
+      </c>
+      <c r="E121" s="22">
         <v>0</v>
       </c>
       <c r="G121" s="4"/>
@@ -7729,16 +7364,13 @@
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B122" s="18">
-        <v>119</v>
-      </c>
-      <c r="C122" s="20">
         <v>44023</v>
       </c>
-      <c r="D122" s="27"/>
-      <c r="E122" s="28">
-        <v>0</v>
-      </c>
-      <c r="F122" s="23">
+      <c r="C122" s="25"/>
+      <c r="D122" s="26">
+        <v>2585</v>
+      </c>
+      <c r="E122" s="21">
         <v>0</v>
       </c>
       <c r="G122" s="4"/>
@@ -7750,16 +7382,13 @@
     </row>
     <row r="123" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B123" s="17">
-        <v>120</v>
-      </c>
-      <c r="C123" s="19">
         <v>44024</v>
       </c>
-      <c r="D123" s="25"/>
-      <c r="E123" s="29">
-        <v>0</v>
-      </c>
-      <c r="F123" s="24">
+      <c r="C123" s="23"/>
+      <c r="D123" s="27">
+        <v>2551</v>
+      </c>
+      <c r="E123" s="22">
         <v>0</v>
       </c>
       <c r="G123" s="4"/>
@@ -7771,16 +7400,13 @@
     </row>
     <row r="124" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B124" s="18">
-        <v>121</v>
-      </c>
-      <c r="C124" s="20">
         <v>44025</v>
       </c>
-      <c r="D124" s="27"/>
-      <c r="E124" s="28">
-        <v>0</v>
-      </c>
-      <c r="F124" s="23">
+      <c r="C124" s="25"/>
+      <c r="D124" s="26">
+        <v>2518</v>
+      </c>
+      <c r="E124" s="21">
         <v>0</v>
       </c>
       <c r="G124" s="4"/>
@@ -7792,16 +7418,13 @@
     </row>
     <row r="125" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B125" s="17">
-        <v>122</v>
-      </c>
-      <c r="C125" s="19">
         <v>44026</v>
       </c>
-      <c r="D125" s="25"/>
-      <c r="E125" s="29">
-        <v>0</v>
-      </c>
-      <c r="F125" s="24">
+      <c r="C125" s="23"/>
+      <c r="D125" s="27">
+        <v>2485</v>
+      </c>
+      <c r="E125" s="22">
         <v>0</v>
       </c>
       <c r="G125" s="4"/>
@@ -7813,16 +7436,13 @@
     </row>
     <row r="126" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B126" s="18">
-        <v>123</v>
-      </c>
-      <c r="C126" s="20">
         <v>44027</v>
       </c>
-      <c r="D126" s="27"/>
-      <c r="E126" s="28">
-        <v>0</v>
-      </c>
-      <c r="F126" s="23">
+      <c r="C126" s="25"/>
+      <c r="D126" s="26">
+        <v>2452</v>
+      </c>
+      <c r="E126" s="21">
         <v>0</v>
       </c>
       <c r="G126" s="4"/>
@@ -7834,16 +7454,13 @@
     </row>
     <row r="127" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B127" s="17">
-        <v>124</v>
-      </c>
-      <c r="C127" s="19">
         <v>44028</v>
       </c>
-      <c r="D127" s="25"/>
-      <c r="E127" s="29">
-        <v>0</v>
-      </c>
-      <c r="F127" s="24">
+      <c r="C127" s="23"/>
+      <c r="D127" s="27">
+        <v>2419</v>
+      </c>
+      <c r="E127" s="22">
         <v>0</v>
       </c>
       <c r="G127" s="4"/>
@@ -7855,16 +7472,13 @@
     </row>
     <row r="128" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B128" s="18">
-        <v>125</v>
-      </c>
-      <c r="C128" s="20">
         <v>44029</v>
       </c>
-      <c r="D128" s="27"/>
-      <c r="E128" s="28">
-        <v>0</v>
-      </c>
-      <c r="F128" s="23">
+      <c r="C128" s="25"/>
+      <c r="D128" s="26">
+        <v>2386</v>
+      </c>
+      <c r="E128" s="21">
         <v>0</v>
       </c>
       <c r="G128" s="4"/>
@@ -7876,16 +7490,13 @@
     </row>
     <row r="129" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B129" s="17">
-        <v>126</v>
-      </c>
-      <c r="C129" s="19">
         <v>44030</v>
       </c>
-      <c r="D129" s="25"/>
-      <c r="E129" s="29">
-        <v>0</v>
-      </c>
-      <c r="F129" s="24">
+      <c r="C129" s="23"/>
+      <c r="D129" s="27">
+        <v>2353</v>
+      </c>
+      <c r="E129" s="22">
         <v>0</v>
       </c>
       <c r="G129" s="4"/>
@@ -7897,16 +7508,13 @@
     </row>
     <row r="130" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B130" s="18">
-        <v>127</v>
-      </c>
-      <c r="C130" s="20">
         <v>44031</v>
       </c>
-      <c r="D130" s="27"/>
-      <c r="E130" s="28">
-        <v>0</v>
-      </c>
-      <c r="F130" s="23">
+      <c r="C130" s="25"/>
+      <c r="D130" s="26">
+        <v>2320</v>
+      </c>
+      <c r="E130" s="21">
         <v>0</v>
       </c>
       <c r="G130" s="4"/>
@@ -7918,16 +7526,13 @@
     </row>
     <row r="131" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B131" s="17">
-        <v>128</v>
-      </c>
-      <c r="C131" s="19">
         <v>44032</v>
       </c>
-      <c r="D131" s="25"/>
-      <c r="E131" s="29">
-        <v>0</v>
-      </c>
-      <c r="F131" s="24">
+      <c r="C131" s="23"/>
+      <c r="D131" s="27">
+        <v>2287</v>
+      </c>
+      <c r="E131" s="22">
         <v>0</v>
       </c>
       <c r="G131" s="4"/>
@@ -7939,16 +7544,13 @@
     </row>
     <row r="132" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B132" s="18">
-        <v>129</v>
-      </c>
-      <c r="C132" s="20">
         <v>44033</v>
       </c>
-      <c r="D132" s="27"/>
-      <c r="E132" s="28">
-        <v>0</v>
-      </c>
-      <c r="F132" s="23">
+      <c r="C132" s="25"/>
+      <c r="D132" s="26">
+        <v>2255</v>
+      </c>
+      <c r="E132" s="21">
         <v>0</v>
       </c>
       <c r="G132" s="4"/>
@@ -7960,16 +7562,13 @@
     </row>
     <row r="133" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B133" s="17">
-        <v>130</v>
-      </c>
-      <c r="C133" s="19">
         <v>44034</v>
       </c>
-      <c r="D133" s="25"/>
-      <c r="E133" s="29">
-        <v>0</v>
-      </c>
-      <c r="F133" s="24">
+      <c r="C133" s="23"/>
+      <c r="D133" s="27">
+        <v>2223</v>
+      </c>
+      <c r="E133" s="22">
         <v>0</v>
       </c>
       <c r="G133" s="4"/>
@@ -7981,16 +7580,13 @@
     </row>
     <row r="134" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B134" s="18">
-        <v>131</v>
-      </c>
-      <c r="C134" s="20">
         <v>44035</v>
       </c>
-      <c r="D134" s="27"/>
-      <c r="E134" s="28">
-        <v>0</v>
-      </c>
-      <c r="F134" s="23">
+      <c r="C134" s="25"/>
+      <c r="D134" s="26">
+        <v>2191</v>
+      </c>
+      <c r="E134" s="21">
         <v>0</v>
       </c>
       <c r="G134" s="4"/>
@@ -8002,16 +7598,13 @@
     </row>
     <row r="135" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B135" s="17">
-        <v>132</v>
-      </c>
-      <c r="C135" s="19">
         <v>44036</v>
       </c>
-      <c r="D135" s="25"/>
-      <c r="E135" s="29">
-        <v>0</v>
-      </c>
-      <c r="F135" s="24">
+      <c r="C135" s="23"/>
+      <c r="D135" s="27">
+        <v>2159</v>
+      </c>
+      <c r="E135" s="22">
         <v>0</v>
       </c>
       <c r="G135" s="4"/>
@@ -8023,16 +7616,13 @@
     </row>
     <row r="136" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B136" s="18">
-        <v>133</v>
-      </c>
-      <c r="C136" s="20">
         <v>44037</v>
       </c>
-      <c r="D136" s="27"/>
-      <c r="E136" s="28">
-        <v>0</v>
-      </c>
-      <c r="F136" s="23">
+      <c r="C136" s="25"/>
+      <c r="D136" s="26">
+        <v>2127</v>
+      </c>
+      <c r="E136" s="21">
         <v>0</v>
       </c>
       <c r="G136" s="4"/>
@@ -8044,16 +7634,13 @@
     </row>
     <row r="137" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B137" s="17">
-        <v>134</v>
-      </c>
-      <c r="C137" s="19">
         <v>44038</v>
       </c>
-      <c r="D137" s="25"/>
-      <c r="E137" s="29">
-        <v>0</v>
-      </c>
-      <c r="F137" s="24">
+      <c r="C137" s="23"/>
+      <c r="D137" s="27">
+        <v>2095</v>
+      </c>
+      <c r="E137" s="22">
         <v>0</v>
       </c>
       <c r="G137" s="4"/>
@@ -8065,16 +7652,13 @@
     </row>
     <row r="138" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B138" s="18">
-        <v>135</v>
-      </c>
-      <c r="C138" s="20">
         <v>44039</v>
       </c>
-      <c r="D138" s="27"/>
-      <c r="E138" s="28">
-        <v>0</v>
-      </c>
-      <c r="F138" s="23">
+      <c r="C138" s="25"/>
+      <c r="D138" s="26">
+        <v>2064</v>
+      </c>
+      <c r="E138" s="21">
         <v>0</v>
       </c>
       <c r="G138" s="4"/>
@@ -8086,16 +7670,13 @@
     </row>
     <row r="139" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B139" s="17">
-        <v>136</v>
-      </c>
-      <c r="C139" s="19">
         <v>44040</v>
       </c>
-      <c r="D139" s="25"/>
-      <c r="E139" s="29">
-        <v>0</v>
-      </c>
-      <c r="F139" s="24">
+      <c r="C139" s="23"/>
+      <c r="D139" s="27">
+        <v>2033</v>
+      </c>
+      <c r="E139" s="22">
         <v>0</v>
       </c>
       <c r="G139" s="4"/>
@@ -8107,16 +7688,13 @@
     </row>
     <row r="140" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B140" s="18">
-        <v>137</v>
-      </c>
-      <c r="C140" s="20">
         <v>44041</v>
       </c>
-      <c r="D140" s="27"/>
-      <c r="E140" s="28">
-        <v>0</v>
-      </c>
-      <c r="F140" s="23">
+      <c r="C140" s="25"/>
+      <c r="D140" s="26">
+        <v>2002</v>
+      </c>
+      <c r="E140" s="21">
         <v>0</v>
       </c>
       <c r="G140" s="4"/>
@@ -8128,16 +7706,13 @@
     </row>
     <row r="141" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B141" s="17">
-        <v>138</v>
-      </c>
-      <c r="C141" s="19">
         <v>44042</v>
       </c>
-      <c r="D141" s="25"/>
-      <c r="E141" s="29">
-        <v>0</v>
-      </c>
-      <c r="F141" s="24">
+      <c r="C141" s="23"/>
+      <c r="D141" s="27">
+        <v>1971</v>
+      </c>
+      <c r="E141" s="22">
         <v>0</v>
       </c>
       <c r="G141" s="4"/>
@@ -8149,16 +7724,13 @@
     </row>
     <row r="142" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B142" s="18">
-        <v>139</v>
-      </c>
-      <c r="C142" s="20">
         <v>44043</v>
       </c>
-      <c r="D142" s="27"/>
-      <c r="E142" s="28">
-        <v>0</v>
-      </c>
-      <c r="F142" s="23">
+      <c r="C142" s="25"/>
+      <c r="D142" s="26">
+        <v>1940</v>
+      </c>
+      <c r="E142" s="21">
         <v>0</v>
       </c>
       <c r="G142" s="4"/>
@@ -8170,16 +7742,13 @@
     </row>
     <row r="143" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B143" s="17">
-        <v>140</v>
-      </c>
-      <c r="C143" s="19">
         <v>44044</v>
       </c>
-      <c r="D143" s="25"/>
-      <c r="E143" s="29">
-        <v>0</v>
-      </c>
-      <c r="F143" s="24">
+      <c r="C143" s="23"/>
+      <c r="D143" s="27">
+        <v>1909</v>
+      </c>
+      <c r="E143" s="22">
         <v>0</v>
       </c>
       <c r="G143" s="4"/>
@@ -8191,16 +7760,13 @@
     </row>
     <row r="144" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B144" s="18">
-        <v>141</v>
-      </c>
-      <c r="C144" s="20">
         <v>44045</v>
       </c>
-      <c r="D144" s="27"/>
-      <c r="E144" s="28">
-        <v>0</v>
-      </c>
-      <c r="F144" s="23">
+      <c r="C144" s="25"/>
+      <c r="D144" s="26">
+        <v>1878</v>
+      </c>
+      <c r="E144" s="21">
         <v>0</v>
       </c>
       <c r="G144" s="4"/>
@@ -8212,16 +7778,13 @@
     </row>
     <row r="145" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B145" s="17">
-        <v>142</v>
-      </c>
-      <c r="C145" s="19">
         <v>44046</v>
       </c>
-      <c r="D145" s="25"/>
-      <c r="E145" s="29">
-        <v>0</v>
-      </c>
-      <c r="F145" s="24">
+      <c r="C145" s="23"/>
+      <c r="D145" s="27">
+        <v>1848</v>
+      </c>
+      <c r="E145" s="22">
         <v>0</v>
       </c>
       <c r="G145" s="4"/>
@@ -8233,16 +7796,13 @@
     </row>
     <row r="146" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B146" s="18">
-        <v>143</v>
-      </c>
-      <c r="C146" s="20">
         <v>44047</v>
       </c>
-      <c r="D146" s="27"/>
-      <c r="E146" s="28">
-        <v>0</v>
-      </c>
-      <c r="F146" s="23">
+      <c r="C146" s="25"/>
+      <c r="D146" s="26">
+        <v>1818</v>
+      </c>
+      <c r="E146" s="21">
         <v>0</v>
       </c>
       <c r="G146" s="4"/>
@@ -8254,16 +7814,13 @@
     </row>
     <row r="147" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B147" s="17">
-        <v>144</v>
-      </c>
-      <c r="C147" s="19">
         <v>44048</v>
       </c>
-      <c r="D147" s="25"/>
-      <c r="E147" s="29">
-        <v>0</v>
-      </c>
-      <c r="F147" s="24">
+      <c r="C147" s="23"/>
+      <c r="D147" s="27">
+        <v>1788</v>
+      </c>
+      <c r="E147" s="22">
         <v>0</v>
       </c>
       <c r="G147" s="4"/>
@@ -8275,16 +7832,13 @@
     </row>
     <row r="148" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B148" s="18">
-        <v>145</v>
-      </c>
-      <c r="C148" s="20">
         <v>44049</v>
       </c>
-      <c r="D148" s="27"/>
-      <c r="E148" s="28">
-        <v>0</v>
-      </c>
-      <c r="F148" s="23">
+      <c r="C148" s="25"/>
+      <c r="D148" s="26">
+        <v>1758</v>
+      </c>
+      <c r="E148" s="21">
         <v>0</v>
       </c>
       <c r="G148" s="4"/>
@@ -8296,16 +7850,13 @@
     </row>
     <row r="149" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B149" s="17">
-        <v>146</v>
-      </c>
-      <c r="C149" s="19">
         <v>44050</v>
       </c>
-      <c r="D149" s="25"/>
-      <c r="E149" s="29">
-        <v>0</v>
-      </c>
-      <c r="F149" s="24">
+      <c r="C149" s="23"/>
+      <c r="D149" s="27">
+        <v>1728</v>
+      </c>
+      <c r="E149" s="22">
         <v>0</v>
       </c>
       <c r="G149" s="4"/>
@@ -8317,16 +7868,13 @@
     </row>
     <row r="150" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B150" s="18">
-        <v>147</v>
-      </c>
-      <c r="C150" s="20">
         <v>44051</v>
       </c>
-      <c r="D150" s="27"/>
-      <c r="E150" s="28">
-        <v>0</v>
-      </c>
-      <c r="F150" s="23">
+      <c r="C150" s="25"/>
+      <c r="D150" s="26">
+        <v>1698</v>
+      </c>
+      <c r="E150" s="21">
         <v>0</v>
       </c>
       <c r="G150" s="4"/>
@@ -8338,16 +7886,13 @@
     </row>
     <row r="151" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B151" s="17">
-        <v>148</v>
-      </c>
-      <c r="C151" s="19">
         <v>44052</v>
       </c>
-      <c r="D151" s="25"/>
-      <c r="E151" s="29">
-        <v>0</v>
-      </c>
-      <c r="F151" s="24">
+      <c r="C151" s="23"/>
+      <c r="D151" s="27">
+        <v>1669</v>
+      </c>
+      <c r="E151" s="22">
         <v>0</v>
       </c>
       <c r="G151" s="4"/>
@@ -8359,16 +7904,13 @@
     </row>
     <row r="152" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B152" s="18">
-        <v>149</v>
-      </c>
-      <c r="C152" s="20">
         <v>44053</v>
       </c>
-      <c r="D152" s="27"/>
-      <c r="E152" s="28">
-        <v>0</v>
-      </c>
-      <c r="F152" s="23">
+      <c r="C152" s="25"/>
+      <c r="D152" s="26">
+        <v>1640</v>
+      </c>
+      <c r="E152" s="21">
         <v>0</v>
       </c>
       <c r="G152" s="4"/>
@@ -8380,16 +7922,13 @@
     </row>
     <row r="153" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B153" s="17">
-        <v>150</v>
-      </c>
-      <c r="C153" s="19">
         <v>44054</v>
       </c>
-      <c r="D153" s="25"/>
-      <c r="E153" s="29">
-        <v>0</v>
-      </c>
-      <c r="F153" s="24">
+      <c r="C153" s="23"/>
+      <c r="D153" s="27">
+        <v>1611</v>
+      </c>
+      <c r="E153" s="22">
         <v>0</v>
       </c>
       <c r="G153" s="4"/>
@@ -8401,16 +7940,13 @@
     </row>
     <row r="154" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B154" s="18">
-        <v>151</v>
-      </c>
-      <c r="C154" s="20">
         <v>44055</v>
       </c>
-      <c r="D154" s="27"/>
-      <c r="E154" s="28">
-        <v>0</v>
-      </c>
-      <c r="F154" s="23">
+      <c r="C154" s="25"/>
+      <c r="D154" s="26">
+        <v>1582</v>
+      </c>
+      <c r="E154" s="21">
         <v>0</v>
       </c>
       <c r="G154" s="4"/>
@@ -8422,16 +7958,13 @@
     </row>
     <row r="155" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B155" s="17">
-        <v>152</v>
-      </c>
-      <c r="C155" s="19">
         <v>44056</v>
       </c>
-      <c r="D155" s="25"/>
-      <c r="E155" s="29">
-        <v>0</v>
-      </c>
-      <c r="F155" s="24">
+      <c r="C155" s="23"/>
+      <c r="D155" s="27">
+        <v>1553</v>
+      </c>
+      <c r="E155" s="22">
         <v>0</v>
       </c>
       <c r="G155" s="4"/>
@@ -8443,16 +7976,13 @@
     </row>
     <row r="156" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B156" s="18">
-        <v>153</v>
-      </c>
-      <c r="C156" s="20">
         <v>44057</v>
       </c>
-      <c r="D156" s="27"/>
-      <c r="E156" s="28">
-        <v>0</v>
-      </c>
-      <c r="F156" s="23">
+      <c r="C156" s="25"/>
+      <c r="D156" s="26">
+        <v>1524</v>
+      </c>
+      <c r="E156" s="21">
         <v>0</v>
       </c>
       <c r="G156" s="4"/>
@@ -8464,16 +7994,13 @@
     </row>
     <row r="157" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B157" s="17">
-        <v>154</v>
-      </c>
-      <c r="C157" s="19">
         <v>44058</v>
       </c>
-      <c r="D157" s="25"/>
-      <c r="E157" s="29">
-        <v>0</v>
-      </c>
-      <c r="F157" s="24">
+      <c r="C157" s="23"/>
+      <c r="D157" s="27">
+        <v>1496</v>
+      </c>
+      <c r="E157" s="22">
         <v>0</v>
       </c>
       <c r="G157" s="4"/>
@@ -8485,16 +8012,13 @@
     </row>
     <row r="158" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B158" s="18">
-        <v>155</v>
-      </c>
-      <c r="C158" s="20">
         <v>44059</v>
       </c>
-      <c r="D158" s="27"/>
-      <c r="E158" s="28">
-        <v>0</v>
-      </c>
-      <c r="F158" s="23">
+      <c r="C158" s="25"/>
+      <c r="D158" s="26">
+        <v>1468</v>
+      </c>
+      <c r="E158" s="21">
         <v>0</v>
       </c>
       <c r="G158" s="4"/>
@@ -8506,16 +8030,13 @@
     </row>
     <row r="159" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B159" s="17">
-        <v>156</v>
-      </c>
-      <c r="C159" s="19">
         <v>44060</v>
       </c>
-      <c r="D159" s="25"/>
-      <c r="E159" s="29">
-        <v>0</v>
-      </c>
-      <c r="F159" s="24">
+      <c r="C159" s="23"/>
+      <c r="D159" s="27">
+        <v>1440</v>
+      </c>
+      <c r="E159" s="22">
         <v>0</v>
       </c>
       <c r="G159" s="4"/>
@@ -8527,16 +8048,13 @@
     </row>
     <row r="160" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B160" s="18">
-        <v>157</v>
-      </c>
-      <c r="C160" s="20">
         <v>44061</v>
       </c>
-      <c r="D160" s="27"/>
-      <c r="E160" s="28">
-        <v>0</v>
-      </c>
-      <c r="F160" s="23">
+      <c r="C160" s="25"/>
+      <c r="D160" s="26">
+        <v>1412</v>
+      </c>
+      <c r="E160" s="21">
         <v>0</v>
       </c>
       <c r="G160" s="4"/>
@@ -8548,16 +8066,13 @@
     </row>
     <row r="161" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B161" s="17">
-        <v>158</v>
-      </c>
-      <c r="C161" s="19">
         <v>44062</v>
       </c>
-      <c r="D161" s="25"/>
-      <c r="E161" s="29">
-        <v>0</v>
-      </c>
-      <c r="F161" s="24">
+      <c r="C161" s="23"/>
+      <c r="D161" s="27">
+        <v>1384</v>
+      </c>
+      <c r="E161" s="22">
         <v>0</v>
       </c>
       <c r="G161" s="4"/>
@@ -8569,16 +8084,13 @@
     </row>
     <row r="162" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B162" s="18">
-        <v>159</v>
-      </c>
-      <c r="C162" s="20">
         <v>44063</v>
       </c>
-      <c r="D162" s="27"/>
-      <c r="E162" s="28">
-        <v>0</v>
-      </c>
-      <c r="F162" s="23">
+      <c r="C162" s="25"/>
+      <c r="D162" s="26">
+        <v>1357</v>
+      </c>
+      <c r="E162" s="21">
         <v>0</v>
       </c>
       <c r="G162" s="4"/>
@@ -8590,16 +8102,13 @@
     </row>
     <row r="163" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B163" s="17">
-        <v>160</v>
-      </c>
-      <c r="C163" s="19">
         <v>44064</v>
       </c>
-      <c r="D163" s="25"/>
-      <c r="E163" s="29">
-        <v>0</v>
-      </c>
-      <c r="F163" s="24">
+      <c r="C163" s="23"/>
+      <c r="D163" s="27">
+        <v>1330</v>
+      </c>
+      <c r="E163" s="22">
         <v>0</v>
       </c>
       <c r="G163" s="4"/>
@@ -8611,16 +8120,13 @@
     </row>
     <row r="164" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B164" s="18">
-        <v>161</v>
-      </c>
-      <c r="C164" s="20">
         <v>44065</v>
       </c>
-      <c r="D164" s="27"/>
-      <c r="E164" s="28">
-        <v>0</v>
-      </c>
-      <c r="F164" s="23">
+      <c r="C164" s="25"/>
+      <c r="D164" s="26">
+        <v>1303</v>
+      </c>
+      <c r="E164" s="21">
         <v>0</v>
       </c>
       <c r="G164" s="4"/>
@@ -8632,16 +8138,13 @@
     </row>
     <row r="165" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B165" s="17">
-        <v>162</v>
-      </c>
-      <c r="C165" s="19">
         <v>44066</v>
       </c>
-      <c r="D165" s="25"/>
-      <c r="E165" s="29">
-        <v>0</v>
-      </c>
-      <c r="F165" s="24">
+      <c r="C165" s="23"/>
+      <c r="D165" s="27">
+        <v>1276</v>
+      </c>
+      <c r="E165" s="22">
         <v>0</v>
       </c>
       <c r="G165" s="4"/>
@@ -8653,16 +8156,13 @@
     </row>
     <row r="166" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B166" s="18">
-        <v>163</v>
-      </c>
-      <c r="C166" s="20">
         <v>44067</v>
       </c>
-      <c r="D166" s="27"/>
-      <c r="E166" s="28">
-        <v>0</v>
-      </c>
-      <c r="F166" s="23">
+      <c r="C166" s="25"/>
+      <c r="D166" s="26">
+        <v>1249</v>
+      </c>
+      <c r="E166" s="21">
         <v>0</v>
       </c>
       <c r="G166" s="4"/>
@@ -8674,16 +8174,13 @@
     </row>
     <row r="167" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B167" s="17">
-        <v>164</v>
-      </c>
-      <c r="C167" s="19">
         <v>44068</v>
       </c>
-      <c r="D167" s="25"/>
-      <c r="E167" s="29">
-        <v>0</v>
-      </c>
-      <c r="F167" s="24">
+      <c r="C167" s="23"/>
+      <c r="D167" s="27">
+        <v>1223</v>
+      </c>
+      <c r="E167" s="22">
         <v>0</v>
       </c>
       <c r="G167" s="4"/>
@@ -8695,16 +8192,13 @@
     </row>
     <row r="168" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B168" s="18">
-        <v>165</v>
-      </c>
-      <c r="C168" s="20">
         <v>44069</v>
       </c>
-      <c r="D168" s="27"/>
-      <c r="E168" s="28">
-        <v>0</v>
-      </c>
-      <c r="F168" s="23">
+      <c r="C168" s="25"/>
+      <c r="D168" s="26">
+        <v>1197</v>
+      </c>
+      <c r="E168" s="21">
         <v>0</v>
       </c>
       <c r="G168" s="4"/>
@@ -8716,16 +8210,13 @@
     </row>
     <row r="169" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B169" s="17">
-        <v>166</v>
-      </c>
-      <c r="C169" s="19">
         <v>44070</v>
       </c>
-      <c r="D169" s="25"/>
-      <c r="E169" s="29">
-        <v>0</v>
-      </c>
-      <c r="F169" s="24">
+      <c r="C169" s="23"/>
+      <c r="D169" s="27">
+        <v>1171</v>
+      </c>
+      <c r="E169" s="22">
         <v>0</v>
       </c>
       <c r="G169" s="4"/>
@@ -8737,16 +8228,13 @@
     </row>
     <row r="170" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B170" s="18">
-        <v>167</v>
-      </c>
-      <c r="C170" s="20">
         <v>44071</v>
       </c>
-      <c r="D170" s="27"/>
-      <c r="E170" s="28">
-        <v>0</v>
-      </c>
-      <c r="F170" s="23">
+      <c r="C170" s="25"/>
+      <c r="D170" s="26">
+        <v>1145</v>
+      </c>
+      <c r="E170" s="21">
         <v>0</v>
       </c>
       <c r="G170" s="4"/>
@@ -8758,16 +8246,13 @@
     </row>
     <row r="171" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B171" s="17">
-        <v>168</v>
-      </c>
-      <c r="C171" s="19">
         <v>44072</v>
       </c>
-      <c r="D171" s="25"/>
-      <c r="E171" s="29">
-        <v>0</v>
-      </c>
-      <c r="F171" s="24">
+      <c r="C171" s="23"/>
+      <c r="D171" s="27">
+        <v>1119</v>
+      </c>
+      <c r="E171" s="22">
         <v>0</v>
       </c>
       <c r="G171" s="4"/>
@@ -8779,16 +8264,13 @@
     </row>
     <row r="172" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B172" s="18">
-        <v>169</v>
-      </c>
-      <c r="C172" s="20">
         <v>44073</v>
       </c>
-      <c r="D172" s="27"/>
-      <c r="E172" s="28">
-        <v>0</v>
-      </c>
-      <c r="F172" s="23">
+      <c r="C172" s="25"/>
+      <c r="D172" s="26">
+        <v>1094</v>
+      </c>
+      <c r="E172" s="21">
         <v>0</v>
       </c>
       <c r="G172" s="4"/>
@@ -8800,16 +8282,13 @@
     </row>
     <row r="173" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B173" s="17">
-        <v>170</v>
-      </c>
-      <c r="C173" s="19">
         <v>44074</v>
       </c>
-      <c r="D173" s="25"/>
-      <c r="E173" s="29">
-        <v>0</v>
-      </c>
-      <c r="F173" s="24">
+      <c r="C173" s="23"/>
+      <c r="D173" s="27">
+        <v>1069</v>
+      </c>
+      <c r="E173" s="22">
         <v>0</v>
       </c>
       <c r="G173" s="4"/>
@@ -8821,16 +8300,13 @@
     </row>
     <row r="174" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B174" s="18">
-        <v>171</v>
-      </c>
-      <c r="C174" s="20">
         <v>44075</v>
       </c>
-      <c r="D174" s="27"/>
-      <c r="E174" s="28">
-        <v>0</v>
-      </c>
-      <c r="F174" s="23">
+      <c r="C174" s="25"/>
+      <c r="D174" s="26">
+        <v>1044</v>
+      </c>
+      <c r="E174" s="21">
         <v>0</v>
       </c>
       <c r="G174" s="4"/>
@@ -8842,16 +8318,13 @@
     </row>
     <row r="175" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B175" s="17">
-        <v>172</v>
-      </c>
-      <c r="C175" s="19">
         <v>44076</v>
       </c>
-      <c r="D175" s="25"/>
-      <c r="E175" s="29">
-        <v>0</v>
-      </c>
-      <c r="F175" s="24">
+      <c r="C175" s="23"/>
+      <c r="D175" s="27">
+        <v>1019</v>
+      </c>
+      <c r="E175" s="22">
         <v>0</v>
       </c>
       <c r="G175" s="4"/>
@@ -8863,16 +8336,13 @@
     </row>
     <row r="176" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B176" s="18">
-        <v>173</v>
-      </c>
-      <c r="C176" s="20">
         <v>44077</v>
       </c>
-      <c r="D176" s="27"/>
-      <c r="E176" s="28">
-        <v>0</v>
-      </c>
-      <c r="F176" s="23">
+      <c r="C176" s="25"/>
+      <c r="D176" s="26">
+        <v>995</v>
+      </c>
+      <c r="E176" s="21">
         <v>0</v>
       </c>
       <c r="G176" s="4"/>
@@ -8884,16 +8354,13 @@
     </row>
     <row r="177" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B177" s="17">
-        <v>174</v>
-      </c>
-      <c r="C177" s="19">
         <v>44078</v>
       </c>
-      <c r="D177" s="25"/>
-      <c r="E177" s="29">
-        <v>0</v>
-      </c>
-      <c r="F177" s="24">
+      <c r="C177" s="23"/>
+      <c r="D177" s="27">
+        <v>971</v>
+      </c>
+      <c r="E177" s="22">
         <v>0</v>
       </c>
       <c r="G177" s="4"/>
@@ -8905,16 +8372,13 @@
     </row>
     <row r="178" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B178" s="18">
-        <v>175</v>
-      </c>
-      <c r="C178" s="20">
         <v>44079</v>
       </c>
-      <c r="D178" s="27"/>
-      <c r="E178" s="28">
-        <v>0</v>
-      </c>
-      <c r="F178" s="23">
+      <c r="C178" s="25"/>
+      <c r="D178" s="26">
+        <v>947</v>
+      </c>
+      <c r="E178" s="21">
         <v>0</v>
       </c>
       <c r="G178" s="4"/>
@@ -8926,16 +8390,13 @@
     </row>
     <row r="179" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B179" s="17">
-        <v>176</v>
-      </c>
-      <c r="C179" s="19">
         <v>44080</v>
       </c>
-      <c r="D179" s="25"/>
-      <c r="E179" s="29">
-        <v>0</v>
-      </c>
-      <c r="F179" s="24">
+      <c r="C179" s="23"/>
+      <c r="D179" s="27">
+        <v>923</v>
+      </c>
+      <c r="E179" s="22">
         <v>0</v>
       </c>
       <c r="G179" s="4"/>
@@ -8947,16 +8408,13 @@
     </row>
     <row r="180" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B180" s="18">
-        <v>177</v>
-      </c>
-      <c r="C180" s="20">
         <v>44081</v>
       </c>
-      <c r="D180" s="27"/>
-      <c r="E180" s="28">
-        <v>0</v>
-      </c>
-      <c r="F180" s="23">
+      <c r="C180" s="25"/>
+      <c r="D180" s="26">
+        <v>900</v>
+      </c>
+      <c r="E180" s="21">
         <v>0</v>
       </c>
       <c r="G180" s="4"/>
@@ -8968,16 +8426,13 @@
     </row>
     <row r="181" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B181" s="17">
-        <v>178</v>
-      </c>
-      <c r="C181" s="19">
         <v>44082</v>
       </c>
-      <c r="D181" s="25"/>
-      <c r="E181" s="29">
-        <v>0</v>
-      </c>
-      <c r="F181" s="24">
+      <c r="C181" s="23"/>
+      <c r="D181" s="27">
+        <v>877</v>
+      </c>
+      <c r="E181" s="22">
         <v>0</v>
       </c>
       <c r="G181" s="4"/>
@@ -8989,16 +8444,13 @@
     </row>
     <row r="182" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B182" s="18">
-        <v>179</v>
-      </c>
-      <c r="C182" s="20">
         <v>44083</v>
       </c>
-      <c r="D182" s="27"/>
-      <c r="E182" s="28">
-        <v>0</v>
-      </c>
-      <c r="F182" s="23">
+      <c r="C182" s="25"/>
+      <c r="D182" s="26">
+        <v>854</v>
+      </c>
+      <c r="E182" s="21">
         <v>0</v>
       </c>
       <c r="G182" s="4"/>
@@ -9010,16 +8462,13 @@
     </row>
     <row r="183" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B183" s="17">
-        <v>180</v>
-      </c>
-      <c r="C183" s="19">
         <v>44084</v>
       </c>
-      <c r="D183" s="25"/>
-      <c r="E183" s="29">
-        <v>0</v>
-      </c>
-      <c r="F183" s="24">
+      <c r="C183" s="23"/>
+      <c r="D183" s="27">
+        <v>831</v>
+      </c>
+      <c r="E183" s="22">
         <v>0</v>
       </c>
       <c r="G183" s="4"/>
@@ -9031,16 +8480,13 @@
     </row>
     <row r="184" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B184" s="18">
-        <v>181</v>
-      </c>
-      <c r="C184" s="20">
         <v>44085</v>
       </c>
-      <c r="D184" s="27"/>
-      <c r="E184" s="28">
-        <v>0</v>
-      </c>
-      <c r="F184" s="23">
+      <c r="C184" s="25"/>
+      <c r="D184" s="26">
+        <v>809</v>
+      </c>
+      <c r="E184" s="21">
         <v>0</v>
       </c>
       <c r="G184" s="4"/>
@@ -9052,16 +8498,13 @@
     </row>
     <row r="185" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B185" s="17">
-        <v>182</v>
-      </c>
-      <c r="C185" s="19">
         <v>44086</v>
       </c>
-      <c r="D185" s="25"/>
-      <c r="E185" s="29">
-        <v>0</v>
-      </c>
-      <c r="F185" s="24">
+      <c r="C185" s="23"/>
+      <c r="D185" s="27">
+        <v>787</v>
+      </c>
+      <c r="E185" s="22">
         <v>0</v>
       </c>
       <c r="G185" s="4"/>
@@ -9073,16 +8516,13 @@
     </row>
     <row r="186" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B186" s="18">
-        <v>183</v>
-      </c>
-      <c r="C186" s="20">
         <v>44087</v>
       </c>
-      <c r="D186" s="27"/>
-      <c r="E186" s="28">
-        <v>0</v>
-      </c>
-      <c r="F186" s="23">
+      <c r="C186" s="25"/>
+      <c r="D186" s="26">
+        <v>765</v>
+      </c>
+      <c r="E186" s="21">
         <v>0</v>
       </c>
       <c r="G186" s="4"/>
@@ -9094,16 +8534,13 @@
     </row>
     <row r="187" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B187" s="17">
-        <v>184</v>
-      </c>
-      <c r="C187" s="19">
         <v>44088</v>
       </c>
-      <c r="D187" s="25"/>
-      <c r="E187" s="29">
-        <v>0</v>
-      </c>
-      <c r="F187" s="24">
+      <c r="C187" s="23"/>
+      <c r="D187" s="27">
+        <v>743</v>
+      </c>
+      <c r="E187" s="22">
         <v>0</v>
       </c>
       <c r="G187" s="4"/>
@@ -9115,16 +8552,13 @@
     </row>
     <row r="188" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B188" s="18">
-        <v>185</v>
-      </c>
-      <c r="C188" s="20">
         <v>44089</v>
       </c>
-      <c r="D188" s="27"/>
-      <c r="E188" s="28">
-        <v>0</v>
-      </c>
-      <c r="F188" s="23">
+      <c r="C188" s="25"/>
+      <c r="D188" s="26">
+        <v>722</v>
+      </c>
+      <c r="E188" s="21">
         <v>0</v>
       </c>
       <c r="G188" s="4"/>
@@ -9136,16 +8570,13 @@
     </row>
     <row r="189" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B189" s="17">
-        <v>186</v>
-      </c>
-      <c r="C189" s="19">
         <v>44090</v>
       </c>
-      <c r="D189" s="25"/>
-      <c r="E189" s="29">
-        <v>0</v>
-      </c>
-      <c r="F189" s="24">
+      <c r="C189" s="23"/>
+      <c r="D189" s="27">
+        <v>701</v>
+      </c>
+      <c r="E189" s="22">
         <v>0</v>
       </c>
       <c r="G189" s="4"/>
@@ -9156,17 +8587,14 @@
       <c r="S189" s="7"/>
     </row>
     <row r="190" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="30">
-        <v>187</v>
-      </c>
-      <c r="C190" s="31">
+      <c r="B190" s="28">
         <v>44091</v>
       </c>
-      <c r="D190" s="32"/>
-      <c r="E190" s="33">
-        <v>0</v>
-      </c>
-      <c r="F190" s="34">
+      <c r="C190" s="29"/>
+      <c r="D190" s="30">
+        <v>680</v>
+      </c>
+      <c r="E190" s="31">
         <v>0</v>
       </c>
       <c r="G190" s="4"/>
